--- a/df_pivoted_table.xlsx
+++ b/df_pivoted_table.xlsx
@@ -619,7 +619,7 @@
         <v>44410.4108449074</v>
       </c>
       <c r="X2">
-        <v>123.6861111111111</v>
+        <v>27.68611111111113</v>
       </c>
       <c r="Y2" s="2">
         <v>44396</v>
@@ -628,7 +628,7 @@
         <v>44410.4108449074</v>
       </c>
       <c r="AA2">
-        <v>135.86</v>
+        <v>39.86000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.33833333333334</v>
+        <v>-22.66166666666666</v>
       </c>
       <c r="N3">
         <v>1.995</v>
@@ -684,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="R3">
-        <v>33.375</v>
+        <v>-14.625</v>
       </c>
       <c r="S3" s="2">
         <v>44386.33388888889</v>
@@ -693,7 +693,7 @@
         <v>44390.35416666666</v>
       </c>
       <c r="U3">
-        <v>36.48666666666666</v>
+        <v>-11.51333333333334</v>
       </c>
       <c r="V3" s="2">
         <v>44382.40001157407</v>
@@ -702,7 +702,7 @@
         <v>44389.45712962963</v>
       </c>
       <c r="X3">
-        <v>64.37083333333334</v>
+        <v>16.37083333333334</v>
       </c>
       <c r="Y3" s="2">
         <v>44382.40001157407</v>
@@ -711,7 +711,7 @@
         <v>44390.35416666666</v>
       </c>
       <c r="AA3">
-        <v>70.89972222222224</v>
+        <v>22.89972222222224</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -752,13 +752,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>56.33333333333334</v>
+        <v>8.333333333333343</v>
       </c>
       <c r="N4">
         <v>0.5333333333333333</v>
       </c>
       <c r="O4">
-        <v>-23.52250000000001</v>
+        <v>24.47749999999999</v>
       </c>
       <c r="P4">
         <v>0.1</v>
@@ -776,7 +776,7 @@
         <v>44411.33472222222</v>
       </c>
       <c r="U4">
-        <v>57.36666666666667</v>
+        <v>9.366666666666674</v>
       </c>
       <c r="V4" s="2">
         <v>44399.33537037037</v>
@@ -785,7 +785,7 @@
         <v>44407.30934027778</v>
       </c>
       <c r="X4">
-        <v>71.37527777777777</v>
+        <v>23.37527777777777</v>
       </c>
       <c r="Y4" s="2">
         <v>44399.33537037037</v>
@@ -794,7 +794,7 @@
         <v>44411.33472222222</v>
       </c>
       <c r="AA4">
-        <v>107.9844444444444</v>
+        <v>11.98444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -918,7 +918,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M6">
-        <v>23.66666666666667</v>
+        <v>-24.33333333333333</v>
       </c>
       <c r="N6">
         <v>11.83333333333333</v>
@@ -933,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="R6">
-        <v>27.21666666666667</v>
+        <v>-20.78333333333333</v>
       </c>
       <c r="S6" s="2">
         <v>44386.5625</v>
@@ -942,7 +942,7 @@
         <v>44391.35972222222</v>
       </c>
       <c r="U6">
-        <v>40.13333333333333</v>
+        <v>-7.866666666666674</v>
       </c>
       <c r="V6" s="2">
         <v>44384.40806712963</v>
@@ -960,7 +960,7 @@
         <v>44391.35972222222</v>
       </c>
       <c r="AA6">
-        <v>61.83972222222224</v>
+        <v>13.83972222222224</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1339,7 +1339,7 @@
         <v>2.007777777777778</v>
       </c>
       <c r="O11">
-        <v>26.83527777777778</v>
+        <v>-21.16472222222222</v>
       </c>
       <c r="P11">
         <v>0.08333333333333333</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="R11">
-        <v>26.84444444444444</v>
+        <v>-21.15555555555556</v>
       </c>
       <c r="S11" s="2">
         <v>44386.33388888889</v>
@@ -1357,7 +1357,7 @@
         <v>44389.54444444444</v>
       </c>
       <c r="U11">
-        <v>32.05333333333333</v>
+        <v>-15.94666666666667</v>
       </c>
       <c r="V11" s="2">
         <v>44386.55535879629</v>
@@ -1375,7 +1375,7 @@
         <v>44389.54444444444</v>
       </c>
       <c r="AA11">
-        <v>32.05333333333333</v>
+        <v>-15.94666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1416,7 +1416,7 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>26.42166666666667</v>
+        <v>-21.57833333333333</v>
       </c>
       <c r="N12">
         <v>1.995</v>
@@ -1431,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="R12">
-        <v>33.89166666666667</v>
+        <v>-14.10833333333333</v>
       </c>
       <c r="S12" s="2">
         <v>44386.30958333334</v>
@@ -1440,7 +1440,7 @@
         <v>44390.32986111111</v>
       </c>
       <c r="U12">
-        <v>36.48666666666666</v>
+        <v>-11.51333333333334</v>
       </c>
       <c r="V12" s="2">
         <v>44384.42340277778</v>
@@ -1458,7 +1458,7 @@
         <v>44390.32986111111</v>
       </c>
       <c r="AA12">
-        <v>51.755</v>
+        <v>3.754999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1674,7 +1674,7 @@
         <v>14.47388888888889</v>
       </c>
       <c r="P15">
-        <v>25.89138888888888</v>
+        <v>-22.10861111111112</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
@@ -1689,7 +1689,7 @@
         <v>44389.68171296296</v>
       </c>
       <c r="U15">
-        <v>44.19194444444445</v>
+        <v>-3.808055555555555</v>
       </c>
       <c r="V15" s="2">
         <v>44383.59836805556</v>
@@ -1707,7 +1707,7 @@
         <v>44389.68171296296</v>
       </c>
       <c r="AA15">
-        <v>56.00027777777777</v>
+        <v>8.000277777777768</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1837,7 +1837,7 @@
         <v>5.990277777777778</v>
       </c>
       <c r="O17">
-        <v>86.74388888888888</v>
+        <v>38.74388888888888</v>
       </c>
       <c r="P17">
         <v>1.146388888888889</v>
@@ -1846,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="R17">
-        <v>87.59249999999999</v>
+        <v>39.59249999999999</v>
       </c>
       <c r="S17" s="2">
         <v>44397.63541666666</v>
@@ -1855,7 +1855,7 @@
         <v>44407.84982638889</v>
       </c>
       <c r="U17">
-        <v>95.14583333333334</v>
+        <v>47.14583333333334</v>
       </c>
       <c r="V17" s="2">
         <v>44397.45016203705</v>
@@ -1873,7 +1873,7 @@
         <v>44407.84982638889</v>
       </c>
       <c r="AA17">
-        <v>99.59166666666667</v>
+        <v>51.59166666666667</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1956,7 +1956,7 @@
         <v>44399.57570601852</v>
       </c>
       <c r="AA18">
-        <v>78.21944444444443</v>
+        <v>30.21944444444443</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2039,7 +2039,7 @@
         <v>44398.73450231482</v>
       </c>
       <c r="AA19">
-        <v>73.41722222222222</v>
+        <v>25.41722222222222</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2338,7 +2338,7 @@
         <v>6.848888888888889</v>
       </c>
       <c r="P23">
-        <v>24.91638888888889</v>
+        <v>-23.08361111111111</v>
       </c>
       <c r="Q23" t="s">
         <v>27</v>
@@ -2353,7 +2353,7 @@
         <v>44389.84091435185</v>
       </c>
       <c r="U23">
-        <v>39.18194444444444</v>
+        <v>-8.81805555555556</v>
       </c>
       <c r="V23" s="2">
         <v>44385.30327546296</v>
@@ -2371,7 +2371,7 @@
         <v>44389.84091435185</v>
       </c>
       <c r="AA23">
-        <v>48.90333333333334</v>
+        <v>0.903333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2412,7 +2412,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="M24">
-        <v>28.08666666666667</v>
+        <v>-19.91333333333333</v>
       </c>
       <c r="N24">
         <v>2.006666666666667</v>
@@ -2427,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="R24">
-        <v>37.25472222222223</v>
+        <v>-10.74527777777777</v>
       </c>
       <c r="S24" s="2">
         <v>44393.43402777778</v>
@@ -2436,7 +2436,7 @@
         <v>44400.82715277778</v>
       </c>
       <c r="U24">
-        <v>72.435</v>
+        <v>24.435</v>
       </c>
       <c r="V24" s="2">
         <v>44392.47314814815</v>
@@ -2454,7 +2454,7 @@
         <v>44400.82715277778</v>
       </c>
       <c r="AA24">
-        <v>80.49611111111111</v>
+        <v>32.49611111111111</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2578,7 +2578,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>22.59333333333333</v>
+        <v>-25.40666666666667</v>
       </c>
       <c r="N26">
         <v>0.9366666666666666</v>
@@ -2593,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="R26">
-        <v>30.43638888888889</v>
+        <v>-17.56361111111111</v>
       </c>
       <c r="S26" s="2">
         <v>44393.58333333334</v>
@@ -2602,7 +2602,7 @@
         <v>44396.90819444445</v>
       </c>
       <c r="U26">
-        <v>34.79666666666667</v>
+        <v>-13.20333333333333</v>
       </c>
       <c r="V26" s="2">
         <v>44392.46298611111</v>
@@ -2620,7 +2620,7 @@
         <v>44396.90819444445</v>
       </c>
       <c r="AA26">
-        <v>46.685</v>
+        <v>-1.314999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2661,7 +2661,7 @@
         <v>0.25</v>
       </c>
       <c r="M27">
-        <v>21.34555555555556</v>
+        <v>-26.65444444444444</v>
       </c>
       <c r="N27">
         <v>0.5355555555555556</v>
@@ -2676,7 +2676,7 @@
         <v>27</v>
       </c>
       <c r="R27">
-        <v>28.94527777777779</v>
+        <v>-19.05472222222221</v>
       </c>
       <c r="S27" s="2">
         <v>44393.62847222222</v>
@@ -2685,7 +2685,7 @@
         <v>44396.75636574074</v>
       </c>
       <c r="U27">
-        <v>30.06944444444444</v>
+        <v>-17.93055555555556</v>
       </c>
       <c r="V27" s="2">
         <v>44392.46886574074</v>
@@ -2703,7 +2703,7 @@
         <v>44396.75636574074</v>
       </c>
       <c r="AA27">
-        <v>42.90000000000001</v>
+        <v>-5.099999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3035,7 +3035,7 @@
         <v>44404.40446759259</v>
       </c>
       <c r="AA31">
-        <v>41.29472222222222</v>
+        <v>-6.705277777777781</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3118,7 +3118,7 @@
         <v>44406.69356481481</v>
       </c>
       <c r="AA32">
-        <v>58.33722222222221</v>
+        <v>10.33722222222221</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3165,7 +3165,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="O33">
-        <v>164.7433333333333</v>
+        <v>68.74333333333334</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>27</v>
       </c>
       <c r="R33">
-        <v>166.9063888888889</v>
+        <v>70.9063888888889</v>
       </c>
       <c r="S33" s="2">
         <v>44389.3334837963</v>
@@ -3183,7 +3183,7 @@
         <v>44407.59</v>
       </c>
       <c r="U33">
-        <v>168.1563888888889</v>
+        <v>72.1563888888889</v>
       </c>
       <c r="V33" s="2">
         <v>44389.44408564815</v>
@@ -3201,7 +3201,7 @@
         <v>44407.59</v>
       </c>
       <c r="AA33">
-        <v>168.1563888888889</v>
+        <v>72.1563888888889</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3414,7 +3414,7 @@
         <v>0.75</v>
       </c>
       <c r="O36">
-        <v>124.885</v>
+        <v>28.88499999999999</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>27</v>
       </c>
       <c r="R36">
-        <v>139.2183333333333</v>
+        <v>43.21833333333332</v>
       </c>
       <c r="S36" s="2">
         <v>44396.61805555555</v>
@@ -3432,7 +3432,7 @@
         <v>44411.83201388889</v>
       </c>
       <c r="U36">
-        <v>140.135</v>
+        <v>44.13499999999999</v>
       </c>
       <c r="V36" s="2">
         <v>44393.61935185185</v>
@@ -3441,7 +3441,7 @@
         <v>44406.54997685185</v>
       </c>
       <c r="X36">
-        <v>115.335</v>
+        <v>19.33499999999998</v>
       </c>
       <c r="Y36" s="2">
         <v>44393.61935185185</v>
@@ -3450,7 +3450,7 @@
         <v>44411.83201388889</v>
       </c>
       <c r="AA36">
-        <v>167.1038888888889</v>
+        <v>23.10388888888889</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3574,10 +3574,10 @@
         <v>1.241666666666667</v>
       </c>
       <c r="M38">
-        <v>56.80000000000001</v>
+        <v>8.800000000000011</v>
       </c>
       <c r="N38">
-        <v>42.69499999999999</v>
+        <v>-5.305000000000007</v>
       </c>
       <c r="O38">
         <v>1.683333333333333</v>
@@ -3589,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="R38">
-        <v>58.73333333333334</v>
+        <v>10.73333333333334</v>
       </c>
       <c r="S38" s="2">
         <v>44435.39152777778</v>
@@ -3598,7 +3598,7 @@
         <v>44446.55</v>
       </c>
       <c r="U38">
-        <v>102.8033333333333</v>
+        <v>6.803333333333342</v>
       </c>
       <c r="V38" s="2">
         <v>44433.51431712963</v>
@@ -3607,7 +3607,7 @@
         <v>44440.49475694444</v>
       </c>
       <c r="X38">
-        <v>62.53055555555557</v>
+        <v>14.53055555555557</v>
       </c>
       <c r="Y38" s="2">
         <v>44433.51431712963</v>
@@ -3616,7 +3616,7 @@
         <v>44446.55</v>
       </c>
       <c r="AA38">
-        <v>117.8563888888889</v>
+        <v>21.85638888888889</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3663,7 +3663,7 @@
         <v>2.083333333333333</v>
       </c>
       <c r="O39">
-        <v>89.4388888888889</v>
+        <v>41.4388888888889</v>
       </c>
       <c r="P39">
         <v>15.12416666666667</v>
@@ -3672,7 +3672,7 @@
         <v>27</v>
       </c>
       <c r="R39">
-        <v>89.6888888888889</v>
+        <v>41.6888888888889</v>
       </c>
       <c r="S39" s="2">
         <v>44396.32986111111</v>
@@ -3681,7 +3681,7 @@
         <v>44407.6727662037</v>
       </c>
       <c r="U39">
-        <v>107.2297222222222</v>
+        <v>59.22972222222222</v>
       </c>
       <c r="V39" s="2">
         <v>44393.6265625</v>
@@ -3690,7 +3690,7 @@
         <v>44406.52055555556</v>
       </c>
       <c r="X39">
-        <v>114.4558333333333</v>
+        <v>18.45583333333332</v>
       </c>
       <c r="Y39" s="2">
         <v>44393.6265625</v>
@@ -3699,7 +3699,7 @@
         <v>44407.6727662037</v>
       </c>
       <c r="AA39">
-        <v>127.1088888888889</v>
+        <v>31.10888888888888</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -3746,7 +3746,7 @@
         <v>9.763888888888889</v>
       </c>
       <c r="O40">
-        <v>74.17722222222221</v>
+        <v>26.17722222222221</v>
       </c>
       <c r="P40">
         <v>4.991944444444444</v>
@@ -3755,7 +3755,7 @@
         <v>27</v>
       </c>
       <c r="R40">
-        <v>74.17722222222221</v>
+        <v>26.17722222222221</v>
       </c>
       <c r="S40" s="2">
         <v>44396.52430555555</v>
@@ -3764,7 +3764,7 @@
         <v>44405.89304398148</v>
       </c>
       <c r="U40">
-        <v>89.84972222222223</v>
+        <v>41.84972222222223</v>
       </c>
       <c r="V40" s="2">
         <v>44393.62094907407</v>
@@ -3773,7 +3773,7 @@
         <v>44396.32337962963</v>
       </c>
       <c r="X40">
-        <v>19.85833333333333</v>
+        <v>-28.14166666666667</v>
       </c>
       <c r="Y40" s="2">
         <v>44393.62094907407</v>
@@ -3782,7 +3782,7 @@
         <v>44405.89304398148</v>
       </c>
       <c r="AA40">
-        <v>114.5302777777778</v>
+        <v>18.53027777777777</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -3829,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="O41">
-        <v>64.51555555555555</v>
+        <v>16.51555555555555</v>
       </c>
       <c r="P41">
         <v>11.11916666666666</v>
@@ -3838,7 +3838,7 @@
         <v>27</v>
       </c>
       <c r="R41">
-        <v>68.51555555555555</v>
+        <v>20.51555555555555</v>
       </c>
       <c r="S41" s="2">
         <v>44397.37847222222</v>
@@ -3847,7 +3847,7 @@
         <v>44405.92228009259</v>
       </c>
       <c r="U41">
-        <v>85.05138888888888</v>
+        <v>37.05138888888888</v>
       </c>
       <c r="V41" s="2">
         <v>44396.32203703704</v>
@@ -3865,7 +3865,7 @@
         <v>44405.92228009259</v>
       </c>
       <c r="AA41">
-        <v>95.40583333333333</v>
+        <v>47.40583333333333</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -3912,7 +3912,7 @@
         <v>0.8</v>
       </c>
       <c r="O42">
-        <v>365.0025000000001</v>
+        <v>77.00250000000005</v>
       </c>
       <c r="P42">
         <v>3.285</v>
@@ -3921,7 +3921,7 @@
         <v>27</v>
       </c>
       <c r="R42">
-        <v>365.0025000000001</v>
+        <v>77.00250000000005</v>
       </c>
       <c r="S42" s="2">
         <v>44406.55694444444</v>
@@ -3930,7 +3930,7 @@
         <v>44447.59392361111</v>
       </c>
       <c r="U42">
-        <v>369.8875</v>
+        <v>81.88750000000005</v>
       </c>
       <c r="V42" s="2">
         <v>44406.30452546296</v>
@@ -3939,7 +3939,7 @@
         <v>44433.50003472222</v>
       </c>
       <c r="X42">
-        <v>247.6922222222222</v>
+        <v>55.6922222222222</v>
       </c>
       <c r="Y42" s="2">
         <v>44406.30452546296</v>
@@ -3948,7 +3948,7 @@
         <v>44447.59392361111</v>
       </c>
       <c r="AA42">
-        <v>375.9455555555555</v>
+        <v>87.94555555555553</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4031,7 +4031,7 @@
         <v>44412.33055555556</v>
       </c>
       <c r="AA43">
-        <v>42.06472222222223</v>
+        <v>-5.93527777777777</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4114,7 +4114,7 @@
         <v>44398.69267361111</v>
       </c>
       <c r="AA44">
-        <v>47.73638888888888</v>
+        <v>-0.2636111111111177</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4324,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>106.2533333333333</v>
+        <v>10.25333333333333</v>
       </c>
       <c r="O47">
-        <v>-105.4</v>
+        <v>-9.399999999999977</v>
       </c>
       <c r="P47">
         <v>0.05333333333333334</v>
@@ -4336,7 +4336,7 @@
         <v>27</v>
       </c>
       <c r="R47">
-        <v>-105.4</v>
+        <v>-9.399999999999977</v>
       </c>
       <c r="S47" s="2">
         <v>44400.59027777778</v>
@@ -4345,7 +4345,7 @@
         <v>44412.53527777778</v>
       </c>
       <c r="U47">
-        <v>106.68</v>
+        <v>10.68000000000001</v>
       </c>
       <c r="V47" s="2">
         <v>44411.49224537037</v>
@@ -4363,7 +4363,7 @@
         <v>44412.53527777778</v>
       </c>
       <c r="AA47">
-        <v>106.68</v>
+        <v>10.68000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4446,7 +4446,7 @@
         <v>44399.64857638889</v>
       </c>
       <c r="AA48">
-        <v>57.02388888888888</v>
+        <v>9.023888888888877</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4487,7 +4487,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M49">
-        <v>21.09222222222222</v>
+        <v>-26.90777777777778</v>
       </c>
       <c r="N49">
         <v>2.995555555555556</v>
@@ -4502,7 +4502,7 @@
         <v>27</v>
       </c>
       <c r="R49">
-        <v>33.32944444444444</v>
+        <v>-14.67055555555556</v>
       </c>
       <c r="S49" s="2">
         <v>44400.53125</v>
@@ -4511,7 +4511,7 @@
         <v>44404.67166666667</v>
       </c>
       <c r="U49">
-        <v>39.37</v>
+        <v>-8.629999999999995</v>
       </c>
       <c r="V49" s="2">
         <v>44400.35767361111</v>
@@ -4529,7 +4529,7 @@
         <v>44404.67166666667</v>
       </c>
       <c r="AA49">
-        <v>43.53583333333333</v>
+        <v>-4.464166666666671</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4612,7 +4612,7 @@
         <v>44432.60409722223</v>
       </c>
       <c r="AA50">
-        <v>40.06916666666666</v>
+        <v>-7.930833333333339</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -4686,7 +4686,7 @@
         <v>44403.54063657407</v>
       </c>
       <c r="X51">
-        <v>29.48444444444445</v>
+        <v>-18.51555555555555</v>
       </c>
       <c r="Y51" s="2">
         <v>44400.43711805555</v>
@@ -4695,7 +4695,7 @@
         <v>44405.85506944444</v>
       </c>
       <c r="AA51">
-        <v>55.03083333333333</v>
+        <v>7.030833333333334</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -4769,7 +4769,7 @@
         <v>44403.52509259258</v>
       </c>
       <c r="X52">
-        <v>28.64111111111112</v>
+        <v>-19.35888888888888</v>
       </c>
       <c r="Y52" s="2">
         <v>44400.45670138889</v>
@@ -4778,7 +4778,7 @@
         <v>44406.78122685185</v>
       </c>
       <c r="AA52">
-        <v>61.78861111111112</v>
+        <v>13.78861111111112</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -4852,7 +4852,7 @@
         <v>44396.348125</v>
       </c>
       <c r="X53">
-        <v>20.55249999999999</v>
+        <v>-27.44750000000001</v>
       </c>
       <c r="Y53" s="2">
         <v>44393.61677083333</v>
@@ -4861,7 +4861,7 @@
         <v>44398.66846064815</v>
       </c>
       <c r="AA53">
-        <v>46.24055555555556</v>
+        <v>-1.759444444444441</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -4935,7 +4935,7 @@
         <v>44396.33820601852</v>
       </c>
       <c r="X54">
-        <v>20.5611111111111</v>
+        <v>-27.4388888888889</v>
       </c>
       <c r="Y54" s="2">
         <v>44393.60649305556</v>
@@ -4944,7 +4944,7 @@
         <v>44398.60254629629</v>
       </c>
       <c r="AA54">
-        <v>44.90527777777777</v>
+        <v>-3.094722222222231</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5027,7 +5027,7 @@
         <v>44400.6996412037</v>
       </c>
       <c r="AA55">
-        <v>64.95500000000001</v>
+        <v>16.95500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5691,7 +5691,7 @@
         <v>44404.66782407407</v>
       </c>
       <c r="AA63">
-        <v>44.11638888888889</v>
+        <v>-3.883611111111108</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -5774,7 +5774,7 @@
         <v>44404.67376157407</v>
       </c>
       <c r="AA64">
-        <v>44.40166666666667</v>
+        <v>-3.598333333333329</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -5940,7 +5940,7 @@
         <v>44413.42222222222</v>
       </c>
       <c r="AA66">
-        <v>65.79916666666668</v>
+        <v>17.79916666666668</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -5987,7 +5987,7 @@
         <v>3.256666666666668</v>
       </c>
       <c r="O67">
-        <v>43.67527777777778</v>
+        <v>-4.324722222222221</v>
       </c>
       <c r="P67">
         <v>9.36611111111111</v>
@@ -5996,7 +5996,7 @@
         <v>27</v>
       </c>
       <c r="R67">
-        <v>44.03138888888889</v>
+        <v>-3.968611111111109</v>
       </c>
       <c r="S67" s="2">
         <v>44406.46099537037</v>
@@ -6005,7 +6005,7 @@
         <v>44412.66880787037</v>
       </c>
       <c r="U67">
-        <v>58.98750000000001</v>
+        <v>10.98750000000001</v>
       </c>
       <c r="V67" s="2">
         <v>44406.51181712963</v>
@@ -6023,7 +6023,7 @@
         <v>44412.66880787037</v>
       </c>
       <c r="AA67">
-        <v>58.98750000000001</v>
+        <v>10.98750000000001</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6070,7 +6070,7 @@
         <v>10.5</v>
       </c>
       <c r="O68">
-        <v>28.96222222222222</v>
+        <v>-19.03777777777778</v>
       </c>
       <c r="P68">
         <v>12.30194444444444</v>
@@ -6079,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="R68">
-        <v>28.96222222222222</v>
+        <v>-19.03777777777778</v>
       </c>
       <c r="S68" s="2">
         <v>44406.31111111111</v>
@@ -6088,7 +6088,7 @@
         <v>44411.61517361111</v>
       </c>
       <c r="U68">
-        <v>52.2975</v>
+        <v>4.297499999999999</v>
       </c>
       <c r="V68" s="2">
         <v>44406.50423611111</v>
@@ -6106,7 +6106,7 @@
         <v>44411.61517361111</v>
       </c>
       <c r="AA68">
-        <v>52.2975</v>
+        <v>4.297499999999999</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6239,7 +6239,7 @@
         <v>9.286111111111111</v>
       </c>
       <c r="P70">
-        <v>21.85361111111111</v>
+        <v>-26.14638888888889</v>
       </c>
       <c r="Q70" t="s">
         <v>27</v>
@@ -6254,7 +6254,7 @@
         <v>44417.62921296297</v>
       </c>
       <c r="U70">
-        <v>47.51777777777778</v>
+        <v>-0.4822222222222194</v>
       </c>
       <c r="V70" s="2">
         <v>44411.67695601852</v>
@@ -6272,7 +6272,7 @@
         <v>44417.62921296297</v>
       </c>
       <c r="AA70">
-        <v>52.85416666666666</v>
+        <v>4.854166666666657</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6313,7 +6313,7 @@
         <v>3.05</v>
       </c>
       <c r="M71">
-        <v>144.2725</v>
+        <v>48.27249999999998</v>
       </c>
       <c r="N71">
         <v>3.555555555555555</v>
@@ -6322,13 +6322,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>186.0236111111111</v>
+        <v>42.02361111111111</v>
       </c>
       <c r="Q71" t="s">
         <v>27</v>
       </c>
       <c r="R71">
-        <v>144.2641666666667</v>
+        <v>48.26416666666665</v>
       </c>
       <c r="S71" s="2">
         <v>44411.33334490741</v>
@@ -6337,7 +6337,7 @@
         <v>44447.87091435185</v>
       </c>
       <c r="U71">
-        <v>336.9016666666666</v>
+        <v>96.90166666666664</v>
       </c>
       <c r="V71" s="2">
         <v>44428.40407407406</v>
@@ -6355,7 +6355,7 @@
         <v>44447.87091435185</v>
       </c>
       <c r="AA71">
-        <v>336.9016666666666</v>
+        <v>96.90166666666664</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6402,7 +6402,7 @@
         <v>0.45</v>
       </c>
       <c r="O72">
-        <v>30.44361111111111</v>
+        <v>-17.55638888888889</v>
       </c>
       <c r="P72">
         <v>0.0575</v>
@@ -6411,7 +6411,7 @@
         <v>27</v>
       </c>
       <c r="R72">
-        <v>39.23694444444445</v>
+        <v>-8.763055555555557</v>
       </c>
       <c r="S72" s="2">
         <v>44406.41666666666</v>
@@ -6420,7 +6420,7 @@
         <v>44410.62476851852</v>
       </c>
       <c r="U72">
-        <v>40.99444444444444</v>
+        <v>-7.00555555555556</v>
       </c>
       <c r="V72" s="2">
         <v>44405.43075231482</v>
@@ -6438,7 +6438,7 @@
         <v>44410.62476851852</v>
       </c>
       <c r="AA72">
-        <v>49.65611111111112</v>
+        <v>1.656111111111116</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6977,7 +6977,7 @@
         <v>1.75</v>
       </c>
       <c r="M79">
-        <v>34.41666666666667</v>
+        <v>-13.58333333333333</v>
       </c>
       <c r="N79">
         <v>0.5</v>
@@ -6992,7 +6992,7 @@
         <v>27</v>
       </c>
       <c r="R79">
-        <v>47.84583333333334</v>
+        <v>-0.1541666666666615</v>
       </c>
       <c r="S79" s="2">
         <v>44400.41666666666</v>
@@ -7001,7 +7001,7 @@
         <v>44405.64340277778</v>
       </c>
       <c r="U79">
-        <v>50.44166666666666</v>
+        <v>2.441666666666663</v>
       </c>
       <c r="V79" s="2">
         <v>44399.5864351852</v>
@@ -7019,7 +7019,7 @@
         <v>44405.64340277778</v>
       </c>
       <c r="AA79">
-        <v>55.36694444444444</v>
+        <v>7.366944444444442</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7060,7 +7060,7 @@
         <v>1.75</v>
       </c>
       <c r="M80">
-        <v>34.91666666666667</v>
+        <v>-13.08333333333333</v>
       </c>
       <c r="N80">
         <v>0.76</v>
@@ -7075,7 +7075,7 @@
         <v>27</v>
       </c>
       <c r="R80">
-        <v>47.81833333333334</v>
+        <v>-0.1816666666666613</v>
       </c>
       <c r="S80" s="2">
         <v>44400.41666666666</v>
@@ -7084,7 +7084,7 @@
         <v>44406.72756944445</v>
       </c>
       <c r="U80">
-        <v>61.46166666666667</v>
+        <v>13.46166666666667</v>
       </c>
       <c r="V80" s="2">
         <v>44399.61024305555</v>
@@ -7093,7 +7093,7 @@
         <v>44404.5303587963</v>
       </c>
       <c r="X80">
-        <v>43.08277777777778</v>
+        <v>-4.917222222222222</v>
       </c>
       <c r="Y80" s="2">
         <v>44399.61024305555</v>
@@ -7102,7 +7102,7 @@
         <v>44406.72756944445</v>
       </c>
       <c r="AA80">
-        <v>65.81583333333333</v>
+        <v>17.81583333333333</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7176,7 +7176,7 @@
         <v>44404.52870370371</v>
       </c>
       <c r="X81">
-        <v>40.71111111111111</v>
+        <v>-7.288888888888891</v>
       </c>
       <c r="Y81" s="2">
         <v>44400.3324074074</v>
@@ -7185,7 +7185,7 @@
         <v>44406.6977662037</v>
       </c>
       <c r="AA81">
-        <v>62.76861111111111</v>
+        <v>14.76861111111111</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7392,7 +7392,7 @@
         <v>1.583333333333333</v>
       </c>
       <c r="M84">
-        <v>20.91666666666667</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -7407,7 +7407,7 @@
         <v>27</v>
       </c>
       <c r="R84">
-        <v>29.57861111111112</v>
+        <v>-18.42138888888888</v>
       </c>
       <c r="S84" s="2">
         <v>44414.48611111111</v>
@@ -7416,7 +7416,7 @@
         <v>44417.83144675926</v>
       </c>
       <c r="U84">
-        <v>35.28805555555556</v>
+        <v>-12.71194444444444</v>
       </c>
       <c r="V84" s="2">
         <v>44413.40497685185</v>
@@ -7434,7 +7434,7 @@
         <v>44417.83144675926</v>
       </c>
       <c r="AA84">
-        <v>46.23527777777778</v>
+        <v>-1.764722222222218</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7517,7 +7517,7 @@
         <v>44405.89925925926</v>
       </c>
       <c r="AA85">
-        <v>58.18000000000001</v>
+        <v>10.18000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -7600,7 +7600,7 @@
         <v>44406.90618055555</v>
       </c>
       <c r="AA86">
-        <v>66.4063888888889</v>
+        <v>18.4063888888889</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -7647,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="O87">
-        <v>39.05249999999999</v>
+        <v>-8.947500000000005</v>
       </c>
       <c r="P87">
         <v>2.831388888888889</v>
@@ -7656,7 +7656,7 @@
         <v>27</v>
       </c>
       <c r="R87">
-        <v>40.71916666666666</v>
+        <v>-7.280833333333338</v>
       </c>
       <c r="S87" s="2">
         <v>44400.32986111111</v>
@@ -7665,7 +7665,7 @@
         <v>44404.79030092592</v>
       </c>
       <c r="U87">
-        <v>47.05055555555556</v>
+        <v>-0.9494444444444383</v>
       </c>
       <c r="V87" s="2">
         <v>44399.42119212963</v>
@@ -7674,7 +7674,7 @@
         <v>44403.44384259259</v>
       </c>
       <c r="X87">
-        <v>36.5436111111111</v>
+        <v>-11.4563888888889</v>
       </c>
       <c r="Y87" s="2">
         <v>44399.42119212963</v>
@@ -7683,7 +7683,7 @@
         <v>44404.79030092592</v>
       </c>
       <c r="AA87">
-        <v>53.85861111111112</v>
+        <v>5.858611111111117</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -7757,7 +7757,7 @@
         <v>44403.45439814815</v>
       </c>
       <c r="X88">
-        <v>27.85972222222222</v>
+        <v>-20.14027777777778</v>
       </c>
       <c r="Y88" s="2">
         <v>44400.41857638889</v>
@@ -7766,7 +7766,7 @@
         <v>44405.85935185185</v>
       </c>
       <c r="AA88">
-        <v>55.57861111111112</v>
+        <v>7.578611111111115</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -7807,7 +7807,7 @@
         <v>1.75</v>
       </c>
       <c r="M89">
-        <v>32.66666666666667</v>
+        <v>-15.33333333333333</v>
       </c>
       <c r="N89">
         <v>1.5</v>
@@ -7822,7 +7822,7 @@
         <v>27</v>
       </c>
       <c r="R89">
-        <v>41.15694444444445</v>
+        <v>-6.843055555555551</v>
       </c>
       <c r="S89" s="2">
         <v>44400.41666666666</v>
@@ -7831,7 +7831,7 @@
         <v>44405.62092592593</v>
       </c>
       <c r="U89">
-        <v>49.90222222222222</v>
+        <v>1.902222222222221</v>
       </c>
       <c r="V89" s="2">
         <v>44399.62677083333</v>
@@ -7849,7 +7849,7 @@
         <v>44405.62092592593</v>
       </c>
       <c r="AA89">
-        <v>53.85972222222222</v>
+        <v>5.859722222222217</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -7896,7 +7896,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="O90">
-        <v>60.39611111111111</v>
+        <v>12.39611111111111</v>
       </c>
       <c r="P90">
         <v>0.9733333333333334</v>
@@ -7905,7 +7905,7 @@
         <v>27</v>
       </c>
       <c r="R90">
-        <v>61.21944444444444</v>
+        <v>13.21944444444444</v>
       </c>
       <c r="S90" s="2">
         <v>44413.47916666666</v>
@@ -7914,7 +7914,7 @@
         <v>44419.86261574074</v>
       </c>
       <c r="U90">
-        <v>63.20277777777778</v>
+        <v>15.20277777777778</v>
       </c>
       <c r="V90" s="2">
         <v>44412.41305555555</v>
@@ -7923,7 +7923,7 @@
         <v>44418.62946759259</v>
       </c>
       <c r="X90">
-        <v>59.19388888888889</v>
+        <v>11.19388888888889</v>
       </c>
       <c r="Y90" s="2">
         <v>44412.41305555555</v>
@@ -7932,7 +7932,7 @@
         <v>44419.86261574074</v>
       </c>
       <c r="AA90">
-        <v>73.78944444444446</v>
+        <v>25.78944444444446</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8015,7 +8015,7 @@
         <v>44404.72664351852</v>
       </c>
       <c r="AA91">
-        <v>43.24694444444444</v>
+        <v>-4.753055555555562</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8050,7 +8050,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="K92">
-        <v>26.46666666666667</v>
+        <v>-21.53333333333333</v>
       </c>
       <c r="L92">
         <v>1.283333333333333</v>
@@ -8071,7 +8071,7 @@
         <v>27</v>
       </c>
       <c r="R92">
-        <v>34.05</v>
+        <v>-13.95</v>
       </c>
       <c r="S92" s="2">
         <v>44407.33333333334</v>
@@ -8080,7 +8080,7 @@
         <v>44411.53194444445</v>
       </c>
       <c r="U92">
-        <v>40.76666666666667</v>
+        <v>-7.233333333333334</v>
       </c>
       <c r="V92" s="2">
         <v>44407.38189814815</v>
@@ -8089,7 +8089,7 @@
         <v>44411.48596064815</v>
       </c>
       <c r="X92">
-        <v>38.4975</v>
+        <v>-9.502499999999998</v>
       </c>
       <c r="Y92" s="2">
         <v>44407.33333333334</v>
@@ -8098,7 +8098,7 @@
         <v>44411.53194444445</v>
       </c>
       <c r="AA92">
-        <v>40.76666666666667</v>
+        <v>-7.233333333333334</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>108.8</v>
+        <v>12.80000000000001</v>
       </c>
       <c r="P94">
         <v>0.01666666666666667</v>
@@ -8237,7 +8237,7 @@
         <v>27</v>
       </c>
       <c r="R94">
-        <v>108.8</v>
+        <v>12.80000000000001</v>
       </c>
       <c r="S94" s="2">
         <v>44399</v>
@@ -8246,7 +8246,7 @@
         <v>44410.40902777778</v>
       </c>
       <c r="U94">
-        <v>108.8166666666667</v>
+        <v>12.81666666666666</v>
       </c>
       <c r="V94" s="2">
         <v>44403.33142361111</v>
@@ -8264,7 +8264,7 @@
         <v>44410.40902777778</v>
       </c>
       <c r="AA94">
-        <v>108.8166666666667</v>
+        <v>12.81666666666666</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8347,7 +8347,7 @@
         <v>44404.56541666666</v>
       </c>
       <c r="AA95">
-        <v>57.0986111111111</v>
+        <v>9.098611111111097</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8474,10 +8474,10 @@
         <v>0.25</v>
       </c>
       <c r="N97">
-        <v>21.83333333333333</v>
+        <v>-26.16666666666667</v>
       </c>
       <c r="O97">
-        <v>-20.94</v>
+        <v>27.06</v>
       </c>
       <c r="P97">
         <v>0.1066666666666667</v>
@@ -8486,7 +8486,7 @@
         <v>27</v>
       </c>
       <c r="R97">
-        <v>-20.69</v>
+        <v>27.31</v>
       </c>
       <c r="S97" s="2">
         <v>44400.48263888889</v>
@@ -8495,7 +8495,7 @@
         <v>44403.38888888889</v>
       </c>
       <c r="U97">
-        <v>24.75</v>
+        <v>-23.25</v>
       </c>
       <c r="V97" s="2">
         <v>44400.30252314815</v>
@@ -8513,7 +8513,7 @@
         <v>44403.38888888889</v>
       </c>
       <c r="AA97">
-        <v>29.07277777777777</v>
+        <v>-18.92722222222223</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -8596,7 +8596,7 @@
         <v>44404.7896875</v>
       </c>
       <c r="AA98">
-        <v>50.13277777777778</v>
+        <v>2.132777777777775</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -8845,7 +8845,7 @@
         <v>44426.90465277778</v>
       </c>
       <c r="AA101">
-        <v>69.82222222222222</v>
+        <v>21.82222222222222</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -8886,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="M102">
-        <v>38.50388888888889</v>
+        <v>-9.496111111111105</v>
       </c>
       <c r="N102">
         <v>2.002222222222222</v>
@@ -8901,7 +8901,7 @@
         <v>27</v>
       </c>
       <c r="R102">
-        <v>45.97833333333334</v>
+        <v>-2.02166666666666</v>
       </c>
       <c r="S102" s="2">
         <v>44420.4482175926</v>
@@ -8910,7 +8910,7 @@
         <v>44425.91204861111</v>
       </c>
       <c r="U102">
-        <v>56.13194444444446</v>
+        <v>8.131944444444457</v>
       </c>
       <c r="V102" s="2">
         <v>44419.35644675926</v>
@@ -8928,7 +8928,7 @@
         <v>44425.91204861111</v>
       </c>
       <c r="AA102">
-        <v>67.33444444444444</v>
+        <v>19.33444444444444</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -8975,7 +8975,7 @@
         <v>2.006666666666667</v>
       </c>
       <c r="O103">
-        <v>53.39055555555555</v>
+        <v>5.390555555555551</v>
       </c>
       <c r="P103">
         <v>8.688611111111111</v>
@@ -8984,7 +8984,7 @@
         <v>27</v>
       </c>
       <c r="R103">
-        <v>60.34722222222221</v>
+        <v>12.34722222222222</v>
       </c>
       <c r="S103" s="2">
         <v>44406.53472222222</v>
@@ -8993,7 +8993,7 @@
         <v>44414.57315972223</v>
       </c>
       <c r="U103">
-        <v>72.92250000000001</v>
+        <v>24.92250000000001</v>
       </c>
       <c r="V103" s="2">
         <v>44406.52056712963</v>
@@ -9011,7 +9011,7 @@
         <v>44414.57315972223</v>
       </c>
       <c r="AA103">
-        <v>73.26222222222222</v>
+        <v>25.26222222222222</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9055,19 +9055,19 @@
         <v>18.66666666666666</v>
       </c>
       <c r="N104">
-        <v>27.75</v>
+        <v>-20.25</v>
       </c>
       <c r="O104">
-        <v>-15.55222222222222</v>
+        <v>32.44777777777778</v>
       </c>
       <c r="P104">
-        <v>22.9025</v>
+        <v>-25.0975</v>
       </c>
       <c r="Q104" t="s">
         <v>27</v>
       </c>
       <c r="R104">
-        <v>3.364444444444445</v>
+        <v>51.36444444444444</v>
       </c>
       <c r="S104" s="2">
         <v>44418.38541666666</v>
@@ -9076,7 +9076,7 @@
         <v>44424.65001157407</v>
       </c>
       <c r="U104">
-        <v>60.35027777777779</v>
+        <v>12.35027777777779</v>
       </c>
       <c r="V104" s="2">
         <v>44414.45226851852</v>
@@ -9094,7 +9094,7 @@
         <v>44424.65001157407</v>
       </c>
       <c r="AA104">
-        <v>94.74583333333334</v>
+        <v>-1.254166666666663</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9177,7 +9177,7 @@
         <v>44421.77372685185</v>
       </c>
       <c r="AA105">
-        <v>78.84083333333334</v>
+        <v>30.84083333333334</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="M106">
-        <v>19.25</v>
+        <v>-28.75</v>
       </c>
       <c r="N106">
         <v>3.166666666666667</v>
@@ -9233,7 +9233,7 @@
         <v>27</v>
       </c>
       <c r="R106">
-        <v>22.7</v>
+        <v>-25.3</v>
       </c>
       <c r="S106" s="2">
         <v>44414.48472222222</v>
@@ -9242,7 +9242,7 @@
         <v>44417.48263888889</v>
       </c>
       <c r="U106">
-        <v>26.95</v>
+        <v>-21.05</v>
       </c>
       <c r="V106" s="2">
         <v>44413.36422453705</v>
@@ -9260,7 +9260,7 @@
         <v>44417.48263888889</v>
       </c>
       <c r="AA106">
-        <v>38.84166666666667</v>
+        <v>-9.158333333333331</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9304,7 +9304,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="N107">
-        <v>25.03333333333333</v>
+        <v>-22.96666666666667</v>
       </c>
       <c r="O107">
         <v>8.0375</v>
@@ -9325,7 +9325,7 @@
         <v>44424.73907407407</v>
       </c>
       <c r="U107">
-        <v>71.73777777777778</v>
+        <v>23.73777777777778</v>
       </c>
       <c r="V107" s="2">
         <v>44420.51465277778</v>
@@ -9343,7 +9343,7 @@
         <v>44424.73907407407</v>
       </c>
       <c r="AA107">
-        <v>71.73777777777778</v>
+        <v>23.73777777777778</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9426,7 +9426,7 @@
         <v>44428.88730324074</v>
       </c>
       <c r="AA108">
-        <v>82.72388888888889</v>
+        <v>34.72388888888889</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9509,7 +9509,7 @@
         <v>44427.02241898148</v>
       </c>
       <c r="AA109">
-        <v>44.82055555555556</v>
+        <v>-3.179444444444442</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -9583,7 +9583,7 @@
         <v>44425.36773148148</v>
       </c>
       <c r="X110">
-        <v>35.965</v>
+        <v>-12.035</v>
       </c>
       <c r="Y110" s="2">
         <v>44421.36918981482</v>
@@ -9592,7 +9592,7 @@
         <v>44426.71129629629</v>
       </c>
       <c r="AA110">
-        <v>53.21055555555554</v>
+        <v>5.210555555555544</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -9633,7 +9633,7 @@
         <v>0.32</v>
       </c>
       <c r="M111">
-        <v>42.93305555555555</v>
+        <v>-5.066944444444445</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -9648,7 +9648,7 @@
         <v>27</v>
       </c>
       <c r="R111">
-        <v>49.65527777777778</v>
+        <v>1.655277777777777</v>
       </c>
       <c r="S111" s="2">
         <v>44421.59027777778</v>
@@ -9657,7 +9657,7 @@
         <v>44426.8119212963</v>
       </c>
       <c r="U111">
-        <v>50.31944444444444</v>
+        <v>2.319444444444443</v>
       </c>
       <c r="V111" s="2">
         <v>44419.46212962963</v>
@@ -9675,7 +9675,7 @@
         <v>44426.8119212963</v>
       </c>
       <c r="AA111">
-        <v>71.39500000000001</v>
+        <v>23.39500000000001</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -9758,7 +9758,7 @@
         <v>44426.67736111111</v>
       </c>
       <c r="AA112">
-        <v>53.15527777777777</v>
+        <v>5.155277777777769</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -9799,7 +9799,7 @@
         <v>0.64</v>
       </c>
       <c r="M113">
-        <v>69.84999999999999</v>
+        <v>21.84999999999999</v>
       </c>
       <c r="N113">
         <v>2.473333333333333</v>
@@ -9814,7 +9814,7 @@
         <v>27</v>
       </c>
       <c r="R113">
-        <v>83.89833333333333</v>
+        <v>35.89833333333333</v>
       </c>
       <c r="S113" s="2">
         <v>44410.53472222222</v>
@@ -9823,7 +9823,7 @@
         <v>44419.81236111111</v>
       </c>
       <c r="U113">
-        <v>87.66333333333333</v>
+        <v>39.66333333333333</v>
       </c>
       <c r="V113" s="2">
         <v>44414.32008101852</v>
@@ -9832,7 +9832,7 @@
         <v>44425.62060185185</v>
       </c>
       <c r="X113">
-        <v>106.2125</v>
+        <v>10.21249999999998</v>
       </c>
       <c r="Y113" s="2">
         <v>44410.53472222222</v>
@@ -9841,7 +9841,7 @@
         <v>44425.62060185185</v>
       </c>
       <c r="AA113">
-        <v>137.0611111111111</v>
+        <v>41.06111111111113</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -9888,7 +9888,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="O114">
-        <v>35.54111111111111</v>
+        <v>-12.45888888888889</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>27</v>
       </c>
       <c r="R114">
-        <v>35.79111111111111</v>
+        <v>-12.20888888888889</v>
       </c>
       <c r="S114" s="2">
         <v>44414.44791666666</v>
@@ -9906,7 +9906,7 @@
         <v>44417.82810185185</v>
       </c>
       <c r="U114">
-        <v>36.12444444444445</v>
+        <v>-11.87555555555555</v>
       </c>
       <c r="V114" s="2">
         <v>44413.5649537037</v>
@@ -9924,7 +9924,7 @@
         <v>44417.82810185185</v>
       </c>
       <c r="AA114">
-        <v>42.31555555555556</v>
+        <v>-5.684444444444438</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10007,7 +10007,7 @@
         <v>44417.49652777778</v>
       </c>
       <c r="AA115">
-        <v>39.78527777777778</v>
+        <v>-8.214722222222221</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10164,7 +10164,7 @@
         <v>44418.63462962963</v>
       </c>
       <c r="X117">
-        <v>49.14194444444445</v>
+        <v>1.141944444444448</v>
       </c>
       <c r="Y117" s="2">
         <v>44413.46204861111</v>
@@ -10173,7 +10173,7 @@
         <v>44419.91090277778</v>
       </c>
       <c r="AA117">
-        <v>64.77250000000001</v>
+        <v>16.77250000000001</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10214,7 +10214,7 @@
         <v>4</v>
       </c>
       <c r="M118">
-        <v>40.48805555555555</v>
+        <v>-7.511944444444453</v>
       </c>
       <c r="N118">
         <v>1.006666666666667</v>
@@ -10229,7 +10229,7 @@
         <v>27</v>
       </c>
       <c r="R118">
-        <v>48.70861111111111</v>
+        <v>0.7086111111111055</v>
       </c>
       <c r="S118" s="2">
         <v>44420.44857638889</v>
@@ -10238,7 +10238,7 @@
         <v>44425.87704861111</v>
       </c>
       <c r="U118">
-        <v>55.28333333333333</v>
+        <v>7.283333333333331</v>
       </c>
       <c r="V118" s="2">
         <v>44419.53078703704</v>
@@ -10256,7 +10256,7 @@
         <v>44425.87704861111</v>
       </c>
       <c r="AA118">
-        <v>62.31027777777777</v>
+        <v>14.31027777777777</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10413,7 +10413,7 @@
         <v>44418.63327546296</v>
       </c>
       <c r="X120">
-        <v>42.73611111111111</v>
+        <v>-5.263888888888886</v>
       </c>
       <c r="Y120" s="2">
         <v>44414.35260416667</v>
@@ -10422,7 +10422,7 @@
         <v>44420.82664351852</v>
       </c>
       <c r="AA120">
-        <v>65.37694444444443</v>
+        <v>17.37694444444443</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10546,7 +10546,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="M122">
-        <v>20.09999999999999</v>
+        <v>-27.90000000000001</v>
       </c>
       <c r="N122">
         <v>0.4944444444444445</v>
@@ -10561,7 +10561,7 @@
         <v>27</v>
       </c>
       <c r="R122">
-        <v>28.56222222222222</v>
+        <v>-19.43777777777778</v>
       </c>
       <c r="S122" s="2">
         <v>44428.59953703704</v>
@@ -10570,7 +10570,7 @@
         <v>44431.91210648148</v>
       </c>
       <c r="U122">
-        <v>34.50166666666667</v>
+        <v>-13.49833333333333</v>
       </c>
       <c r="V122" s="2">
         <v>44426.3034837963</v>
@@ -10579,7 +10579,7 @@
         <v>44431.34540509258</v>
       </c>
       <c r="X122">
-        <v>46.00583333333333</v>
+        <v>-1.994166666666672</v>
       </c>
       <c r="Y122" s="2">
         <v>44426.3034837963</v>
@@ -10588,7 +10588,7 @@
         <v>44431.91210648148</v>
       </c>
       <c r="AA122">
-        <v>59.60694444444445</v>
+        <v>11.60694444444445</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -10718,7 +10718,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O124">
-        <v>49.2225</v>
+        <v>1.222499999999997</v>
       </c>
       <c r="P124">
         <v>6.541944444444443</v>
@@ -10727,7 +10727,7 @@
         <v>27</v>
       </c>
       <c r="R124">
-        <v>53.63916666666666</v>
+        <v>5.639166666666664</v>
       </c>
       <c r="S124" s="2">
         <v>44426.39236111111</v>
@@ -10736,7 +10736,7 @@
         <v>44432.69157407407</v>
       </c>
       <c r="U124">
-        <v>61.18111111111111</v>
+        <v>13.18111111111111</v>
       </c>
       <c r="V124" s="2">
         <v>44420.62216435185</v>
@@ -10745,7 +10745,7 @@
         <v>44426.46189814815</v>
       </c>
       <c r="X124">
-        <v>50.1536111111111</v>
+        <v>2.153611111111104</v>
       </c>
       <c r="Y124" s="2">
         <v>44420.62216435185</v>
@@ -10754,7 +10754,7 @@
         <v>44432.69157407407</v>
       </c>
       <c r="AA124">
-        <v>109.6658333333334</v>
+        <v>13.66583333333335</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -10801,7 +10801,7 @@
         <v>0.6</v>
       </c>
       <c r="O125">
-        <v>85.54888888888888</v>
+        <v>37.54888888888888</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -10810,7 +10810,7 @@
         <v>27</v>
       </c>
       <c r="R125">
-        <v>88.66888888888889</v>
+        <v>40.66888888888889</v>
       </c>
       <c r="S125" s="2">
         <v>44411.54166666666</v>
@@ -10819,7 +10819,7 @@
         <v>44420.90703703704</v>
       </c>
       <c r="U125">
-        <v>89.76888888888888</v>
+        <v>41.76888888888888</v>
       </c>
       <c r="V125" s="2">
         <v>44410.46298611111</v>
@@ -10837,7 +10837,7 @@
         <v>44420.90703703704</v>
       </c>
       <c r="AA125">
-        <v>100.6572222222222</v>
+        <v>52.65722222222223</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -10920,7 +10920,7 @@
         <v>44418.65594907408</v>
       </c>
       <c r="AA126">
-        <v>48.66333333333333</v>
+        <v>0.6633333333333269</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11047,13 +11047,13 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>38.49444444444444</v>
+        <v>-9.50555555555556</v>
       </c>
       <c r="O128">
         <v>8.755000000000001</v>
       </c>
       <c r="P128">
-        <v>63.72638888888889</v>
+        <v>15.72638888888889</v>
       </c>
       <c r="Q128" t="s">
         <v>27</v>
@@ -11068,7 +11068,7 @@
         <v>44431.74945601852</v>
       </c>
       <c r="U128">
-        <v>111.4480555555556</v>
+        <v>15.44805555555558</v>
       </c>
       <c r="V128" s="2">
         <v>44420.66204861111</v>
@@ -11086,7 +11086,7 @@
         <v>44431.74945601852</v>
       </c>
       <c r="AA128">
-        <v>111.4480555555556</v>
+        <v>15.44805555555558</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11160,7 +11160,7 @@
         <v>44417.39859953704</v>
       </c>
       <c r="X129">
-        <v>29.36194444444445</v>
+        <v>-18.63805555555555</v>
       </c>
       <c r="Y129" s="2">
         <v>44414.30018518519</v>
@@ -11169,7 +11169,7 @@
         <v>44418.87337962963</v>
       </c>
       <c r="AA129">
-        <v>49.75666666666666</v>
+        <v>1.756666666666661</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11293,7 +11293,7 @@
         <v>1.075</v>
       </c>
       <c r="M131">
-        <v>131.6666666666667</v>
+        <v>35.66666666666669</v>
       </c>
       <c r="N131">
         <v>3.661666666666667</v>
@@ -11308,7 +11308,7 @@
         <v>27</v>
       </c>
       <c r="R131">
-        <v>131.95</v>
+        <v>35.95000000000002</v>
       </c>
       <c r="S131" s="2">
         <v>44419.39291666666</v>
@@ -11317,7 +11317,7 @@
         <v>44434.46736111111</v>
       </c>
       <c r="U131">
-        <v>136.7866666666667</v>
+        <v>40.78666666666669</v>
       </c>
       <c r="V131" s="2">
         <v>44424.39001157408</v>
@@ -11326,7 +11326,7 @@
         <v>44433.5915625</v>
       </c>
       <c r="X131">
-        <v>85.83694444444444</v>
+        <v>37.83694444444444</v>
       </c>
       <c r="Y131" s="2">
         <v>44419.39291666666</v>
@@ -11335,7 +11335,7 @@
         <v>44434.46736111111</v>
       </c>
       <c r="AA131">
-        <v>136.7866666666667</v>
+        <v>40.78666666666669</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11459,7 +11459,7 @@
         <v>0.5</v>
       </c>
       <c r="M133">
-        <v>35.75</v>
+        <v>-12.25</v>
       </c>
       <c r="N133">
         <v>11.83333333333333</v>
@@ -11474,7 +11474,7 @@
         <v>27</v>
       </c>
       <c r="R133">
-        <v>39.93333333333334</v>
+        <v>-8.066666666666666</v>
       </c>
       <c r="S133" s="2">
         <v>44427.32638888889</v>
@@ -11483,7 +11483,7 @@
         <v>44432.63333333333</v>
       </c>
       <c r="U133">
-        <v>52.36666666666666</v>
+        <v>4.36666666666666</v>
       </c>
       <c r="V133" s="2">
         <v>44428.34215277778</v>
@@ -11492,7 +11492,7 @@
         <v>44432.43730324074</v>
       </c>
       <c r="X133">
-        <v>38.28361111111111</v>
+        <v>-9.716388888888886</v>
       </c>
       <c r="Y133" s="2">
         <v>44427.32638888889</v>
@@ -11501,7 +11501,7 @@
         <v>44432.63333333333</v>
       </c>
       <c r="AA133">
-        <v>52.36666666666666</v>
+        <v>4.36666666666666</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -11542,7 +11542,7 @@
         <v>2.25</v>
       </c>
       <c r="M134">
-        <v>28.16666666666667</v>
+        <v>-19.83333333333333</v>
       </c>
       <c r="N134">
         <v>3</v>
@@ -11557,7 +11557,7 @@
         <v>27</v>
       </c>
       <c r="R134">
-        <v>38.66277777777778</v>
+        <v>-9.337222222222216</v>
       </c>
       <c r="S134" s="2">
         <v>44413.625</v>
@@ -11566,7 +11566,7 @@
         <v>44418.71236111111</v>
       </c>
       <c r="U134">
-        <v>47.09666666666666</v>
+        <v>-0.903333333333336</v>
       </c>
       <c r="V134" s="2">
         <v>44412.60185185185</v>
@@ -11584,7 +11584,7 @@
         <v>44418.71236111111</v>
       </c>
       <c r="AA134">
-        <v>56.65222222222224</v>
+        <v>8.652222222222235</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -11625,7 +11625,7 @@
         <v>2.083333333333333</v>
       </c>
       <c r="M135">
-        <v>23.17111111111112</v>
+        <v>-24.82888888888888</v>
       </c>
       <c r="N135">
         <v>3.581111111111111</v>
@@ -11640,7 +11640,7 @@
         <v>27</v>
       </c>
       <c r="R135">
-        <v>31.61500000000001</v>
+        <v>-16.38499999999999</v>
       </c>
       <c r="S135" s="2">
         <v>44414.46875</v>
@@ -11649,7 +11649,7 @@
         <v>44418.65520833333</v>
       </c>
       <c r="U135">
-        <v>40.47499999999999</v>
+        <v>-7.525000000000006</v>
       </c>
       <c r="V135" s="2">
         <v>44413.6275</v>
@@ -11667,7 +11667,7 @@
         <v>44418.65520833333</v>
       </c>
       <c r="AA135">
-        <v>45.66500000000001</v>
+        <v>-2.334999999999994</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -11960,7 +11960,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="N139">
-        <v>21.41666666666667</v>
+        <v>-26.58333333333333</v>
       </c>
       <c r="O139">
         <v>2.56</v>
@@ -11981,7 +11981,7 @@
         <v>44431.42263888889</v>
       </c>
       <c r="U139">
-        <v>29.64333333333333</v>
+        <v>-18.35666666666667</v>
       </c>
       <c r="V139" s="2">
         <v>44426.63060185185</v>
@@ -11999,7 +11999,7 @@
         <v>44431.42263888889</v>
       </c>
       <c r="AA139">
-        <v>40.00888888888889</v>
+        <v>-7.99111111111111</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12082,7 +12082,7 @@
         <v>44433.58966435185</v>
       </c>
       <c r="AA140">
-        <v>58.72194444444443</v>
+        <v>10.72194444444443</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12322,7 +12322,7 @@
         <v>44440.48089120369</v>
       </c>
       <c r="X143">
-        <v>61.46083333333334</v>
+        <v>13.46083333333334</v>
       </c>
       <c r="Y143" s="2">
         <v>44433.54501157408</v>
@@ -12331,7 +12331,7 @@
         <v>44466.3587962963</v>
       </c>
       <c r="AA143">
-        <v>292.5305555555556</v>
+        <v>52.53055555555557</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12630,7 +12630,7 @@
         <v>7.723888888888889</v>
       </c>
       <c r="P147">
-        <v>299.3408333333333</v>
+        <v>59.34083333333331</v>
       </c>
       <c r="Q147" t="s">
         <v>27</v>
@@ -12645,7 +12645,7 @@
         <v>44454.63751157407</v>
       </c>
       <c r="U147">
-        <v>320.9530555555556</v>
+        <v>80.95305555555558</v>
       </c>
       <c r="V147" s="2">
         <v>44418.46811342592</v>
@@ -12663,7 +12663,7 @@
         <v>44454.63751157407</v>
       </c>
       <c r="AA147">
-        <v>328.0655555555555</v>
+        <v>88.06555555555553</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -12746,7 +12746,7 @@
         <v>44425.81653935185</v>
       </c>
       <c r="AA148">
-        <v>68.93222222222221</v>
+        <v>20.93222222222221</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -12793,7 +12793,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O149">
-        <v>46.92555555555556</v>
+        <v>-1.074444444444438</v>
       </c>
       <c r="P149">
         <v>2.625555555555556</v>
@@ -12802,7 +12802,7 @@
         <v>27</v>
       </c>
       <c r="R149">
-        <v>51.42555555555556</v>
+        <v>3.425555555555562</v>
       </c>
       <c r="S149" s="2">
         <v>44426.37152777778</v>
@@ -12811,7 +12811,7 @@
         <v>44431.77990740741</v>
       </c>
       <c r="U149">
-        <v>54.80111111111111</v>
+        <v>6.801111111111112</v>
       </c>
       <c r="V149" s="2">
         <v>44421.49567129631</v>
@@ -12820,7 +12820,7 @@
         <v>44426.45958333334</v>
       </c>
       <c r="X149">
-        <v>44.13361111111111</v>
+        <v>-3.866388888888892</v>
       </c>
       <c r="Y149" s="2">
         <v>44421.49567129631</v>
@@ -12829,7 +12829,7 @@
         <v>44431.77990740741</v>
       </c>
       <c r="AA149">
-        <v>96.82138888888889</v>
+        <v>0.8213888888888903</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -12879,7 +12879,7 @@
         <v>7.256666666666667</v>
       </c>
       <c r="P150">
-        <v>58.9075</v>
+        <v>10.9075</v>
       </c>
       <c r="Q150" t="s">
         <v>27</v>
@@ -12894,7 +12894,7 @@
         <v>44448.60753472222</v>
       </c>
       <c r="U150">
-        <v>69.2475</v>
+        <v>21.2475</v>
       </c>
       <c r="V150" s="2">
         <v>44438.57189814815</v>
@@ -12912,7 +12912,7 @@
         <v>44448.60753472222</v>
       </c>
       <c r="AA150">
-        <v>90.85527777777779</v>
+        <v>42.85527777777779</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13042,7 +13042,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="O152">
-        <v>-116.2208333333334</v>
+        <v>-20.22083333333336</v>
       </c>
       <c r="P152">
         <v>2.192777777777778</v>
@@ -13051,7 +13051,7 @@
         <v>27</v>
       </c>
       <c r="R152">
-        <v>-116.2208333333334</v>
+        <v>-20.22083333333336</v>
       </c>
       <c r="S152" s="2">
         <v>44420.76128472222</v>
@@ -13060,7 +13060,7 @@
         <v>44434.35381944444</v>
       </c>
       <c r="U152">
-        <v>116.2208333333334</v>
+        <v>20.22083333333336</v>
       </c>
       <c r="V152" s="2">
         <v>44417.35210648148</v>
@@ -13078,7 +13078,7 @@
         <v>44434.35381944444</v>
       </c>
       <c r="AA152">
-        <v>153.0411111111111</v>
+        <v>57.04111111111109</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13119,7 +13119,7 @@
         <v>2.166666666666667</v>
       </c>
       <c r="M153">
-        <v>51.62111111111111</v>
+        <v>3.621111111111105</v>
       </c>
       <c r="N153">
         <v>0.01527777777777778</v>
@@ -13134,7 +13134,7 @@
         <v>27</v>
       </c>
       <c r="R153">
-        <v>53.74416666666666</v>
+        <v>5.744166666666661</v>
       </c>
       <c r="S153" s="2">
         <v>44419.38894675926</v>
@@ -13143,7 +13143,7 @@
         <v>44425.39506944444</v>
       </c>
       <c r="U153">
-        <v>54.14694444444444</v>
+        <v>6.146944444444443</v>
       </c>
       <c r="V153" s="2">
         <v>44424.38173611111</v>
@@ -13161,7 +13161,7 @@
         <v>44425.39506944444</v>
       </c>
       <c r="AA153">
-        <v>54.14694444444444</v>
+        <v>6.146944444444443</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13208,7 +13208,7 @@
         <v>0.3322222222222222</v>
       </c>
       <c r="O154">
-        <v>-124.7616666666667</v>
+        <v>-28.76166666666666</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>27</v>
       </c>
       <c r="R154">
-        <v>-124.7616666666667</v>
+        <v>-28.76166666666666</v>
       </c>
       <c r="S154" s="2">
         <v>44419.77516203704</v>
@@ -13226,7 +13226,7 @@
         <v>44434.34856481481</v>
       </c>
       <c r="U154">
-        <v>124.7616666666667</v>
+        <v>28.76166666666666</v>
       </c>
       <c r="V154" s="2">
         <v>44418.48119212963</v>
@@ -13244,7 +13244,7 @@
         <v>44434.34856481481</v>
       </c>
       <c r="AA154">
-        <v>140.8169444444445</v>
+        <v>44.81694444444446</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13318,7 +13318,7 @@
         <v>44431.58314814815</v>
       </c>
       <c r="X155">
-        <v>55.89416666666668</v>
+        <v>7.894166666666678</v>
       </c>
       <c r="Y155" s="2">
         <v>44425.50421296297</v>
@@ -13327,7 +13327,7 @@
         <v>44431.58314814815</v>
       </c>
       <c r="AA155">
-        <v>55.89416666666668</v>
+        <v>7.894166666666678</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13368,7 +13368,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="M156">
-        <v>51.33333333333334</v>
+        <v>3.333333333333343</v>
       </c>
       <c r="N156">
         <v>3.478333333333333</v>
@@ -13383,7 +13383,7 @@
         <v>27</v>
       </c>
       <c r="R156">
-        <v>57.88333333333334</v>
+        <v>9.883333333333344</v>
       </c>
       <c r="S156" s="2">
         <v>44425.39291666666</v>
@@ -13392,7 +13392,7 @@
         <v>44432.35625</v>
       </c>
       <c r="U156">
-        <v>62.12</v>
+        <v>14.12</v>
       </c>
       <c r="V156" s="2">
         <v>44425.52680555556</v>
@@ -13401,7 +13401,7 @@
         <v>44431.58621527778</v>
       </c>
       <c r="X156">
-        <v>55.42583333333334</v>
+        <v>7.425833333333344</v>
       </c>
       <c r="Y156" s="2">
         <v>44425.39291666666</v>
@@ -13410,7 +13410,7 @@
         <v>44432.35625</v>
       </c>
       <c r="AA156">
-        <v>62.12</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13706,7 +13706,7 @@
         <v>0.5</v>
       </c>
       <c r="O160">
-        <v>58.21083333333334</v>
+        <v>10.21083333333334</v>
       </c>
       <c r="P160">
         <v>2.530555555555555</v>
@@ -13715,7 +13715,7 @@
         <v>27</v>
       </c>
       <c r="R160">
-        <v>63.54416666666667</v>
+        <v>15.54416666666667</v>
       </c>
       <c r="S160" s="2">
         <v>44426.47222222222</v>
@@ -13724,7 +13724,7 @@
         <v>44433.65241898148</v>
       </c>
       <c r="U160">
-        <v>67.32472222222222</v>
+        <v>19.32472222222222</v>
       </c>
       <c r="V160" s="2">
         <v>44424.65480324074</v>
@@ -13742,7 +13742,7 @@
         <v>44433.65241898148</v>
       </c>
       <c r="AA160">
-        <v>80.94277777777779</v>
+        <v>32.94277777777779</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -13825,7 +13825,7 @@
         <v>44432.71853009259</v>
       </c>
       <c r="AA161">
-        <v>47.01000000000001</v>
+        <v>-0.9899999999999949</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -13899,7 +13899,7 @@
         <v>44440.47880787037</v>
       </c>
       <c r="X162">
-        <v>48.15722222222222</v>
+        <v>0.1572222222222166</v>
       </c>
       <c r="Y162" s="2">
         <v>44435.34725694444</v>
@@ -13908,7 +13908,7 @@
         <v>44441.72578703704</v>
       </c>
       <c r="AA162">
-        <v>63.08472222222221</v>
+        <v>15.08472222222221</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14121,7 +14121,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="O165">
-        <v>104.4619444444444</v>
+        <v>8.461944444444441</v>
       </c>
       <c r="P165">
         <v>0.0075</v>
@@ -14130,7 +14130,7 @@
         <v>27</v>
       </c>
       <c r="R165">
-        <v>111.2511111111111</v>
+        <v>15.25111111111111</v>
       </c>
       <c r="S165" s="2">
         <v>44434.57994212963</v>
@@ -14139,7 +14139,7 @@
         <v>44446.72821759259</v>
       </c>
       <c r="U165">
-        <v>111.5586111111111</v>
+        <v>15.55861111111113</v>
       </c>
       <c r="V165" s="2">
         <v>44431.60945601852</v>
@@ -14157,7 +14157,7 @@
         <v>44446.72821759259</v>
       </c>
       <c r="AA165">
-        <v>137.8502777777778</v>
+        <v>41.85027777777776</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14231,7 +14231,7 @@
         <v>44431.44059027778</v>
       </c>
       <c r="X166">
-        <v>27.47861111111111</v>
+        <v>-20.52138888888889</v>
       </c>
       <c r="Y166" s="2">
         <v>44427.61805555555</v>
@@ -14240,7 +14240,7 @@
         <v>44431.44059027778</v>
       </c>
       <c r="AA166">
-        <v>31.74083333333334</v>
+        <v>-16.25916666666666</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14323,7 +14323,7 @@
         <v>44431.79349537037</v>
       </c>
       <c r="AA167">
-        <v>52.89166666666667</v>
+        <v>4.891666666666666</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14489,7 +14489,7 @@
         <v>44432.87113425926</v>
       </c>
       <c r="AA169">
-        <v>51.92972222222222</v>
+        <v>3.929722222222225</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -14619,7 +14619,7 @@
         <v>0.3555555555555556</v>
       </c>
       <c r="O171">
-        <v>89.83222222222221</v>
+        <v>-6.167777777777786</v>
       </c>
       <c r="P171">
         <v>0.6897222222222222</v>
@@ -14628,7 +14628,7 @@
         <v>27</v>
       </c>
       <c r="R171">
-        <v>89.83222222222221</v>
+        <v>-6.167777777777786</v>
       </c>
       <c r="S171" s="2">
         <v>44428.60138888889</v>
@@ -14637,7 +14637,7 @@
         <v>44438.6527662037</v>
       </c>
       <c r="U171">
-        <v>91.23305555555555</v>
+        <v>-4.766944444444448</v>
       </c>
       <c r="V171" s="2">
         <v>44431.35239583333</v>
@@ -14655,7 +14655,7 @@
         <v>44438.6527662037</v>
       </c>
       <c r="AA171">
-        <v>91.23305555555555</v>
+        <v>-4.766944444444448</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -14705,7 +14705,7 @@
         <v>6.951111111111111</v>
       </c>
       <c r="P172">
-        <v>47.94222222222223</v>
+        <v>-0.0577777777777726</v>
       </c>
       <c r="Q172" t="s">
         <v>27</v>
@@ -14720,7 +14720,7 @@
         <v>44439.60320601852</v>
       </c>
       <c r="U172">
-        <v>66.14361111111111</v>
+        <v>18.14361111111111</v>
       </c>
       <c r="V172" s="2">
         <v>44431.34540509258</v>
@@ -14738,7 +14738,7 @@
         <v>44439.60320601852</v>
       </c>
       <c r="AA172">
-        <v>78.18722222222223</v>
+        <v>30.18722222222223</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -14868,16 +14868,16 @@
         <v>1.578888888888889</v>
       </c>
       <c r="O174">
-        <v>58.90833333333333</v>
+        <v>10.90833333333333</v>
       </c>
       <c r="P174">
-        <v>48.07138888888889</v>
+        <v>0.07138888888889028</v>
       </c>
       <c r="Q174" t="s">
         <v>27</v>
       </c>
       <c r="R174">
-        <v>64.24166666666666</v>
+        <v>16.24166666666666</v>
       </c>
       <c r="S174" s="2">
         <v>44434.53171296296</v>
@@ -14886,7 +14886,7 @@
         <v>44446.82572916667</v>
       </c>
       <c r="U174">
-        <v>115.0563888888889</v>
+        <v>19.05638888888888</v>
       </c>
       <c r="V174" s="2">
         <v>44433.46076388889</v>
@@ -14904,7 +14904,7 @@
         <v>44446.82572916667</v>
       </c>
       <c r="AA174">
-        <v>125.7591666666667</v>
+        <v>29.75916666666666</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -14987,7 +14987,7 @@
         <v>44432.63449074074</v>
       </c>
       <c r="AA175">
-        <v>42.91222222222223</v>
+        <v>-5.087777777777774</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15061,7 +15061,7 @@
         <v>44431.34407407408</v>
       </c>
       <c r="X176">
-        <v>29.09472222222223</v>
+        <v>-18.90527777777777</v>
       </c>
       <c r="Y176" s="2">
         <v>44427.63179398148</v>
@@ -15070,7 +15070,7 @@
         <v>44432.80127314815</v>
       </c>
       <c r="AA176">
-        <v>49.0675</v>
+        <v>1.067499999999995</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15114,7 +15114,7 @@
         <v>2.76</v>
       </c>
       <c r="N177">
-        <v>66.00333333333333</v>
+        <v>18.00333333333333</v>
       </c>
       <c r="O177">
         <v>10.5275</v>
@@ -15135,7 +15135,7 @@
         <v>44448.65065972223</v>
       </c>
       <c r="U177">
-        <v>85.7825</v>
+        <v>37.7825</v>
       </c>
       <c r="V177" s="2">
         <v>44435.33246527778</v>
@@ -15144,7 +15144,7 @@
         <v>44446.62232638889</v>
       </c>
       <c r="X177">
-        <v>105.9566666666666</v>
+        <v>9.956666666666649</v>
       </c>
       <c r="Y177" s="2">
         <v>44435.33246527778</v>
@@ -15153,7 +15153,7 @@
         <v>44448.65065972223</v>
       </c>
       <c r="AA177">
-        <v>124.6366666666667</v>
+        <v>28.63666666666666</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15283,7 +15283,7 @@
         <v>1.244444444444444</v>
       </c>
       <c r="O179">
-        <v>28.85805555555555</v>
+        <v>-19.14194444444445</v>
       </c>
       <c r="P179">
         <v>1.695555555555555</v>
@@ -15292,7 +15292,7 @@
         <v>27</v>
       </c>
       <c r="R179">
-        <v>28.85805555555555</v>
+        <v>-19.14194444444445</v>
       </c>
       <c r="S179" s="2">
         <v>44435.49027777778</v>
@@ -15301,7 +15301,7 @@
         <v>44438.74204861111</v>
       </c>
       <c r="U179">
-        <v>33.0425</v>
+        <v>-14.9575</v>
       </c>
       <c r="V179" s="2">
         <v>44431.33489583333</v>
@@ -15319,7 +15319,7 @@
         <v>44438.74204861111</v>
       </c>
       <c r="AA179">
-        <v>72.77166666666668</v>
+        <v>24.77166666666668</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15366,7 +15366,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="O180">
-        <v>24.51027777777777</v>
+        <v>-23.48972222222223</v>
       </c>
       <c r="P180">
         <v>3.625833333333333</v>
@@ -15375,7 +15375,7 @@
         <v>27</v>
       </c>
       <c r="R180">
-        <v>24.51027777777777</v>
+        <v>-23.48972222222223</v>
       </c>
       <c r="S180" s="2">
         <v>44435.53472222222</v>
@@ -15384,7 +15384,7 @@
         <v>44438.65613425926</v>
       </c>
       <c r="U180">
-        <v>29.91388888888889</v>
+        <v>-18.08611111111111</v>
       </c>
       <c r="V180" s="2">
         <v>44434.55246527777</v>
@@ -15402,7 +15402,7 @@
         <v>44438.65613425926</v>
       </c>
       <c r="AA180">
-        <v>38.48805555555556</v>
+        <v>-9.511944444444438</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15443,7 +15443,7 @@
         <v>0.55</v>
       </c>
       <c r="M181">
-        <v>28.66444444444444</v>
+        <v>-19.33555555555556</v>
       </c>
       <c r="N181">
         <v>0.75</v>
@@ -15458,7 +15458,7 @@
         <v>27</v>
       </c>
       <c r="R181">
-        <v>47.02666666666666</v>
+        <v>-0.9733333333333363</v>
       </c>
       <c r="S181" s="2">
         <v>44442.60474537037</v>
@@ -15467,7 +15467,7 @@
         <v>44447.7794212963</v>
       </c>
       <c r="U181">
-        <v>49.19222222222223</v>
+        <v>1.192222222222227</v>
       </c>
       <c r="V181" s="2">
         <v>44442.37328703704</v>
@@ -15485,7 +15485,7 @@
         <v>44447.7794212963</v>
       </c>
       <c r="AA181">
-        <v>54.74722222222223</v>
+        <v>6.747222222222234</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -15559,7 +15559,7 @@
         <v>44449.43628472222</v>
       </c>
       <c r="X182">
-        <v>65.58000000000001</v>
+        <v>17.58000000000001</v>
       </c>
       <c r="Y182" s="2">
         <v>44442.32878472221</v>
@@ -15568,7 +15568,7 @@
         <v>44449.43628472222</v>
       </c>
       <c r="AA182">
-        <v>65.58000000000001</v>
+        <v>17.58000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -15734,7 +15734,7 @@
         <v>44447.48607638889</v>
       </c>
       <c r="AA184">
-        <v>45.50722222222223</v>
+        <v>-2.492777777777775</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -15950,7 +15950,7 @@
         <v>18.45277777777778</v>
       </c>
       <c r="P187">
-        <v>20.27222222222223</v>
+        <v>-27.72777777777777</v>
       </c>
       <c r="Q187" t="s">
         <v>27</v>
@@ -15965,7 +15965,7 @@
         <v>44459.46979166667</v>
       </c>
       <c r="U187">
-        <v>42.10833333333333</v>
+        <v>-5.891666666666666</v>
       </c>
       <c r="V187" s="2">
         <v>44454.55886574074</v>
@@ -15983,7 +15983,7 @@
         <v>44459.46979166667</v>
       </c>
       <c r="AA187">
-        <v>42.86222222222221</v>
+        <v>-5.137777777777785</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16116,7 +16116,7 @@
         <v>11.28305555555556</v>
       </c>
       <c r="P189">
-        <v>54.88861111111112</v>
+        <v>6.888611111111118</v>
       </c>
       <c r="Q189" t="s">
         <v>27</v>
@@ -16131,7 +16131,7 @@
         <v>44448.7156712963</v>
       </c>
       <c r="U189">
-        <v>70.17611111111111</v>
+        <v>22.17611111111111</v>
       </c>
       <c r="V189" s="2">
         <v>44438.5697337963</v>
@@ -16149,7 +16149,7 @@
         <v>44448.7156712963</v>
       </c>
       <c r="AA189">
-        <v>93.5025</v>
+        <v>45.5025</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16193,7 +16193,7 @@
         <v>3.431666666666667</v>
       </c>
       <c r="N190">
-        <v>25.75</v>
+        <v>-22.25</v>
       </c>
       <c r="O190">
         <v>18.05194444444444</v>
@@ -16214,7 +16214,7 @@
         <v>44441.43241898148</v>
       </c>
       <c r="U190">
-        <v>56.27833333333334</v>
+        <v>8.278333333333336</v>
       </c>
       <c r="V190" s="2">
         <v>44433.65560185185</v>
@@ -16232,7 +16232,7 @@
         <v>44441.43241898148</v>
       </c>
       <c r="AA190">
-        <v>66.64361111111111</v>
+        <v>18.64361111111111</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16273,7 +16273,7 @@
         <v>0.35</v>
       </c>
       <c r="M191">
-        <v>34.74444444444444</v>
+        <v>-13.25555555555556</v>
       </c>
       <c r="N191">
         <v>0.65</v>
@@ -16288,7 +16288,7 @@
         <v>27</v>
       </c>
       <c r="R191">
-        <v>39.13305555555555</v>
+        <v>-8.866944444444449</v>
       </c>
       <c r="S191" s="2">
         <v>44435.33916666666</v>
@@ -16297,7 +16297,7 @@
         <v>44439.7084375</v>
       </c>
       <c r="U191">
-        <v>44.8625</v>
+        <v>-3.137500000000003</v>
       </c>
       <c r="V191" s="2">
         <v>44434.33320601852</v>
@@ -16315,7 +16315,7 @@
         <v>44439.7084375</v>
       </c>
       <c r="AA191">
-        <v>54.00555555555556</v>
+        <v>6.00555555555556</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16481,7 +16481,7 @@
         <v>44438.70151620371</v>
       </c>
       <c r="AA193">
-        <v>35.92805555555556</v>
+        <v>-12.07194444444444</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -16555,7 +16555,7 @@
         <v>44438.46377314815</v>
       </c>
       <c r="X194">
-        <v>38.94666666666667</v>
+        <v>-9.053333333333327</v>
       </c>
       <c r="Y194" s="2">
         <v>44434.34099537037</v>
@@ -16564,7 +16564,7 @@
         <v>44438.89704861111</v>
       </c>
       <c r="AA194">
-        <v>49.34527777777778</v>
+        <v>1.345277777777781</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -16721,7 +16721,7 @@
         <v>44449.441875</v>
       </c>
       <c r="X196">
-        <v>97.1536111111111</v>
+        <v>49.1536111111111</v>
       </c>
       <c r="Y196" s="2">
         <v>44438.51880787037</v>
@@ -16730,7 +16730,7 @@
         <v>44449.4896875</v>
       </c>
       <c r="AA196">
-        <v>98.30111111111114</v>
+        <v>50.30111111111114</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -16771,7 +16771,7 @@
         <v>1.502777777777778</v>
       </c>
       <c r="M197">
-        <v>19</v>
+        <v>-29</v>
       </c>
       <c r="N197">
         <v>4.161666666666667</v>
@@ -16786,7 +16786,7 @@
         <v>27</v>
       </c>
       <c r="R197">
-        <v>21.78888888888889</v>
+        <v>-26.21111111111111</v>
       </c>
       <c r="S197" s="2">
         <v>44449.52833333334</v>
@@ -16795,7 +16795,7 @@
         <v>44452.55138888889</v>
       </c>
       <c r="U197">
-        <v>27.55333333333333</v>
+        <v>-20.44666666666667</v>
       </c>
       <c r="V197" s="2">
         <v>44449.35059027778</v>
@@ -16804,7 +16804,7 @@
         <v>44452.46430555556</v>
       </c>
       <c r="X197">
-        <v>29.72916666666667</v>
+        <v>-18.27083333333333</v>
       </c>
       <c r="Y197" s="2">
         <v>44449.35059027778</v>
@@ -16813,7 +16813,7 @@
         <v>44452.55138888889</v>
       </c>
       <c r="AA197">
-        <v>31.81916666666666</v>
+        <v>-16.18083333333334</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17228,7 +17228,7 @@
         <v>44440.58403935185</v>
       </c>
       <c r="AA202">
-        <v>52.7811111111111</v>
+        <v>4.781111111111102</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17275,7 +17275,7 @@
         <v>0.3266666666666667</v>
       </c>
       <c r="O203">
-        <v>30.63555555555556</v>
+        <v>-17.36444444444444</v>
       </c>
       <c r="P203">
         <v>2.650555555555556</v>
@@ -17284,7 +17284,7 @@
         <v>27</v>
       </c>
       <c r="R203">
-        <v>30.98222222222222</v>
+        <v>-17.01777777777778</v>
       </c>
       <c r="S203" s="2">
         <v>44449.47222222222</v>
@@ -17293,7 +17293,7 @@
         <v>44452.84553240741</v>
       </c>
       <c r="U203">
-        <v>35.95944444444444</v>
+        <v>-12.04055555555556</v>
       </c>
       <c r="V203" s="2">
         <v>44449.6012962963</v>
@@ -17311,7 +17311,7 @@
         <v>44452.84553240741</v>
       </c>
       <c r="AA203">
-        <v>35.95944444444444</v>
+        <v>-12.04055555555556</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17560,7 +17560,7 @@
         <v>44441.62037037037</v>
       </c>
       <c r="AA206">
-        <v>59.04444444444445</v>
+        <v>11.04444444444445</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -17643,7 +17643,7 @@
         <v>44439.7688425926</v>
       </c>
       <c r="AA207">
-        <v>46.65222222222222</v>
+        <v>-1.347777777777779</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -17773,7 +17773,7 @@
         <v>0.4266666666666667</v>
       </c>
       <c r="O209">
-        <v>29.18111111111111</v>
+        <v>-18.81888888888889</v>
       </c>
       <c r="P209">
         <v>0.04861111111111111</v>
@@ -17782,7 +17782,7 @@
         <v>27</v>
       </c>
       <c r="R209">
-        <v>30.89444444444444</v>
+        <v>-17.10555555555556</v>
       </c>
       <c r="S209" s="2">
         <v>44449.47222222222</v>
@@ -17791,7 +17791,7 @@
         <v>44452.73762731482</v>
       </c>
       <c r="U209">
-        <v>33.36972222222222</v>
+        <v>-14.63027777777778</v>
       </c>
       <c r="V209" s="2">
         <v>44449.60188657408</v>
@@ -17809,7 +17809,7 @@
         <v>44452.73762731482</v>
       </c>
       <c r="AA209">
-        <v>33.36972222222222</v>
+        <v>-14.63027777777778</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -17850,7 +17850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M210">
-        <v>21.88</v>
+        <v>-26.12</v>
       </c>
       <c r="N210">
         <v>0.1933333333333333</v>
@@ -17865,7 +17865,7 @@
         <v>27</v>
       </c>
       <c r="R210">
-        <v>31.25138888888888</v>
+        <v>-16.74861111111112</v>
       </c>
       <c r="S210" s="2">
         <v>44449.47222222222</v>
@@ -17874,7 +17874,7 @@
         <v>44452.74178240741</v>
       </c>
       <c r="U210">
-        <v>33.46944444444445</v>
+        <v>-14.53055555555555</v>
       </c>
       <c r="V210" s="2">
         <v>44449.33012731482</v>
@@ -17883,7 +17883,7 @@
         <v>44452.34680555556</v>
       </c>
       <c r="X210">
-        <v>27.40027777777777</v>
+        <v>-20.59972222222223</v>
       </c>
       <c r="Y210" s="2">
         <v>44449.33012731482</v>
@@ -17892,7 +17892,7 @@
         <v>44452.74178240741</v>
       </c>
       <c r="AA210">
-        <v>36.87972222222223</v>
+        <v>-11.12027777777777</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -17933,7 +17933,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M211">
-        <v>22.17666666666666</v>
+        <v>-25.82333333333334</v>
       </c>
       <c r="N211">
         <v>0.8033333333333333</v>
@@ -17948,7 +17948,7 @@
         <v>27</v>
       </c>
       <c r="R211">
-        <v>30.71472222222222</v>
+        <v>-17.28527777777778</v>
       </c>
       <c r="S211" s="2">
         <v>44449.47222222222</v>
@@ -17957,7 +17957,7 @@
         <v>44453.9216087963</v>
       </c>
       <c r="U211">
-        <v>46.78527777777778</v>
+        <v>-1.214722222222221</v>
       </c>
       <c r="V211" s="2">
         <v>44449.60313657407</v>
@@ -17966,7 +17966,7 @@
         <v>44452.34815972222</v>
       </c>
       <c r="X211">
-        <v>20.88055555555556</v>
+        <v>-27.11944444444444</v>
       </c>
       <c r="Y211" s="2">
         <v>44449.47222222222</v>
@@ -17975,7 +17975,7 @@
         <v>44453.9216087963</v>
       </c>
       <c r="AA211">
-        <v>46.78527777777778</v>
+        <v>-1.214722222222221</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18016,7 +18016,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M212">
-        <v>21.68000000000001</v>
+        <v>-26.31999999999999</v>
       </c>
       <c r="N212">
         <v>0.1933333333333333</v>
@@ -18031,7 +18031,7 @@
         <v>27</v>
       </c>
       <c r="R212">
-        <v>31.3888888888889</v>
+        <v>-16.6111111111111</v>
       </c>
       <c r="S212" s="2">
         <v>44449.47222222222</v>
@@ -18040,7 +18040,7 @@
         <v>44452.755625</v>
       </c>
       <c r="U212">
-        <v>33.80166666666666</v>
+        <v>-14.19833333333334</v>
       </c>
       <c r="V212" s="2">
         <v>44449.60377314815</v>
@@ -18049,7 +18049,7 @@
         <v>44452.34866898148</v>
       </c>
       <c r="X212">
-        <v>20.8775</v>
+        <v>-27.1225</v>
       </c>
       <c r="Y212" s="2">
         <v>44449.47222222222</v>
@@ -18058,7 +18058,7 @@
         <v>44452.755625</v>
       </c>
       <c r="AA212">
-        <v>33.80166666666666</v>
+        <v>-14.19833333333334</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18105,7 +18105,7 @@
         <v>0.5</v>
       </c>
       <c r="O213">
-        <v>48.00138888888888</v>
+        <v>0.001388888888882889</v>
       </c>
       <c r="P213">
         <v>0.1811111111111111</v>
@@ -18114,7 +18114,7 @@
         <v>27</v>
       </c>
       <c r="R213">
-        <v>52.33472222222222</v>
+        <v>4.334722222222216</v>
       </c>
       <c r="S213" s="2">
         <v>44441.36805555555</v>
@@ -18123,7 +18123,7 @@
         <v>44446.72635416667</v>
       </c>
       <c r="U213">
-        <v>53.59916666666666</v>
+        <v>5.599166666666662</v>
       </c>
       <c r="V213" s="2">
         <v>44438.51591435185</v>
@@ -18141,7 +18141,7 @@
         <v>44446.72635416667</v>
       </c>
       <c r="AA213">
-        <v>77.05055555555555</v>
+        <v>29.05055555555555</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18268,19 +18268,19 @@
         <v>6.583333333333332</v>
       </c>
       <c r="N215">
-        <v>31.75</v>
+        <v>-16.25</v>
       </c>
       <c r="O215">
-        <v>-22.38277777777778</v>
+        <v>25.61722222222222</v>
       </c>
       <c r="P215">
-        <v>30.55277777777778</v>
+        <v>-17.44722222222222</v>
       </c>
       <c r="Q215" t="s">
         <v>27</v>
       </c>
       <c r="R215">
-        <v>-15.79944444444444</v>
+        <v>32.20055555555555</v>
       </c>
       <c r="S215" s="2">
         <v>44441.48958333334</v>
@@ -18289,7 +18289,7 @@
         <v>44446.68763888889</v>
       </c>
       <c r="U215">
-        <v>49.75333333333333</v>
+        <v>1.75333333333333</v>
       </c>
       <c r="V215" s="2">
         <v>44440.53493055556</v>
@@ -18307,7 +18307,7 @@
         <v>44446.68763888889</v>
       </c>
       <c r="AA215">
-        <v>57.66499999999999</v>
+        <v>9.664999999999992</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18351,7 +18351,7 @@
         <v>0.5</v>
       </c>
       <c r="N216">
-        <v>32.83333333333333</v>
+        <v>-15.16666666666667</v>
       </c>
       <c r="O216">
         <v>10.85111111111111</v>
@@ -18372,7 +18372,7 @@
         <v>44448.65174768519</v>
       </c>
       <c r="U216">
-        <v>61.64194444444445</v>
+        <v>13.64194444444445</v>
       </c>
       <c r="V216" s="2">
         <v>44440.55061342593</v>
@@ -18390,7 +18390,7 @@
         <v>44448.65174768519</v>
       </c>
       <c r="AA216">
-        <v>74.42722222222221</v>
+        <v>26.42722222222221</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18431,7 +18431,7 @@
         <v>0.25</v>
       </c>
       <c r="M217">
-        <v>21.16666666666667</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="N217">
         <v>0.25</v>
@@ -18446,7 +18446,7 @@
         <v>27</v>
       </c>
       <c r="R217">
-        <v>31.92277777777778</v>
+        <v>-16.07722222222222</v>
       </c>
       <c r="S217" s="2">
         <v>44449.59027777778</v>
@@ -18455,7 +18455,7 @@
         <v>44452.8231712963</v>
       </c>
       <c r="U217">
-        <v>32.58944444444444</v>
+        <v>-15.41055555555556</v>
       </c>
       <c r="V217" s="2">
         <v>44448.62747685185</v>
@@ -18473,7 +18473,7 @@
         <v>44452.8231712963</v>
       </c>
       <c r="AA217">
-        <v>40.69666666666667</v>
+        <v>-7.303333333333327</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -18689,7 +18689,7 @@
         <v>7.350000000000001</v>
       </c>
       <c r="P220">
-        <v>95.24361111111114</v>
+        <v>-0.7563888888888641</v>
       </c>
       <c r="Q220" t="s">
         <v>27</v>
@@ -18704,7 +18704,7 @@
         <v>44452.69592592592</v>
       </c>
       <c r="U220">
-        <v>102.6125</v>
+        <v>6.612500000000011</v>
       </c>
       <c r="V220" s="2">
         <v>44434.62542824074</v>
@@ -18713,7 +18713,7 @@
         <v>44442.50635416667</v>
       </c>
       <c r="X220">
-        <v>69.14222222222222</v>
+        <v>21.14222222222222</v>
       </c>
       <c r="Y220" s="2">
         <v>44434.62542824074</v>
@@ -18722,7 +18722,7 @@
         <v>44452.69592592592</v>
       </c>
       <c r="AA220">
-        <v>163.6919444444445</v>
+        <v>19.69194444444446</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -18879,7 +18879,7 @@
         <v>44446.31567129631</v>
       </c>
       <c r="X222">
-        <v>31.32166666666666</v>
+        <v>-16.67833333333334</v>
       </c>
       <c r="Y222" s="2">
         <v>44442.51060185185</v>
@@ -18888,7 +18888,7 @@
         <v>44447.59609953704</v>
       </c>
       <c r="AA222">
-        <v>47.05194444444444</v>
+        <v>-0.9480555555555554</v>
       </c>
     </row>
     <row r="223" spans="1:27">
@@ -19021,7 +19021,7 @@
         <v>11.94138888888889</v>
       </c>
       <c r="P224">
-        <v>30.70444444444445</v>
+        <v>-17.29555555555555</v>
       </c>
       <c r="Q224" t="s">
         <v>27</v>
@@ -19036,7 +19036,7 @@
         <v>44452.61222222223</v>
       </c>
       <c r="U224">
-        <v>48.27666666666667</v>
+        <v>0.2766666666666708</v>
       </c>
       <c r="V224" s="2">
         <v>44447.41256944443</v>
@@ -19054,7 +19054,7 @@
         <v>44452.61222222223</v>
       </c>
       <c r="AA224">
-        <v>49.79166666666667</v>
+        <v>1.791666666666671</v>
       </c>
     </row>
     <row r="225" spans="1:27">
@@ -19294,7 +19294,7 @@
         <v>44473.42420138889</v>
       </c>
       <c r="X227">
-        <v>22.60916666666667</v>
+        <v>-25.39083333333333</v>
       </c>
       <c r="Y227" s="2">
         <v>44470.60714120371</v>
@@ -19303,7 +19303,7 @@
         <v>44475.93523148148</v>
       </c>
       <c r="AA227">
-        <v>52.87388888888889</v>
+        <v>4.873888888888885</v>
       </c>
     </row>
     <row r="228" spans="1:27">
@@ -19552,7 +19552,7 @@
         <v>44446.69645833333</v>
       </c>
       <c r="AA230">
-        <v>49.82166666666667</v>
+        <v>1.821666666666673</v>
       </c>
     </row>
     <row r="231" spans="1:27">
@@ -19718,7 +19718,7 @@
         <v>44453.48888888889</v>
       </c>
       <c r="AA232">
-        <v>39.40138888888889</v>
+        <v>-8.598611111111111</v>
       </c>
     </row>
     <row r="233" spans="1:27">
@@ -20423,7 +20423,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M241">
-        <v>36.25</v>
+        <v>-11.75</v>
       </c>
       <c r="N241">
         <v>1.583333333333333</v>
@@ -20438,7 +20438,7 @@
         <v>27</v>
       </c>
       <c r="R241">
-        <v>42.91083333333334</v>
+        <v>-5.089166666666666</v>
       </c>
       <c r="S241" s="2">
         <v>44442.46875</v>
@@ -20447,7 +20447,7 @@
         <v>44447.74824074074</v>
       </c>
       <c r="U241">
-        <v>51.70777777777778</v>
+        <v>3.707777777777778</v>
       </c>
       <c r="V241" s="2">
         <v>44441.42784722222</v>
@@ -20465,7 +20465,7 @@
         <v>44447.74824074074</v>
       </c>
       <c r="AA241">
-        <v>61.68944444444443</v>
+        <v>13.68944444444443</v>
       </c>
     </row>
     <row r="242" spans="1:27">
@@ -20930,7 +20930,7 @@
         <v>7.179444444444444</v>
       </c>
       <c r="P247">
-        <v>35.35111111111111</v>
+        <v>-12.64888888888889</v>
       </c>
       <c r="Q247" t="s">
         <v>27</v>
@@ -20945,7 +20945,7 @@
         <v>44453.89016203704</v>
       </c>
       <c r="U247">
-        <v>50.03055555555555</v>
+        <v>2.030555555555551</v>
       </c>
       <c r="V247" s="2">
         <v>44448.56148148148</v>
@@ -20963,7 +20963,7 @@
         <v>44453.89016203704</v>
       </c>
       <c r="AA247">
-        <v>52.88833333333334</v>
+        <v>4.888333333333335</v>
       </c>
     </row>
     <row r="248" spans="1:27">
@@ -21170,13 +21170,13 @@
         <v>1</v>
       </c>
       <c r="M250">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="N250">
         <v>7</v>
       </c>
       <c r="O250">
-        <v>59.5936111111111</v>
+        <v>11.5936111111111</v>
       </c>
       <c r="P250">
         <v>14.80638888888889</v>
@@ -21185,7 +21185,7 @@
         <v>27</v>
       </c>
       <c r="R250">
-        <v>209.5936111111111</v>
+        <v>17.5936111111111</v>
       </c>
       <c r="S250" s="2">
         <v>44456.35416666666</v>
@@ -21194,7 +21194,7 @@
         <v>44481.68333333333</v>
       </c>
       <c r="U250">
-        <v>232.9</v>
+        <v>40.89999999999998</v>
       </c>
       <c r="V250" s="2">
         <v>44455.58506944445</v>
@@ -21203,7 +21203,7 @@
         <v>44470.62347222222</v>
       </c>
       <c r="X250">
-        <v>135.9213888888889</v>
+        <v>39.92138888888888</v>
       </c>
       <c r="Y250" s="2">
         <v>44455.58506944445</v>
@@ -21212,7 +21212,7 @@
         <v>44481.68333333333</v>
       </c>
       <c r="AA250">
-        <v>236.3580555555556</v>
+        <v>44.35805555555555</v>
       </c>
     </row>
     <row r="251" spans="1:27">
@@ -21342,7 +21342,7 @@
         <v>5.367777777777778</v>
       </c>
       <c r="O252">
-        <v>38.33472222222223</v>
+        <v>-9.665277777777774</v>
       </c>
       <c r="P252">
         <v>2.831944444444444</v>
@@ -21351,7 +21351,7 @@
         <v>27</v>
       </c>
       <c r="R252">
-        <v>40.4825</v>
+        <v>-7.517499999999998</v>
       </c>
       <c r="S252" s="2">
         <v>44455.54166666666</v>
@@ -21360,7 +21360,7 @@
         <v>44460.79925925926</v>
       </c>
       <c r="U252">
-        <v>51.18222222222222</v>
+        <v>3.182222222222222</v>
       </c>
       <c r="V252" s="2">
         <v>44456.32530092593</v>
@@ -21378,7 +21378,7 @@
         <v>44460.79925925926</v>
       </c>
       <c r="AA252">
-        <v>51.18222222222222</v>
+        <v>3.182222222222222</v>
       </c>
     </row>
     <row r="253" spans="1:27">
@@ -21425,7 +21425,7 @@
         <v>0.1422222222222222</v>
       </c>
       <c r="O253">
-        <v>27.15805555555555</v>
+        <v>-20.84194444444445</v>
       </c>
       <c r="P253">
         <v>0</v>
@@ -21434,7 +21434,7 @@
         <v>27</v>
       </c>
       <c r="R253">
-        <v>34.15805555555555</v>
+        <v>-13.84194444444445</v>
       </c>
       <c r="S253" s="2">
         <v>44456.34490740741</v>
@@ -21443,7 +21443,7 @@
         <v>44459.65204861111</v>
       </c>
       <c r="U253">
-        <v>34.37138888888889</v>
+        <v>-13.62861111111111</v>
       </c>
       <c r="V253" s="2">
         <v>44459.30446759259</v>
@@ -21461,7 +21461,7 @@
         <v>44459.65204861111</v>
       </c>
       <c r="AA253">
-        <v>34.37138888888889</v>
+        <v>-13.62861111111111</v>
       </c>
     </row>
     <row r="254" spans="1:27">
@@ -21502,7 +21502,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M254">
-        <v>53.16666666666666</v>
+        <v>5.166666666666657</v>
       </c>
       <c r="N254">
         <v>7.666666666666667</v>
@@ -21517,7 +21517,7 @@
         <v>27</v>
       </c>
       <c r="R254">
-        <v>60.28333333333332</v>
+        <v>12.28333333333332</v>
       </c>
       <c r="S254" s="2">
         <v>44462.31944444445</v>
@@ -21526,7 +21526,7 @@
         <v>44469.56805555556</v>
       </c>
       <c r="U254">
-        <v>68.96666666666667</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="V254" s="2">
         <v>44462.5184375</v>
@@ -21544,7 +21544,7 @@
         <v>44469.56805555556</v>
       </c>
       <c r="AA254">
-        <v>68.96666666666667</v>
+        <v>20.96666666666667</v>
       </c>
     </row>
     <row r="255" spans="1:27">
@@ -21710,7 +21710,7 @@
         <v>44453.6368287037</v>
       </c>
       <c r="AA256">
-        <v>41.12138888888889</v>
+        <v>-6.878611111111113</v>
       </c>
     </row>
     <row r="257" spans="1:27">
@@ -21959,7 +21959,7 @@
         <v>44476.72364583334</v>
       </c>
       <c r="AA259">
-        <v>56.8461111111111</v>
+        <v>8.846111111111099</v>
       </c>
     </row>
     <row r="260" spans="1:27">
@@ -22092,7 +22092,7 @@
         <v>6.341388888888889</v>
       </c>
       <c r="P261">
-        <v>23.04666666666667</v>
+        <v>-24.95333333333333</v>
       </c>
       <c r="Q261" t="s">
         <v>27</v>
@@ -22107,7 +22107,7 @@
         <v>44452.65158564815</v>
       </c>
       <c r="U261">
-        <v>32.38805555555555</v>
+        <v>-15.61194444444445</v>
       </c>
       <c r="V261" s="2">
         <v>44448.59878472222</v>
@@ -22125,7 +22125,7 @@
         <v>44452.65158564815</v>
       </c>
       <c r="AA261">
-        <v>37.26722222222222</v>
+        <v>-10.73277777777778</v>
       </c>
     </row>
     <row r="262" spans="1:27">
@@ -22175,7 +22175,7 @@
         <v>17.42611111111111</v>
       </c>
       <c r="P262">
-        <v>228.6708333333333</v>
+        <v>36.67083333333335</v>
       </c>
       <c r="Q262" t="s">
         <v>27</v>
@@ -22190,7 +22190,7 @@
         <v>44501.87903935185</v>
       </c>
       <c r="U262">
-        <v>262.6802777777777</v>
+        <v>70.68027777777775</v>
       </c>
       <c r="V262" s="2">
         <v>44474.32826388889</v>
@@ -22208,7 +22208,7 @@
         <v>44501.87903935185</v>
       </c>
       <c r="AA262">
-        <v>262.6802777777777</v>
+        <v>70.68027777777775</v>
       </c>
     </row>
     <row r="263" spans="1:27">
@@ -22282,7 +22282,7 @@
         <v>44474.33597222222</v>
       </c>
       <c r="X263">
-        <v>29.57027777777778</v>
+        <v>-18.42972222222222</v>
       </c>
       <c r="Y263" s="2">
         <v>44470.60387731482</v>
@@ -22291,7 +22291,7 @@
         <v>44477.68850694445</v>
       </c>
       <c r="AA263">
-        <v>65.0311111111111</v>
+        <v>17.0311111111111</v>
       </c>
     </row>
     <row r="264" spans="1:27">
@@ -22338,7 +22338,7 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="O264">
-        <v>49.14416666666666</v>
+        <v>1.144166666666663</v>
       </c>
       <c r="P264">
         <v>0</v>
@@ -22347,7 +22347,7 @@
         <v>27</v>
       </c>
       <c r="R264">
-        <v>49.2311111111111</v>
+        <v>1.231111111111108</v>
       </c>
       <c r="S264" s="2">
         <v>44455.52777777778</v>
@@ -22356,7 +22356,7 @@
         <v>44460.75546296296</v>
       </c>
       <c r="U264">
-        <v>50.46444444444444</v>
+        <v>2.464444444444439</v>
       </c>
       <c r="V264" s="2">
         <v>44455.42195601852</v>
@@ -22374,7 +22374,7 @@
         <v>44460.75546296296</v>
       </c>
       <c r="AA264">
-        <v>53.00416666666666</v>
+        <v>5.004166666666663</v>
       </c>
     </row>
     <row r="265" spans="1:27">
@@ -22498,10 +22498,10 @@
         <v>0.25</v>
       </c>
       <c r="M266">
-        <v>116.75</v>
+        <v>20.75</v>
       </c>
       <c r="N266">
-        <v>38.33333333333333</v>
+        <v>-9.666666666666671</v>
       </c>
       <c r="O266">
         <v>0.1166666666666667</v>
@@ -22513,7 +22513,7 @@
         <v>27</v>
       </c>
       <c r="R266">
-        <v>116.95</v>
+        <v>20.95</v>
       </c>
       <c r="S266" s="2">
         <v>44456.3125</v>
@@ -22522,7 +22522,7 @@
         <v>44473.42222222222</v>
       </c>
       <c r="U266">
-        <v>155.6333333333333</v>
+        <v>11.63333333333333</v>
       </c>
       <c r="V266" s="2">
         <v>44456.51378472222</v>
@@ -22540,7 +22540,7 @@
         <v>44473.42222222222</v>
       </c>
       <c r="AA266">
-        <v>155.6333333333333</v>
+        <v>11.63333333333333</v>
       </c>
     </row>
     <row r="267" spans="1:27">
@@ -22830,7 +22830,7 @@
         <v>0.25</v>
       </c>
       <c r="M270">
-        <v>21.91666666666667</v>
+        <v>-26.08333333333333</v>
       </c>
       <c r="N270">
         <v>0.4166666666666667</v>
@@ -22839,13 +22839,13 @@
         <v>7.165277777777778</v>
       </c>
       <c r="P270">
-        <v>144.1997222222222</v>
+        <v>48.19972222222225</v>
       </c>
       <c r="Q270" t="s">
         <v>27</v>
       </c>
       <c r="R270">
-        <v>29.08194444444445</v>
+        <v>-18.91805555555555</v>
       </c>
       <c r="S270" s="2">
         <v>44456.55555555555</v>
@@ -22854,7 +22854,7 @@
         <v>44475.681875</v>
       </c>
       <c r="U270">
-        <v>174.0316666666667</v>
+        <v>30.03166666666669</v>
       </c>
       <c r="V270" s="2">
         <v>44456.42820601852</v>
@@ -22872,7 +22872,7 @@
         <v>44475.681875</v>
       </c>
       <c r="AA270">
-        <v>177.0880555555556</v>
+        <v>33.08805555555557</v>
       </c>
     </row>
     <row r="271" spans="1:27">
@@ -22919,7 +22919,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="O271">
-        <v>30.13805555555555</v>
+        <v>-17.86194444444445</v>
       </c>
       <c r="P271">
         <v>11.28388888888889</v>
@@ -22928,7 +22928,7 @@
         <v>27</v>
       </c>
       <c r="R271">
-        <v>30.17138888888889</v>
+        <v>-17.82861111111111</v>
       </c>
       <c r="S271" s="2">
         <v>44456.42361111111</v>
@@ -22937,7 +22937,7 @@
         <v>44460.71577546297</v>
       </c>
       <c r="U271">
-        <v>43.01194444444444</v>
+        <v>-4.988055555555562</v>
       </c>
       <c r="V271" s="2">
         <v>44456.32280092594</v>
@@ -22955,7 +22955,7 @@
         <v>44460.71577546297</v>
       </c>
       <c r="AA271">
-        <v>45.43111111111111</v>
+        <v>-2.568888888888893</v>
       </c>
     </row>
     <row r="272" spans="1:27">
@@ -23112,7 +23112,7 @@
         <v>44459.38484953704</v>
       </c>
       <c r="X273">
-        <v>25.55583333333334</v>
+        <v>-22.44416666666666</v>
       </c>
       <c r="Y273" s="2">
         <v>44456.44502314815</v>
@@ -23121,7 +23121,7 @@
         <v>44460.69556712963</v>
       </c>
       <c r="AA273">
-        <v>42.01305555555555</v>
+        <v>-5.986944444444447</v>
       </c>
     </row>
     <row r="274" spans="1:27">
@@ -23580,7 +23580,7 @@
         <v>1.433333333333334</v>
       </c>
       <c r="N279">
-        <v>26.41027777777778</v>
+        <v>-21.58972222222222</v>
       </c>
       <c r="O279">
         <v>11.63055555555556</v>
@@ -23601,7 +23601,7 @@
         <v>44459.81326388889</v>
       </c>
       <c r="U279">
-        <v>42.51833333333333</v>
+        <v>-5.481666666666669</v>
       </c>
       <c r="V279" s="2">
         <v>44456.41623842594</v>
@@ -23619,7 +23619,7 @@
         <v>44459.81326388889</v>
       </c>
       <c r="AA279">
-        <v>42.51833333333333</v>
+        <v>-5.481666666666669</v>
       </c>
     </row>
     <row r="280" spans="1:27">
@@ -23918,7 +23918,7 @@
         <v>7.916944444444445</v>
       </c>
       <c r="P283">
-        <v>34.33333333333333</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="Q283" t="s">
         <v>27</v>
@@ -23933,7 +23933,7 @@
         <v>44467.65626157408</v>
       </c>
       <c r="U283">
-        <v>51.91694444444444</v>
+        <v>3.916944444444439</v>
       </c>
       <c r="V283" s="2">
         <v>44460.55709490741</v>
@@ -23951,7 +23951,7 @@
         <v>44467.65626157408</v>
       </c>
       <c r="AA283">
-        <v>65.38</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="284" spans="1:27">
@@ -24081,7 +24081,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="O285">
-        <v>31.31194444444445</v>
+        <v>-16.68805555555555</v>
       </c>
       <c r="P285">
         <v>0</v>
@@ -24090,7 +24090,7 @@
         <v>27</v>
       </c>
       <c r="R285">
-        <v>31.31194444444445</v>
+        <v>-16.68805555555555</v>
       </c>
       <c r="S285" s="2">
         <v>44462.38657407407</v>
@@ -24099,7 +24099,7 @@
         <v>44466.41346064815</v>
       </c>
       <c r="U285">
-        <v>36.64527777777778</v>
+        <v>-11.35472222222222</v>
       </c>
       <c r="V285" s="2">
         <v>44459.52912037037</v>
@@ -24117,7 +24117,7 @@
         <v>44466.41346064815</v>
       </c>
       <c r="AA285">
-        <v>60.22416666666666</v>
+        <v>12.22416666666666</v>
       </c>
     </row>
     <row r="286" spans="1:27">
@@ -24490,7 +24490,7 @@
         <v>0.25</v>
       </c>
       <c r="M290">
-        <v>27.16666666666667</v>
+        <v>-20.83333333333333</v>
       </c>
       <c r="N290">
         <v>9.25</v>
@@ -24505,7 +24505,7 @@
         <v>27</v>
       </c>
       <c r="R290">
-        <v>37.13333333333334</v>
+        <v>-10.86666666666666</v>
       </c>
       <c r="S290" s="2">
         <v>44463.3</v>
@@ -24514,7 +24514,7 @@
         <v>44468.37430555555</v>
       </c>
       <c r="U290">
-        <v>46.78333333333333</v>
+        <v>-1.216666666666669</v>
       </c>
       <c r="V290" s="2">
         <v>44462.61872685186</v>
@@ -24532,7 +24532,7 @@
         <v>44468.37430555555</v>
       </c>
       <c r="AA290">
-        <v>48.13361111111112</v>
+        <v>0.1336111111111222</v>
       </c>
     </row>
     <row r="291" spans="1:27">
@@ -24582,7 +24582,7 @@
         <v>13.67194444444445</v>
       </c>
       <c r="P291">
-        <v>44.45888888888889</v>
+        <v>-3.541111111111107</v>
       </c>
       <c r="Q291" t="s">
         <v>27</v>
@@ -24597,7 +24597,7 @@
         <v>44468.64181712963</v>
       </c>
       <c r="U291">
-        <v>74.6536111111111</v>
+        <v>26.6536111111111</v>
       </c>
       <c r="V291" s="2">
         <v>44459.53008101852</v>
@@ -24606,7 +24606,7 @@
         <v>44468.341875</v>
       </c>
       <c r="X291">
-        <v>76.48305555555555</v>
+        <v>28.48305555555555</v>
       </c>
       <c r="Y291" s="2">
         <v>44459.53008101852</v>
@@ -24615,7 +24615,7 @@
         <v>44468.64181712963</v>
       </c>
       <c r="AA291">
-        <v>83.68166666666667</v>
+        <v>35.68166666666667</v>
       </c>
     </row>
     <row r="292" spans="1:27">
@@ -24911,7 +24911,7 @@
         <v>1.783333333333333</v>
       </c>
       <c r="O295">
-        <v>40.51805555555555</v>
+        <v>-7.481944444444451</v>
       </c>
       <c r="P295">
         <v>3.976111111111111</v>
@@ -24920,7 +24920,7 @@
         <v>27</v>
       </c>
       <c r="R295">
-        <v>45.19305555555555</v>
+        <v>-2.806944444444451</v>
       </c>
       <c r="S295" s="2">
         <v>44462.54166666666</v>
@@ -24929,7 +24929,7 @@
         <v>44467.89385416666</v>
       </c>
       <c r="U295">
-        <v>53.45249999999999</v>
+        <v>5.452499999999986</v>
       </c>
       <c r="V295" s="2">
         <v>44462.34275462963</v>
@@ -24947,7 +24947,7 @@
         <v>44467.89385416666</v>
       </c>
       <c r="AA295">
-        <v>58.22638888888889</v>
+        <v>10.22638888888889</v>
       </c>
     </row>
     <row r="296" spans="1:27">
@@ -25071,7 +25071,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M297">
-        <v>27.25</v>
+        <v>-20.75</v>
       </c>
       <c r="N297">
         <v>0.25</v>
@@ -25086,7 +25086,7 @@
         <v>27</v>
       </c>
       <c r="R297">
-        <v>44.2975</v>
+        <v>-3.702500000000001</v>
       </c>
       <c r="S297" s="2">
         <v>44463.375</v>
@@ -25095,7 +25095,7 @@
         <v>44467.7628125</v>
       </c>
       <c r="U297">
-        <v>45.3075</v>
+        <v>-2.692499999999995</v>
       </c>
       <c r="V297" s="2">
         <v>44462.42436342594</v>
@@ -25113,7 +25113,7 @@
         <v>44467.7628125</v>
       </c>
       <c r="AA297">
-        <v>53.1225</v>
+        <v>5.122500000000002</v>
       </c>
     </row>
     <row r="298" spans="1:27">
@@ -25154,7 +25154,7 @@
         <v>0.325</v>
       </c>
       <c r="M298">
-        <v>30.08333333333333</v>
+        <v>-17.91666666666667</v>
       </c>
       <c r="N298">
         <v>9.161666666666665</v>
@@ -25169,7 +25169,7 @@
         <v>27</v>
       </c>
       <c r="R298">
-        <v>31.66666666666666</v>
+        <v>-16.33333333333334</v>
       </c>
       <c r="S298" s="2">
         <v>44463.53527777778</v>
@@ -25178,7 +25178,7 @@
         <v>44468.37916666667</v>
       </c>
       <c r="U298">
-        <v>41.25333333333333</v>
+        <v>-6.74666666666667</v>
       </c>
       <c r="V298" s="2">
         <v>44462.56711805556</v>
@@ -25196,7 +25196,7 @@
         <v>44468.37916666667</v>
       </c>
       <c r="AA298">
-        <v>49.48916666666668</v>
+        <v>1.489166666666677</v>
       </c>
     </row>
     <row r="299" spans="1:27">
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="O299">
-        <v>41.38861111111112</v>
+        <v>-6.611388888888882</v>
       </c>
       <c r="P299">
         <v>0.02305555555555555</v>
@@ -25252,7 +25252,7 @@
         <v>27</v>
       </c>
       <c r="R299">
-        <v>41.62416666666667</v>
+        <v>-6.375833333333326</v>
       </c>
       <c r="S299" s="2">
         <v>44462.55262731481</v>
@@ -25261,7 +25261,7 @@
         <v>44467.41292824074</v>
       </c>
       <c r="U299">
-        <v>41.64722222222223</v>
+        <v>-6.352777777777774</v>
       </c>
       <c r="V299" s="2">
         <v>44463.31923611111</v>
@@ -25270,7 +25270,7 @@
         <v>44468.39131944445</v>
       </c>
       <c r="X299">
-        <v>46.73</v>
+        <v>-1.269999999999996</v>
       </c>
       <c r="Y299" s="2">
         <v>44462.55262731481</v>
@@ -25279,7 +25279,7 @@
         <v>44468.39131944445</v>
       </c>
       <c r="AA299">
-        <v>50.12861111111113</v>
+        <v>2.128611111111127</v>
       </c>
     </row>
     <row r="300" spans="1:27">
@@ -25655,13 +25655,13 @@
         <v>1.25</v>
       </c>
       <c r="N304">
-        <v>23.08333333333333</v>
+        <v>-24.91666666666667</v>
       </c>
       <c r="O304">
         <v>7.28</v>
       </c>
       <c r="P304">
-        <v>136.4705555555556</v>
+        <v>40.47055555555556</v>
       </c>
       <c r="Q304" t="s">
         <v>27</v>
@@ -25676,7 +25676,7 @@
         <v>44481.75696759259</v>
       </c>
       <c r="U304">
-        <v>170.3338888888889</v>
+        <v>26.33388888888891</v>
       </c>
       <c r="V304" s="2">
         <v>44463.3228125</v>
@@ -25694,7 +25694,7 @@
         <v>44481.75696759259</v>
       </c>
       <c r="AA304">
-        <v>172.4197222222222</v>
+        <v>28.41972222222222</v>
       </c>
     </row>
     <row r="305" spans="1:27">
@@ -25744,7 +25744,7 @@
         <v>7.5375</v>
       </c>
       <c r="P305">
-        <v>70.21472222222224</v>
+        <v>22.21472222222224</v>
       </c>
       <c r="Q305" t="s">
         <v>27</v>
@@ -25759,7 +25759,7 @@
         <v>44477.68363425926</v>
       </c>
       <c r="U305">
-        <v>84.74055555555555</v>
+        <v>36.74055555555555</v>
       </c>
       <c r="V305" s="2">
         <v>44467.29710648148</v>
@@ -25777,7 +25777,7 @@
         <v>44477.68363425926</v>
       </c>
       <c r="AA305">
-        <v>99.27666666666667</v>
+        <v>51.27666666666667</v>
       </c>
     </row>
     <row r="306" spans="1:27">
@@ -25824,7 +25824,7 @@
         <v>4.95</v>
       </c>
       <c r="O306">
-        <v>112.9488888888889</v>
+        <v>16.94888888888886</v>
       </c>
       <c r="P306">
         <v>8.065000000000001</v>
@@ -25833,7 +25833,7 @@
         <v>27</v>
       </c>
       <c r="R306">
-        <v>115.3655555555555</v>
+        <v>19.36555555555553</v>
       </c>
       <c r="S306" s="2">
         <v>44469.3125</v>
@@ -25842,7 +25842,7 @@
         <v>44483.43252314815</v>
       </c>
       <c r="U306">
-        <v>128.8805555555555</v>
+        <v>32.88055555555553</v>
       </c>
       <c r="V306" s="2">
         <v>44468.39133101852</v>
@@ -25851,7 +25851,7 @@
         <v>44477.33560185185</v>
       </c>
       <c r="X306">
-        <v>79.66249999999999</v>
+        <v>31.66249999999999</v>
       </c>
       <c r="Y306" s="2">
         <v>44468.39133101852</v>
@@ -25860,7 +25860,7 @@
         <v>44483.43252314815</v>
       </c>
       <c r="AA306">
-        <v>135.9886111111111</v>
+        <v>39.98861111111108</v>
       </c>
     </row>
     <row r="307" spans="1:27">
@@ -25901,7 +25901,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="M307">
-        <v>108.29</v>
+        <v>12.29000000000002</v>
       </c>
       <c r="N307">
         <v>2.413333333333334</v>
@@ -25916,7 +25916,7 @@
         <v>27</v>
       </c>
       <c r="R307">
-        <v>126.8519444444445</v>
+        <v>30.85194444444446</v>
       </c>
       <c r="S307" s="2">
         <v>44469.31944444445</v>
@@ -25925,7 +25925,7 @@
         <v>44483.49369212963</v>
       </c>
       <c r="U307">
-        <v>130.1819444444445</v>
+        <v>34.18194444444447</v>
       </c>
       <c r="V307" s="2">
         <v>44477.32280092594</v>
@@ -25943,7 +25943,7 @@
         <v>44483.49369212963</v>
       </c>
       <c r="AA307">
-        <v>130.1819444444445</v>
+        <v>34.18194444444447</v>
       </c>
     </row>
     <row r="308" spans="1:27">
@@ -25987,7 +25987,7 @@
         <v>1.623333333333333</v>
       </c>
       <c r="N308">
-        <v>116.2966666666667</v>
+        <v>20.29666666666668</v>
       </c>
       <c r="O308">
         <v>9.259166666666665</v>
@@ -26008,7 +26008,7 @@
         <v>44483.47621527778</v>
       </c>
       <c r="U308">
-        <v>128.6791666666667</v>
+        <v>32.67916666666667</v>
       </c>
       <c r="V308" s="2">
         <v>44482.33728009259</v>
@@ -26026,7 +26026,7 @@
         <v>44483.47621527778</v>
       </c>
       <c r="AA308">
-        <v>128.6791666666667</v>
+        <v>32.67916666666667</v>
       </c>
     </row>
     <row r="309" spans="1:27">
@@ -26073,7 +26073,7 @@
         <v>4.036666666666667</v>
       </c>
       <c r="O309">
-        <v>113.3202777777778</v>
+        <v>17.32027777777779</v>
       </c>
       <c r="P309">
         <v>7.971666666666668</v>
@@ -26082,7 +26082,7 @@
         <v>27</v>
       </c>
       <c r="R309">
-        <v>113.3202777777778</v>
+        <v>17.32027777777779</v>
       </c>
       <c r="S309" s="2">
         <v>44469.40625</v>
@@ -26091,7 +26091,7 @@
         <v>44483.44077546296</v>
       </c>
       <c r="U309">
-        <v>126.8286111111111</v>
+        <v>30.82861111111112</v>
       </c>
       <c r="V309" s="2">
         <v>44477.34565972222</v>
@@ -26109,7 +26109,7 @@
         <v>44483.44077546296</v>
       </c>
       <c r="AA309">
-        <v>126.8286111111111</v>
+        <v>30.82861111111112</v>
       </c>
     </row>
     <row r="310" spans="1:27">
@@ -26156,16 +26156,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="O310">
-        <v>149.7980555555555</v>
+        <v>53.79805555555555</v>
       </c>
       <c r="P310">
-        <v>25.36666666666667</v>
+        <v>-22.63333333333333</v>
       </c>
       <c r="Q310" t="s">
         <v>27</v>
       </c>
       <c r="R310">
-        <v>149.7980555555555</v>
+        <v>53.79805555555555</v>
       </c>
       <c r="S310" s="2">
         <v>44474.53472222222</v>
@@ -26174,7 +26174,7 @@
         <v>44494.40732638889</v>
       </c>
       <c r="U310">
-        <v>176.9425</v>
+        <v>32.9425</v>
       </c>
       <c r="V310" s="2">
         <v>44474.55868055556</v>
@@ -26183,7 +26183,7 @@
         <v>44490.45608796295</v>
       </c>
       <c r="X310">
-        <v>141.5375</v>
+        <v>45.53750000000002</v>
       </c>
       <c r="Y310" s="2">
         <v>44474.53472222222</v>
@@ -26192,7 +26192,7 @@
         <v>44494.40732638889</v>
       </c>
       <c r="AA310">
-        <v>176.9425</v>
+        <v>32.9425</v>
       </c>
     </row>
     <row r="311" spans="1:27">
@@ -26239,7 +26239,7 @@
         <v>4.995</v>
       </c>
       <c r="O311">
-        <v>31.08333333333333</v>
+        <v>-16.91666666666667</v>
       </c>
       <c r="P311">
         <v>0.01666666666666667</v>
@@ -26248,7 +26248,7 @@
         <v>27</v>
       </c>
       <c r="R311">
-        <v>46.82499999999999</v>
+        <v>-1.17500000000001</v>
       </c>
       <c r="S311" s="2">
         <v>44475.39291666666</v>
@@ -26257,7 +26257,7 @@
         <v>44481.31666666667</v>
       </c>
       <c r="U311">
-        <v>52.17000000000002</v>
+        <v>4.170000000000016</v>
       </c>
       <c r="V311" s="2">
         <v>44476.40756944445</v>
@@ -26275,7 +26275,7 @@
         <v>44481.31666666667</v>
       </c>
       <c r="AA311">
-        <v>52.17000000000002</v>
+        <v>4.170000000000016</v>
       </c>
     </row>
     <row r="312" spans="1:27">
@@ -26322,7 +26322,7 @@
         <v>7.695</v>
       </c>
       <c r="O312">
-        <v>23.16666666666667</v>
+        <v>-24.83333333333333</v>
       </c>
       <c r="P312">
         <v>0.01666666666666667</v>
@@ -26331,7 +26331,7 @@
         <v>27</v>
       </c>
       <c r="R312">
-        <v>38.8</v>
+        <v>-9.199999999999996</v>
       </c>
       <c r="S312" s="2">
         <v>44468.40680555555</v>
@@ -26340,7 +26340,7 @@
         <v>44473.48680555556</v>
       </c>
       <c r="U312">
-        <v>46.92</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="V312" s="2">
         <v>44468.58425925926</v>
@@ -26358,7 +26358,7 @@
         <v>44473.48680555556</v>
       </c>
       <c r="AA312">
-        <v>46.92</v>
+        <v>-1.079999999999998</v>
       </c>
     </row>
     <row r="313" spans="1:27">
@@ -26399,7 +26399,7 @@
         <v>0.4916666666666666</v>
       </c>
       <c r="M313">
-        <v>47.3</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="N313">
         <v>2.695</v>
@@ -26414,7 +26414,7 @@
         <v>27</v>
       </c>
       <c r="R313">
-        <v>48.4</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="S313" s="2">
         <v>44468.41027777778</v>
@@ -26423,7 +26423,7 @@
         <v>44474.31736111111</v>
       </c>
       <c r="U313">
-        <v>51.77000000000001</v>
+        <v>3.77000000000001</v>
       </c>
       <c r="V313" s="2">
         <v>44468.64928240741</v>
@@ -26441,7 +26441,7 @@
         <v>44474.31736111111</v>
       </c>
       <c r="AA313">
-        <v>51.77000000000001</v>
+        <v>3.77000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:27">
@@ -26476,7 +26476,7 @@
         <v>0.5</v>
       </c>
       <c r="K314">
-        <v>36</v>
+        <v>-12</v>
       </c>
       <c r="L314">
         <v>0.5</v>
@@ -26497,7 +26497,7 @@
         <v>27</v>
       </c>
       <c r="R314">
-        <v>36</v>
+        <v>-12</v>
       </c>
       <c r="S314" s="2">
         <v>44469.29166666666</v>
@@ -26506,7 +26506,7 @@
         <v>44473.625</v>
       </c>
       <c r="U314">
-        <v>44</v>
+        <v>-4</v>
       </c>
       <c r="V314" s="2">
         <v>44469.64288194444</v>
@@ -26524,7 +26524,7 @@
         <v>44473.625</v>
       </c>
       <c r="AA314">
-        <v>44</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="315" spans="1:27">
@@ -26598,7 +26598,7 @@
         <v>44481.56255787037</v>
       </c>
       <c r="X315">
-        <v>54.86805555555554</v>
+        <v>6.868055555555543</v>
       </c>
       <c r="Y315" s="2">
         <v>44475.52638888889</v>
@@ -26607,7 +26607,7 @@
         <v>44481.56255787037</v>
       </c>
       <c r="AA315">
-        <v>54.86805555555554</v>
+        <v>6.868055555555543</v>
       </c>
     </row>
     <row r="316" spans="1:27">
@@ -26654,7 +26654,7 @@
         <v>1.75</v>
       </c>
       <c r="O316">
-        <v>39.08527777777778</v>
+        <v>-8.914722222222224</v>
       </c>
       <c r="P316">
         <v>0</v>
@@ -26663,7 +26663,7 @@
         <v>27</v>
       </c>
       <c r="R316">
-        <v>39.67972222222222</v>
+        <v>-8.320277777777779</v>
       </c>
       <c r="S316" s="2">
         <v>44477.43055555555</v>
@@ -26672,7 +26672,7 @@
         <v>44481.68109953704</v>
       </c>
       <c r="U316">
-        <v>42.01305555555555</v>
+        <v>-5.986944444444447</v>
       </c>
       <c r="V316" s="2">
         <v>44477.30503472222</v>
@@ -26681,7 +26681,7 @@
         <v>44481.56788194443</v>
       </c>
       <c r="X316">
-        <v>42.30805555555555</v>
+        <v>-5.691944444444445</v>
       </c>
       <c r="Y316" s="2">
         <v>44477.30503472222</v>
@@ -26690,7 +26690,7 @@
         <v>44481.68109953704</v>
       </c>
       <c r="AA316">
-        <v>45.02555555555556</v>
+        <v>-2.974444444444444</v>
       </c>
     </row>
     <row r="317" spans="1:27">
@@ -27401,7 +27401,7 @@
         <v>1.25</v>
       </c>
       <c r="O325">
-        <v>38.67805555555556</v>
+        <v>-9.321944444444441</v>
       </c>
       <c r="P325">
         <v>0</v>
@@ -27410,7 +27410,7 @@
         <v>27</v>
       </c>
       <c r="R325">
-        <v>39.2613888888889</v>
+        <v>-8.738611111111107</v>
       </c>
       <c r="S325" s="2">
         <v>44469.47916666666</v>
@@ -27419,7 +27419,7 @@
         <v>44473.74005787037</v>
       </c>
       <c r="U325">
-        <v>42.26138888888889</v>
+        <v>-5.738611111111112</v>
       </c>
       <c r="V325" s="2">
         <v>44469.46453703703</v>
@@ -27437,7 +27437,7 @@
         <v>44473.74005787037</v>
       </c>
       <c r="AA325">
-        <v>42.6125</v>
+        <v>-5.387500000000003</v>
       </c>
     </row>
     <row r="326" spans="1:27">
@@ -27484,7 +27484,7 @@
         <v>4.083333333333332</v>
       </c>
       <c r="O326">
-        <v>37.37694444444445</v>
+        <v>-10.62305555555555</v>
       </c>
       <c r="P326">
         <v>4.475</v>
@@ -27493,7 +27493,7 @@
         <v>27</v>
       </c>
       <c r="R326">
-        <v>38.29361111111111</v>
+        <v>-9.706388888888887</v>
       </c>
       <c r="S326" s="2">
         <v>44469.55555555555</v>
@@ -27502,7 +27502,7 @@
         <v>44474.66744212963</v>
       </c>
       <c r="U326">
-        <v>47.68527777777778</v>
+        <v>-0.3147222222222155</v>
       </c>
       <c r="V326" s="2">
         <v>44469.46450231481</v>
@@ -27520,7 +27520,7 @@
         <v>44474.66744212963</v>
       </c>
       <c r="AA326">
-        <v>49.87055555555555</v>
+        <v>1.870555555555555</v>
       </c>
     </row>
     <row r="327" spans="1:27">
@@ -27760,7 +27760,7 @@
         <v>44473.49759259259</v>
       </c>
       <c r="X329">
-        <v>54.15833333333333</v>
+        <v>6.158333333333331</v>
       </c>
       <c r="Y329" s="2">
         <v>44467.49099537037</v>
@@ -27769,7 +27769,7 @@
         <v>44473.49759259259</v>
       </c>
       <c r="AA329">
-        <v>54.15833333333333</v>
+        <v>6.158333333333331</v>
       </c>
     </row>
     <row r="330" spans="1:27">
@@ -28065,7 +28065,7 @@
         <v>3.643333333333334</v>
       </c>
       <c r="O333">
-        <v>113.1577777777778</v>
+        <v>17.15777777777777</v>
       </c>
       <c r="P333">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>27</v>
       </c>
       <c r="R333">
-        <v>113.4911111111111</v>
+        <v>17.4911111111111</v>
       </c>
       <c r="S333" s="2">
         <v>44469.43055555555</v>
@@ -28083,7 +28083,7 @@
         <v>44482.4812962963</v>
       </c>
       <c r="U333">
-        <v>118.2177777777778</v>
+        <v>22.21777777777777</v>
       </c>
       <c r="V333" s="2">
         <v>44469.31151620371</v>
@@ -28092,7 +28092,7 @@
         <v>44477.35594907407</v>
       </c>
       <c r="X333">
-        <v>73.06638888888889</v>
+        <v>25.06638888888889</v>
       </c>
       <c r="Y333" s="2">
         <v>44469.31151620371</v>
@@ -28101,7 +28101,7 @@
         <v>44482.4812962963</v>
       </c>
       <c r="AA333">
-        <v>121.0747222222222</v>
+        <v>25.07472222222225</v>
       </c>
     </row>
     <row r="334" spans="1:27">
@@ -28148,7 +28148,7 @@
         <v>6.476666666666667</v>
       </c>
       <c r="O334">
-        <v>113.4711111111111</v>
+        <v>17.4711111111111</v>
       </c>
       <c r="P334">
         <v>7.608333333333334</v>
@@ -28157,7 +28157,7 @@
         <v>27</v>
       </c>
       <c r="R334">
-        <v>113.7211111111111</v>
+        <v>17.7211111111111</v>
       </c>
       <c r="S334" s="2">
         <v>44469.33680555555</v>
@@ -28166,7 +28166,7 @@
         <v>44483.43636574074</v>
       </c>
       <c r="U334">
-        <v>128.3894444444445</v>
+        <v>32.38944444444445</v>
       </c>
       <c r="V334" s="2">
         <v>44467.6333101852</v>
@@ -28175,7 +28175,7 @@
         <v>44477.32960648148</v>
       </c>
       <c r="X334">
-        <v>82.71083333333334</v>
+        <v>34.71083333333334</v>
       </c>
       <c r="Y334" s="2">
         <v>44467.6333101852</v>
@@ -28184,7 +28184,7 @@
         <v>44483.43636574074</v>
       </c>
       <c r="AA334">
-        <v>139.2730555555556</v>
+        <v>43.27305555555557</v>
       </c>
     </row>
     <row r="335" spans="1:27">
@@ -28228,10 +28228,10 @@
         <v>2.083333333333333</v>
       </c>
       <c r="N335">
-        <v>126.1686111111111</v>
+        <v>30.16861111111109</v>
       </c>
       <c r="O335">
-        <v>25.21416666666667</v>
+        <v>-22.78583333333333</v>
       </c>
       <c r="P335">
         <v>7.90861111111111</v>
@@ -28240,7 +28240,7 @@
         <v>27</v>
       </c>
       <c r="R335">
-        <v>27.2975</v>
+        <v>-20.7025</v>
       </c>
       <c r="S335" s="2">
         <v>44470.41319444445</v>
@@ -28249,7 +28249,7 @@
         <v>44488.46353009259</v>
       </c>
       <c r="U335">
-        <v>163.2080555555556</v>
+        <v>19.20805555555557</v>
       </c>
       <c r="V335" s="2">
         <v>44470.35638888889</v>
@@ -28258,7 +28258,7 @@
         <v>44484.52289351852</v>
       </c>
       <c r="X335">
-        <v>129.9961111111111</v>
+        <v>33.99611111111113</v>
       </c>
       <c r="Y335" s="2">
         <v>44470.35638888889</v>
@@ -28267,7 +28267,7 @@
         <v>44488.46353009259</v>
       </c>
       <c r="AA335">
-        <v>164.5713888888889</v>
+        <v>20.57138888888886</v>
       </c>
     </row>
     <row r="336" spans="1:27">
@@ -28314,7 +28314,7 @@
         <v>3.413333333333334</v>
       </c>
       <c r="O336">
-        <v>157.4230555555555</v>
+        <v>13.42305555555555</v>
       </c>
       <c r="P336">
         <v>1.059444444444444</v>
@@ -28323,7 +28323,7 @@
         <v>27</v>
       </c>
       <c r="R336">
-        <v>157.4230555555555</v>
+        <v>13.42305555555555</v>
       </c>
       <c r="S336" s="2">
         <v>44469.42361111111</v>
@@ -28332,7 +28332,7 @@
         <v>44487.49038194444</v>
       </c>
       <c r="U336">
-        <v>163.6025</v>
+        <v>19.60250000000002</v>
       </c>
       <c r="V336" s="2">
         <v>44469.58961805556</v>
@@ -28341,7 +28341,7 @@
         <v>44483.5799537037</v>
       </c>
       <c r="X336">
-        <v>125.7680555555556</v>
+        <v>29.76805555555558</v>
       </c>
       <c r="Y336" s="2">
         <v>44469.42361111111</v>
@@ -28350,7 +28350,7 @@
         <v>44487.49038194444</v>
       </c>
       <c r="AA336">
-        <v>163.6025</v>
+        <v>19.60250000000002</v>
       </c>
     </row>
     <row r="337" spans="1:27">
@@ -28394,10 +28394,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N337">
-        <v>129.75</v>
+        <v>33.75</v>
       </c>
       <c r="O337">
-        <v>27.32250000000001</v>
+        <v>-20.67749999999999</v>
       </c>
       <c r="P337">
         <v>6.363888888888887</v>
@@ -28406,7 +28406,7 @@
         <v>27</v>
       </c>
       <c r="R337">
-        <v>27.65583333333334</v>
+        <v>-20.34416666666666</v>
       </c>
       <c r="S337" s="2">
         <v>44470.36805555555</v>
@@ -28415,7 +28415,7 @@
         <v>44488.46609953704</v>
       </c>
       <c r="U337">
-        <v>164.3530555555556</v>
+        <v>20.35305555555556</v>
       </c>
       <c r="V337" s="2">
         <v>44469.61888888889</v>
@@ -28424,7 +28424,7 @@
         <v>44484.5239351852</v>
       </c>
       <c r="X337">
-        <v>132.7211111111111</v>
+        <v>36.7211111111111</v>
       </c>
       <c r="Y337" s="2">
         <v>44469.61888888889</v>
@@ -28433,7 +28433,7 @@
         <v>44488.46609953704</v>
       </c>
       <c r="AA337">
-        <v>167.3330555555556</v>
+        <v>23.33305555555557</v>
       </c>
     </row>
     <row r="338" spans="1:27">
@@ -28563,16 +28563,16 @@
         <v>3.413333333333334</v>
       </c>
       <c r="O339">
-        <v>59.64638888888888</v>
+        <v>11.64638888888888</v>
       </c>
       <c r="P339">
-        <v>34.85527777777779</v>
+        <v>-13.14472222222221</v>
       </c>
       <c r="Q339" t="s">
         <v>27</v>
       </c>
       <c r="R339">
-        <v>79.51972222222221</v>
+        <v>31.51972222222221</v>
       </c>
       <c r="S339" s="2">
         <v>44474.34375</v>
@@ -28581,7 +28581,7 @@
         <v>44487.44951388889</v>
       </c>
       <c r="U339">
-        <v>119.5383333333334</v>
+        <v>23.53833333333336</v>
       </c>
       <c r="V339" s="2">
         <v>44470.62893518519</v>
@@ -28590,7 +28590,7 @@
         <v>44477.32278935185</v>
       </c>
       <c r="X339">
-        <v>55.6525</v>
+        <v>7.652500000000003</v>
       </c>
       <c r="Y339" s="2">
         <v>44470.62893518519</v>
@@ -28599,7 +28599,7 @@
         <v>44487.44951388889</v>
       </c>
       <c r="AA339">
-        <v>148.6938888888889</v>
+        <v>4.693888888888864</v>
       </c>
     </row>
     <row r="340" spans="1:27">
@@ -28640,13 +28640,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="M340">
-        <v>51.69666666666666</v>
+        <v>3.696666666666658</v>
       </c>
       <c r="N340">
         <v>2.56</v>
       </c>
       <c r="O340">
-        <v>97.57777777777778</v>
+        <v>1.577777777777783</v>
       </c>
       <c r="P340">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>27</v>
       </c>
       <c r="R340">
-        <v>149.2744444444444</v>
+        <v>5.274444444444441</v>
       </c>
       <c r="S340" s="2">
         <v>44470.58680555555</v>
@@ -28664,7 +28664,7 @@
         <v>44487.57990740741</v>
       </c>
       <c r="U340">
-        <v>152.8344444444444</v>
+        <v>8.834444444444443</v>
       </c>
       <c r="V340" s="2">
         <v>44470.5534837963</v>
@@ -28673,7 +28673,7 @@
         <v>44484.52189814814</v>
       </c>
       <c r="X340">
-        <v>125.2416666666667</v>
+        <v>29.24166666666667</v>
       </c>
       <c r="Y340" s="2">
         <v>44470.5534837963</v>
@@ -28682,7 +28682,7 @@
         <v>44487.57990740741</v>
       </c>
       <c r="AA340">
-        <v>153.6341666666667</v>
+        <v>9.634166666666658</v>
       </c>
     </row>
     <row r="341" spans="1:27">
@@ -28729,7 +28729,7 @@
         <v>3.413333333333334</v>
       </c>
       <c r="O341">
-        <v>94.99000000000001</v>
+        <v>-1.009999999999991</v>
       </c>
       <c r="P341">
         <v>1.106388888888889</v>
@@ -28738,7 +28738,7 @@
         <v>27</v>
       </c>
       <c r="R341">
-        <v>125.6133333333333</v>
+        <v>29.61333333333334</v>
       </c>
       <c r="S341" s="2">
         <v>44473.30555555555</v>
@@ -28747,7 +28747,7 @@
         <v>44487.51596064815</v>
       </c>
       <c r="U341">
-        <v>131.0497222222222</v>
+        <v>35.04972222222221</v>
       </c>
       <c r="V341" s="2">
         <v>44470.59333333333</v>
@@ -28756,7 +28756,7 @@
         <v>44484.52199074074</v>
       </c>
       <c r="X341">
-        <v>124.2877777777778</v>
+        <v>28.28777777777776</v>
       </c>
       <c r="Y341" s="2">
         <v>44470.59333333333</v>
@@ -28765,7 +28765,7 @@
         <v>44487.51596064815</v>
       </c>
       <c r="AA341">
-        <v>151.1430555555556</v>
+        <v>7.143055555555577</v>
       </c>
     </row>
     <row r="342" spans="1:27">
@@ -28809,10 +28809,10 @@
         <v>3.166666666666667</v>
       </c>
       <c r="N342">
-        <v>90.16666666666666</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="O342">
-        <v>24.92916666666667</v>
+        <v>-23.07083333333333</v>
       </c>
       <c r="P342">
         <v>2.460555555555556</v>
@@ -28821,7 +28821,7 @@
         <v>27</v>
       </c>
       <c r="R342">
-        <v>28.09583333333334</v>
+        <v>-19.90416666666666</v>
       </c>
       <c r="S342" s="2">
         <v>44474.34375</v>
@@ -28830,7 +28830,7 @@
         <v>44487.57179398148</v>
       </c>
       <c r="U342">
-        <v>122.4730555555556</v>
+        <v>26.47305555555556</v>
       </c>
       <c r="V342" s="2">
         <v>44482.32634259259</v>
@@ -28848,7 +28848,7 @@
         <v>44487.57179398148</v>
       </c>
       <c r="AA342">
-        <v>122.4730555555556</v>
+        <v>26.47305555555556</v>
       </c>
     </row>
     <row r="343" spans="1:27">
@@ -29097,7 +29097,7 @@
         <v>44487.86467592593</v>
       </c>
       <c r="AA345">
-        <v>44.56944444444444</v>
+        <v>-3.430555555555557</v>
       </c>
     </row>
     <row r="346" spans="1:27">
@@ -29171,7 +29171,7 @@
         <v>44473.45475694445</v>
       </c>
       <c r="X346">
-        <v>23.37138888888889</v>
+        <v>-24.62861111111111</v>
       </c>
       <c r="Y346" s="2">
         <v>44470.60594907407</v>
@@ -29180,7 +29180,7 @@
         <v>44474.60267361111</v>
       </c>
       <c r="AA346">
-        <v>35.92138888888888</v>
+        <v>-12.07861111111112</v>
       </c>
     </row>
     <row r="347" spans="1:27">
@@ -29304,7 +29304,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="M348">
-        <v>52.33777777777777</v>
+        <v>4.337777777777774</v>
       </c>
       <c r="N348">
         <v>1.564444444444445</v>
@@ -29319,7 +29319,7 @@
         <v>27</v>
       </c>
       <c r="R348">
-        <v>52.33777777777777</v>
+        <v>4.337777777777774</v>
       </c>
       <c r="S348" s="2">
         <v>44477.62152777778</v>
@@ -29328,7 +29328,7 @@
         <v>44483.64583333334</v>
       </c>
       <c r="U348">
-        <v>54.58333333333334</v>
+        <v>6.583333333333343</v>
       </c>
       <c r="V348" s="2">
         <v>44477.57178240741</v>
@@ -29337,7 +29337,7 @@
         <v>44483.43055555555</v>
       </c>
       <c r="X348">
-        <v>50.61027777777778</v>
+        <v>2.610277777777782</v>
       </c>
       <c r="Y348" s="2">
         <v>44477.57178240741</v>
@@ -29346,7 +29346,7 @@
         <v>44483.64583333334</v>
       </c>
       <c r="AA348">
-        <v>55.77722222222224</v>
+        <v>7.777222222222235</v>
       </c>
     </row>
     <row r="349" spans="1:27">
@@ -29393,7 +29393,7 @@
         <v>4.629999999999999</v>
       </c>
       <c r="O349">
-        <v>57.84305555555557</v>
+        <v>9.843055555555566</v>
       </c>
       <c r="P349">
         <v>0</v>
@@ -29402,7 +29402,7 @@
         <v>27</v>
       </c>
       <c r="R349">
-        <v>59.89805555555557</v>
+        <v>11.89805555555557</v>
       </c>
       <c r="S349" s="2">
         <v>44481.33333333334</v>
@@ -29411,7 +29411,7 @@
         <v>44488.4727662037</v>
       </c>
       <c r="U349">
-        <v>66.3463888888889</v>
+        <v>18.3463888888889</v>
       </c>
       <c r="V349" s="2">
         <v>44481.55608796296</v>
@@ -29420,7 +29420,7 @@
         <v>44487.37020833332</v>
       </c>
       <c r="X349">
-        <v>49.53861111111112</v>
+        <v>1.538611111111123</v>
       </c>
       <c r="Y349" s="2">
         <v>44481.33333333334</v>
@@ -29429,7 +29429,7 @@
         <v>44488.4727662037</v>
       </c>
       <c r="AA349">
-        <v>66.3463888888889</v>
+        <v>18.3463888888889</v>
       </c>
     </row>
     <row r="350" spans="1:27">
@@ -29835,7 +29835,7 @@
         <v>44494.52768518519</v>
       </c>
       <c r="X354">
-        <v>55.86416666666668</v>
+        <v>7.864166666666677</v>
       </c>
       <c r="Y354" s="2">
         <v>44488.43805555555</v>
@@ -29844,7 +29844,7 @@
         <v>44494.52768518519</v>
       </c>
       <c r="AA354">
-        <v>56.15111111111111</v>
+        <v>8.151111111111106</v>
       </c>
     </row>
     <row r="355" spans="1:27">
@@ -30057,7 +30057,7 @@
         <v>4.875</v>
       </c>
       <c r="O357">
-        <v>31.8325</v>
+        <v>-16.1675</v>
       </c>
       <c r="P357">
         <v>0</v>
@@ -30066,7 +30066,7 @@
         <v>27</v>
       </c>
       <c r="R357">
-        <v>32.74916666666666</v>
+        <v>-15.25083333333334</v>
       </c>
       <c r="S357" s="2">
         <v>44490.34375</v>
@@ -30075,7 +30075,7 @@
         <v>44494.43572916667</v>
       </c>
       <c r="U357">
-        <v>38.2075</v>
+        <v>-9.792500000000004</v>
       </c>
       <c r="V357" s="2">
         <v>44489.61699074074</v>
@@ -30093,7 +30093,7 @@
         <v>44494.43572916667</v>
       </c>
       <c r="AA357">
-        <v>40.64972222222222</v>
+        <v>-7.350277777777777</v>
       </c>
     </row>
     <row r="358" spans="1:27">
@@ -30226,7 +30226,7 @@
         <v>3.900277777777778</v>
       </c>
       <c r="P359">
-        <v>104.8236111111111</v>
+        <v>8.82361111111112</v>
       </c>
       <c r="Q359" t="s">
         <v>27</v>
@@ -30241,7 +30241,7 @@
         <v>44509.8243287037</v>
       </c>
       <c r="U359">
-        <v>145.7005555555556</v>
+        <v>49.70055555555558</v>
       </c>
       <c r="V359" s="2">
         <v>44494.59729166667</v>
@@ -30259,7 +30259,7 @@
         <v>44509.8243287037</v>
       </c>
       <c r="AA359">
-        <v>145.7005555555556</v>
+        <v>49.70055555555558</v>
       </c>
     </row>
     <row r="360" spans="1:27">
@@ -30638,7 +30638,7 @@
         <v>4.971944444444444</v>
       </c>
       <c r="O364">
-        <v>46.15916666666666</v>
+        <v>-1.840833333333336</v>
       </c>
       <c r="P364">
         <v>4.076111111111111</v>
@@ -30647,7 +30647,7 @@
         <v>27</v>
       </c>
       <c r="R364">
-        <v>48.49722222222222</v>
+        <v>0.4972222222222196</v>
       </c>
       <c r="S364" s="2">
         <v>44483.30902777778</v>
@@ -30656,7 +30656,7 @@
         <v>44488.85952546296</v>
       </c>
       <c r="U364">
-        <v>58.21194444444444</v>
+        <v>10.21194444444444</v>
       </c>
       <c r="V364" s="2">
         <v>44482.40333333334</v>
@@ -30674,7 +30674,7 @@
         <v>44488.85952546296</v>
       </c>
       <c r="AA364">
-        <v>64.94833333333332</v>
+        <v>16.94833333333332</v>
       </c>
     </row>
     <row r="365" spans="1:27">
@@ -30887,7 +30887,7 @@
         <v>0.25</v>
       </c>
       <c r="O367">
-        <v>-32.43444444444444</v>
+        <v>15.56555555555556</v>
       </c>
       <c r="P367">
         <v>0.01777777777777778</v>
@@ -30896,7 +30896,7 @@
         <v>27</v>
       </c>
       <c r="R367">
-        <v>-32.03222222222222</v>
+        <v>15.96777777777779</v>
       </c>
       <c r="S367" s="2">
         <v>44483.64509259259</v>
@@ -30905,7 +30905,7 @@
         <v>44487.49652777778</v>
       </c>
       <c r="U367">
-        <v>32.43444444444444</v>
+        <v>-15.56555555555556</v>
       </c>
       <c r="V367" s="2">
         <v>44484.51337962963</v>
@@ -30923,7 +30923,7 @@
         <v>44487.49652777778</v>
       </c>
       <c r="AA367">
-        <v>32.43444444444444</v>
+        <v>-15.56555555555556</v>
       </c>
     </row>
     <row r="368" spans="1:27">
@@ -31133,19 +31133,19 @@
         <v>3.032777777777778</v>
       </c>
       <c r="N370">
-        <v>55.65222222222224</v>
+        <v>7.652222222222235</v>
       </c>
       <c r="O370">
-        <v>-52.09222222222223</v>
+        <v>-4.092222222222233</v>
       </c>
       <c r="P370">
-        <v>152.0722222222222</v>
+        <v>56.07222222222219</v>
       </c>
       <c r="Q370" t="s">
         <v>27</v>
       </c>
       <c r="R370">
-        <v>-49.06194444444446</v>
+        <v>-1.061944444444457</v>
       </c>
       <c r="S370" s="2">
         <v>44481.33346064815</v>
@@ -31154,7 +31154,7 @@
         <v>44498.60273148148</v>
       </c>
       <c r="U370">
-        <v>159.4625</v>
+        <v>63.46249999999998</v>
       </c>
       <c r="V370" s="2">
         <v>44481.47394675926</v>
@@ -31172,7 +31172,7 @@
         <v>44498.60273148148</v>
       </c>
       <c r="AA370">
-        <v>159.4625</v>
+        <v>63.46249999999998</v>
       </c>
     </row>
     <row r="371" spans="1:27">
@@ -31468,7 +31468,7 @@
         <v>2.916666666666667</v>
       </c>
       <c r="O374">
-        <v>61.62555555555556</v>
+        <v>13.62555555555556</v>
       </c>
       <c r="P374">
         <v>0</v>
@@ -31477,7 +31477,7 @@
         <v>27</v>
       </c>
       <c r="R374">
-        <v>64.71166666666667</v>
+        <v>16.71166666666668</v>
       </c>
       <c r="S374" s="2">
         <v>44483.54513888889</v>
@@ -31486,7 +31486,7 @@
         <v>44491.439375</v>
       </c>
       <c r="U374">
-        <v>69.46166666666667</v>
+        <v>21.46166666666667</v>
       </c>
       <c r="V374" s="2">
         <v>44483.37831018519</v>
@@ -31495,7 +31495,7 @@
         <v>44494.40589120371</v>
       </c>
       <c r="X374">
-        <v>99.66194444444443</v>
+        <v>3.66194444444443</v>
       </c>
       <c r="Y374" s="2">
         <v>44483.37831018519</v>
@@ -31504,7 +31504,7 @@
         <v>44494.40589120371</v>
       </c>
       <c r="AA374">
-        <v>99.66194444444443</v>
+        <v>3.66194444444443</v>
       </c>
     </row>
     <row r="375" spans="1:27">
@@ -31587,7 +31587,7 @@
         <v>44487.78928240741</v>
       </c>
       <c r="AA375">
-        <v>31.55249999999999</v>
+        <v>-16.44750000000001</v>
       </c>
     </row>
     <row r="376" spans="1:27">
@@ -31753,7 +31753,7 @@
         <v>44487.29621527779</v>
       </c>
       <c r="AA377">
-        <v>26.09805555555556</v>
+        <v>-21.90194444444444</v>
       </c>
     </row>
     <row r="378" spans="1:27">
@@ -31969,7 +31969,7 @@
         <v>16.99555555555555</v>
       </c>
       <c r="P380">
-        <v>32.855</v>
+        <v>-15.145</v>
       </c>
       <c r="Q380" t="s">
         <v>27</v>
@@ -31984,7 +31984,7 @@
         <v>44494.63586805556</v>
       </c>
       <c r="U380">
-        <v>54.34416666666667</v>
+        <v>6.344166666666666</v>
       </c>
       <c r="V380" s="2">
         <v>44488.30372685185</v>
@@ -32002,7 +32002,7 @@
         <v>44494.63586805556</v>
       </c>
       <c r="AA380">
-        <v>61.9713888888889</v>
+        <v>13.9713888888889</v>
       </c>
     </row>
     <row r="381" spans="1:27">
@@ -32052,7 +32052,7 @@
         <v>17.84888888888889</v>
       </c>
       <c r="P381">
-        <v>26.31777777777778</v>
+        <v>-21.68222222222222</v>
       </c>
       <c r="Q381" t="s">
         <v>27</v>
@@ -32067,7 +32067,7 @@
         <v>44494.43956018519</v>
       </c>
       <c r="U381">
-        <v>50.38277777777779</v>
+        <v>2.38277777777779</v>
       </c>
       <c r="V381" s="2">
         <v>44488.30671296296</v>
@@ -32085,7 +32085,7 @@
         <v>44494.43956018519</v>
       </c>
       <c r="AA381">
-        <v>57.18833333333333</v>
+        <v>9.188333333333333</v>
       </c>
     </row>
     <row r="382" spans="1:27">
@@ -32132,7 +32132,7 @@
         <v>0.25</v>
       </c>
       <c r="O382">
-        <v>35.57611111111112</v>
+        <v>-12.42388888888888</v>
       </c>
       <c r="P382">
         <v>13.34055555555555</v>
@@ -32141,7 +32141,7 @@
         <v>27</v>
       </c>
       <c r="R382">
-        <v>36.82611111111112</v>
+        <v>-11.17388888888888</v>
       </c>
       <c r="S382" s="2">
         <v>44491.40625</v>
@@ -32150,7 +32150,7 @@
         <v>44496.64583333334</v>
       </c>
       <c r="U382">
-        <v>50.75</v>
+        <v>2.75</v>
       </c>
       <c r="V382" s="2">
         <v>44490.61640046296</v>
@@ -32168,7 +32168,7 @@
         <v>44496.64583333334</v>
       </c>
       <c r="AA382">
-        <v>54.70638888888888</v>
+        <v>6.706388888888881</v>
       </c>
     </row>
     <row r="383" spans="1:27">
@@ -32242,7 +32242,7 @@
         <v>44495.37989583334</v>
       </c>
       <c r="X383">
-        <v>31.40666666666667</v>
+        <v>-16.59333333333333</v>
       </c>
       <c r="Y383" s="2">
         <v>44491.57128472222</v>
@@ -32251,7 +32251,7 @@
         <v>44498.60063657408</v>
       </c>
       <c r="AA383">
-        <v>63.70444444444445</v>
+        <v>15.70444444444445</v>
       </c>
     </row>
     <row r="384" spans="1:27">
@@ -32633,7 +32633,7 @@
         <v>18.41027777777778</v>
       </c>
       <c r="P388">
-        <v>31.61166666666666</v>
+        <v>-16.38833333333334</v>
       </c>
       <c r="Q388" t="s">
         <v>27</v>
@@ -32648,7 +32648,7 @@
         <v>44494.65690972222</v>
       </c>
       <c r="U388">
-        <v>60.4325</v>
+        <v>12.4325</v>
       </c>
       <c r="V388" s="2">
         <v>44487.60175925926</v>
@@ -32666,7 +32666,7 @@
         <v>44494.65690972222</v>
       </c>
       <c r="AA388">
-        <v>64.32361111111112</v>
+        <v>16.32361111111112</v>
       </c>
     </row>
     <row r="389" spans="1:27">
@@ -33039,13 +33039,13 @@
         <v>4.375</v>
       </c>
       <c r="M393">
-        <v>34.78333333333333</v>
+        <v>-13.21666666666667</v>
       </c>
       <c r="N393">
         <v>2.911666666666667</v>
       </c>
       <c r="O393">
-        <v>-43.46666666666667</v>
+        <v>4.533333333333331</v>
       </c>
       <c r="P393">
         <v>0.01666666666666667</v>
@@ -33063,7 +33063,7 @@
         <v>44494.64583333334</v>
       </c>
       <c r="U393">
-        <v>43.46666666666667</v>
+        <v>-4.533333333333331</v>
       </c>
       <c r="V393" s="2">
         <v>44490.60060185185</v>
@@ -33081,7 +33081,7 @@
         <v>44494.64583333334</v>
       </c>
       <c r="AA393">
-        <v>43.46666666666667</v>
+        <v>-4.533333333333331</v>
       </c>
     </row>
     <row r="394" spans="1:27">
@@ -33122,13 +33122,13 @@
         <v>4.375</v>
       </c>
       <c r="M394">
-        <v>30</v>
+        <v>-18</v>
       </c>
       <c r="N394">
         <v>4.278333333333333</v>
       </c>
       <c r="O394">
-        <v>-40.16666666666667</v>
+        <v>7.833333333333329</v>
       </c>
       <c r="P394">
         <v>0.01666666666666667</v>
@@ -33146,7 +33146,7 @@
         <v>44494.50347222222</v>
       </c>
       <c r="U394">
-        <v>40.16666666666667</v>
+        <v>-7.833333333333329</v>
       </c>
       <c r="V394" s="2">
         <v>44490.59917824074</v>
@@ -33164,7 +33164,7 @@
         <v>44494.50347222222</v>
       </c>
       <c r="AA394">
-        <v>40.16666666666667</v>
+        <v>-7.833333333333329</v>
       </c>
     </row>
     <row r="395" spans="1:27">
@@ -33460,7 +33460,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="O398">
-        <v>25.96333333333334</v>
+        <v>-22.03666666666666</v>
       </c>
       <c r="P398">
         <v>0</v>
@@ -33469,7 +33469,7 @@
         <v>27</v>
       </c>
       <c r="R398">
-        <v>28.78972222222223</v>
+        <v>-19.21027777777777</v>
       </c>
       <c r="S398" s="2">
         <v>44491.45167824074</v>
@@ -33478,7 +33478,7 @@
         <v>44494.54013888889</v>
       </c>
       <c r="U398">
-        <v>29.12305555555555</v>
+        <v>-18.87694444444445</v>
       </c>
       <c r="V398" s="2">
         <v>44491.31003472222</v>
@@ -33496,7 +33496,7 @@
         <v>44494.54013888889</v>
       </c>
       <c r="AA398">
-        <v>32.52249999999999</v>
+        <v>-15.47750000000001</v>
       </c>
     </row>
     <row r="399" spans="1:27">
@@ -33537,7 +33537,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="M399">
-        <v>28.68222222222222</v>
+        <v>-19.31777777777778</v>
       </c>
       <c r="N399">
         <v>1.664444444444444</v>
@@ -33552,7 +33552,7 @@
         <v>27</v>
       </c>
       <c r="R399">
-        <v>30.83333333333333</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="S399" s="2">
         <v>44512.35763888889</v>
@@ -33561,7 +33561,7 @@
         <v>44515.80643518519</v>
       </c>
       <c r="U399">
-        <v>37.77111111111111</v>
+        <v>-10.22888888888889</v>
       </c>
       <c r="V399" s="2">
         <v>44511.610625</v>
@@ -33579,7 +33579,7 @@
         <v>44515.80643518519</v>
       </c>
       <c r="AA399">
-        <v>40.69944444444444</v>
+        <v>-7.300555555555562</v>
       </c>
     </row>
     <row r="400" spans="1:27">
@@ -33626,7 +33626,7 @@
         <v>8.582222222222221</v>
       </c>
       <c r="O400">
-        <v>60.13611111111112</v>
+        <v>12.13611111111112</v>
       </c>
       <c r="P400">
         <v>4.126111111111111</v>
@@ -33635,7 +33635,7 @@
         <v>27</v>
       </c>
       <c r="R400">
-        <v>60.55500000000001</v>
+        <v>12.55500000000001</v>
       </c>
       <c r="S400" s="2">
         <v>44490.45138888889</v>
@@ -33644,7 +33644,7 @@
         <v>44498.61513888889</v>
       </c>
       <c r="U400">
-        <v>75.93000000000001</v>
+        <v>27.93000000000001</v>
       </c>
       <c r="V400" s="2">
         <v>44490.33997685185</v>
@@ -33662,7 +33662,7 @@
         <v>44498.61513888889</v>
       </c>
       <c r="AA400">
-        <v>78.60388888888889</v>
+        <v>30.60388888888889</v>
       </c>
     </row>
     <row r="401" spans="1:27">
@@ -33792,7 +33792,7 @@
         <v>1.25</v>
       </c>
       <c r="O402">
-        <v>42.9875</v>
+        <v>-5.012500000000003</v>
       </c>
       <c r="P402">
         <v>0.1772222222222222</v>
@@ -33801,7 +33801,7 @@
         <v>27</v>
       </c>
       <c r="R402">
-        <v>43.06111111111111</v>
+        <v>-4.938888888888893</v>
       </c>
       <c r="S402" s="2">
         <v>44490.45885416667</v>
@@ -33810,7 +33810,7 @@
         <v>44494.84378472222</v>
       </c>
       <c r="U402">
-        <v>45.23833333333333</v>
+        <v>-2.76166666666667</v>
       </c>
       <c r="V402" s="2">
         <v>44490.35944444445</v>
@@ -33828,7 +33828,7 @@
         <v>44494.84378472222</v>
       </c>
       <c r="AA402">
-        <v>47.62388888888889</v>
+        <v>-0.3761111111111148</v>
       </c>
     </row>
     <row r="403" spans="1:27">
@@ -33952,7 +33952,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="M404">
-        <v>18.75</v>
+        <v>-29.25</v>
       </c>
       <c r="N404">
         <v>35.64444444444445</v>
@@ -33967,7 +33967,7 @@
         <v>27</v>
       </c>
       <c r="R404">
-        <v>-3.949722222222221</v>
+        <v>-51.94972222222222</v>
       </c>
       <c r="S404" s="2">
         <v>44491.60462962963</v>
@@ -33976,7 +33976,7 @@
         <v>44497.66921296297</v>
       </c>
       <c r="U404">
-        <v>55.55000000000001</v>
+        <v>7.550000000000011</v>
       </c>
       <c r="V404" s="2">
         <v>44491.43385416668</v>
@@ -33994,7 +33994,7 @@
         <v>44497.66921296297</v>
       </c>
       <c r="AA404">
-        <v>59.64833333333334</v>
+        <v>11.64833333333334</v>
       </c>
     </row>
     <row r="405" spans="1:27">
@@ -34029,7 +34029,7 @@
         <v>1.416666666666667</v>
       </c>
       <c r="K405">
-        <v>18.75</v>
+        <v>-29.25</v>
       </c>
       <c r="L405">
         <v>0.75</v>
@@ -34050,7 +34050,7 @@
         <v>27</v>
       </c>
       <c r="R405">
-        <v>23.98222222222222</v>
+        <v>-24.01777777777778</v>
       </c>
       <c r="S405" s="2">
         <v>44491.58680555555</v>
@@ -34059,7 +34059,7 @@
         <v>44496.7503125</v>
       </c>
       <c r="U405">
-        <v>48.92416666666666</v>
+        <v>0.9241666666666646</v>
       </c>
       <c r="V405" s="2">
         <v>44491.42560185185</v>
@@ -34077,7 +34077,7 @@
         <v>44496.7503125</v>
       </c>
       <c r="AA405">
-        <v>52.79305555555555</v>
+        <v>4.793055555555554</v>
       </c>
     </row>
     <row r="406" spans="1:27">
@@ -34234,7 +34234,7 @@
         <v>44503.51211805556</v>
       </c>
       <c r="X407">
-        <v>67.56694444444443</v>
+        <v>19.56694444444443</v>
       </c>
       <c r="Y407" s="2">
         <v>44496.3218287037</v>
@@ -34243,7 +34243,7 @@
         <v>44503.51211805556</v>
       </c>
       <c r="AA407">
-        <v>67.56694444444443</v>
+        <v>19.56694444444443</v>
       </c>
     </row>
     <row r="408" spans="1:27">
@@ -34290,7 +34290,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="O408">
-        <v>36.40388888888889</v>
+        <v>-11.59611111111111</v>
       </c>
       <c r="P408">
         <v>0.2183333333333333</v>
@@ -34299,7 +34299,7 @@
         <v>27</v>
       </c>
       <c r="R408">
-        <v>37.40916666666666</v>
+        <v>-10.59083333333334</v>
       </c>
       <c r="S408" s="2">
         <v>44498.36805555555</v>
@@ -34308,7 +34308,7 @@
         <v>44502.46017361111</v>
       </c>
       <c r="U408">
-        <v>38.21083333333334</v>
+        <v>-9.789166666666659</v>
       </c>
       <c r="V408" s="2">
         <v>44497.49430555557</v>
@@ -34326,7 +34326,7 @@
         <v>44502.46017361111</v>
       </c>
       <c r="AA408">
-        <v>44.18055555555556</v>
+        <v>-3.819444444444443</v>
       </c>
     </row>
     <row r="409" spans="1:27">
@@ -34619,10 +34619,10 @@
         <v>2.416666666666667</v>
       </c>
       <c r="N412">
-        <v>21.91666666666667</v>
+        <v>-26.08333333333333</v>
       </c>
       <c r="O412">
-        <v>-22.5</v>
+        <v>25.5</v>
       </c>
       <c r="P412">
         <v>0.8888888888888888</v>
@@ -34631,7 +34631,7 @@
         <v>27</v>
       </c>
       <c r="R412">
-        <v>-20.08333333333333</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="S412" s="2">
         <v>44512.39236111111</v>
@@ -34640,7 +34640,7 @@
         <v>44515.34722222222</v>
       </c>
       <c r="U412">
-        <v>25.91666666666667</v>
+        <v>-22.08333333333333</v>
       </c>
       <c r="V412" s="2">
         <v>44511.63741898148</v>
@@ -34658,7 +34658,7 @@
         <v>44515.34722222222</v>
       </c>
       <c r="AA412">
-        <v>29.03527777777778</v>
+        <v>-18.96472222222222</v>
       </c>
     </row>
     <row r="413" spans="1:27">
@@ -34791,7 +34791,7 @@
         <v>9.654722222222222</v>
       </c>
       <c r="P414">
-        <v>29.46333333333334</v>
+        <v>-18.53666666666666</v>
       </c>
       <c r="Q414" t="s">
         <v>27</v>
@@ -34806,7 +34806,7 @@
         <v>44501.5509375</v>
       </c>
       <c r="U414">
-        <v>40.63916666666667</v>
+        <v>-7.360833333333332</v>
       </c>
       <c r="V414" s="2">
         <v>44496.61630787037</v>
@@ -34824,7 +34824,7 @@
         <v>44501.5509375</v>
       </c>
       <c r="AA414">
-        <v>43.43111111111111</v>
+        <v>-4.568888888888893</v>
       </c>
     </row>
     <row r="415" spans="1:27">
@@ -34868,7 +34868,7 @@
         <v>9.25</v>
       </c>
       <c r="N415">
-        <v>20.16666666666667</v>
+        <v>-27.83333333333333</v>
       </c>
       <c r="O415">
         <v>6.593888888888888</v>
@@ -34889,7 +34889,7 @@
         <v>44501.61609953704</v>
       </c>
       <c r="U415">
-        <v>37.20305555555555</v>
+        <v>-10.79694444444445</v>
       </c>
       <c r="V415" s="2">
         <v>44496.61923611111</v>
@@ -34907,7 +34907,7 @@
         <v>44501.61609953704</v>
       </c>
       <c r="AA415">
-        <v>44.92472222222221</v>
+        <v>-3.075277777777785</v>
       </c>
     </row>
     <row r="416" spans="1:27">
@@ -35064,7 +35064,7 @@
         <v>44508.46607638889</v>
       </c>
       <c r="X417">
-        <v>65.49305555555554</v>
+        <v>17.49305555555554</v>
       </c>
       <c r="Y417" s="2">
         <v>44501.36219907407</v>
@@ -35073,7 +35073,7 @@
         <v>44508.46607638889</v>
       </c>
       <c r="AA417">
-        <v>65.49305555555554</v>
+        <v>17.49305555555554</v>
       </c>
     </row>
     <row r="418" spans="1:27">
@@ -35117,10 +35117,10 @@
         <v>1.597777777777778</v>
       </c>
       <c r="N418">
-        <v>23.33444444444444</v>
+        <v>-24.66555555555556</v>
       </c>
       <c r="O418">
-        <v>-30.13333333333334</v>
+        <v>17.86666666666666</v>
       </c>
       <c r="P418">
         <v>0.2844444444444444</v>
@@ -35129,7 +35129,7 @@
         <v>27</v>
       </c>
       <c r="R418">
-        <v>-28.53555555555556</v>
+        <v>19.46444444444444</v>
       </c>
       <c r="S418" s="2">
         <v>44497.63398148148</v>
@@ -35138,7 +35138,7 @@
         <v>44501.38953703704</v>
       </c>
       <c r="U418">
-        <v>30.13333333333333</v>
+        <v>-17.86666666666667</v>
       </c>
       <c r="V418" s="2">
         <v>44497.55253472222</v>
@@ -35156,7 +35156,7 @@
         <v>44501.38953703704</v>
       </c>
       <c r="AA418">
-        <v>32.08805555555556</v>
+        <v>-15.91194444444444</v>
       </c>
     </row>
     <row r="419" spans="1:27">
@@ -35313,7 +35313,7 @@
         <v>44511.66722222222</v>
       </c>
       <c r="X420">
-        <v>145.8702777777778</v>
+        <v>49.8702777777778</v>
       </c>
       <c r="Y420" s="2">
         <v>44495.58929398148</v>
@@ -35322,7 +35322,7 @@
         <v>44511.66722222222</v>
       </c>
       <c r="AA420">
-        <v>145.8702777777778</v>
+        <v>49.8702777777778</v>
       </c>
     </row>
     <row r="421" spans="1:27">
@@ -35372,7 +35372,7 @@
         <v>9.931111111111111</v>
       </c>
       <c r="P421">
-        <v>32.85055555555556</v>
+        <v>-15.14944444444444</v>
       </c>
       <c r="Q421" t="s">
         <v>27</v>
@@ -35387,7 +35387,7 @@
         <v>44502.45618055556</v>
       </c>
       <c r="U421">
-        <v>59.86500000000001</v>
+        <v>11.86500000000001</v>
       </c>
       <c r="V421" s="2">
         <v>44495.35969907408</v>
@@ -35405,7 +35405,7 @@
         <v>44502.45618055556</v>
       </c>
       <c r="AA421">
-        <v>65.31555555555556</v>
+        <v>17.31555555555556</v>
       </c>
     </row>
     <row r="422" spans="1:27">
@@ -35535,7 +35535,7 @@
         <v>2.75</v>
       </c>
       <c r="O423">
-        <v>35.65111111111111</v>
+        <v>-12.34888888888889</v>
       </c>
       <c r="P423">
         <v>8.149444444444445</v>
@@ -35544,7 +35544,7 @@
         <v>27</v>
       </c>
       <c r="R423">
-        <v>35.90111111111111</v>
+        <v>-12.09888888888889</v>
       </c>
       <c r="S423" s="2">
         <v>44498.30208333334</v>
@@ -35553,7 +35553,7 @@
         <v>44503.41877314815</v>
       </c>
       <c r="U423">
-        <v>47.80055555555556</v>
+        <v>-0.1994444444444383</v>
       </c>
       <c r="V423" s="2">
         <v>44497.31289351852</v>
@@ -35571,7 +35571,7 @@
         <v>44503.41877314815</v>
       </c>
       <c r="AA423">
-        <v>56.54111111111112</v>
+        <v>8.541111111111121</v>
       </c>
     </row>
     <row r="424" spans="1:27">
@@ -36036,7 +36036,7 @@
         <v>11.51833333333333</v>
       </c>
       <c r="P429">
-        <v>31.63111111111111</v>
+        <v>-16.36888888888889</v>
       </c>
       <c r="Q429" t="s">
         <v>27</v>
@@ -36051,7 +36051,7 @@
         <v>44502.56655092593</v>
       </c>
       <c r="U429">
-        <v>59.65277777777777</v>
+        <v>11.65277777777777</v>
       </c>
       <c r="V429" s="2">
         <v>44497.4702662037</v>
@@ -36069,7 +36069,7 @@
         <v>44502.56655092593</v>
       </c>
       <c r="AA429">
-        <v>59.65277777777777</v>
+        <v>11.65277777777777</v>
       </c>
     </row>
     <row r="430" spans="1:27">
@@ -36226,7 +36226,7 @@
         <v>44509.54701388889</v>
       </c>
       <c r="X431">
-        <v>103.6486111111111</v>
+        <v>7.648611111111109</v>
       </c>
       <c r="Y431" s="2">
         <v>44498</v>
@@ -36235,7 +36235,7 @@
         <v>44509.54701388889</v>
       </c>
       <c r="AA431">
-        <v>112.1283333333333</v>
+        <v>16.12833333333333</v>
       </c>
     </row>
     <row r="432" spans="1:27">
@@ -37026,7 +37026,7 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <v>29.25</v>
+        <v>-18.75</v>
       </c>
       <c r="O441">
         <v>13.33416666666667</v>
@@ -37047,7 +37047,7 @@
         <v>44504.7699537037</v>
       </c>
       <c r="U441">
-        <v>60.81222222222223</v>
+        <v>12.81222222222223</v>
       </c>
       <c r="V441" s="2">
         <v>44498.36055555557</v>
@@ -37056,7 +37056,7 @@
         <v>44501.33660879629</v>
       </c>
       <c r="X441">
-        <v>26.425</v>
+        <v>-21.575</v>
       </c>
       <c r="Y441" s="2">
         <v>44498.36055555557</v>
@@ -37065,7 +37065,7 @@
         <v>44504.7699537037</v>
       </c>
       <c r="AA441">
-        <v>63.82527777777779</v>
+        <v>15.82527777777779</v>
       </c>
     </row>
     <row r="442" spans="1:27">
@@ -37139,7 +37139,7 @@
         <v>44501.33723379629</v>
       </c>
       <c r="X442">
-        <v>26.28805555555556</v>
+        <v>-21.71194444444444</v>
       </c>
       <c r="Y442" s="2">
         <v>44498.36688657408</v>
@@ -37148,7 +37148,7 @@
         <v>44502.46155092592</v>
       </c>
       <c r="AA442">
-        <v>38.27194444444444</v>
+        <v>-9.728055555555557</v>
       </c>
     </row>
     <row r="443" spans="1:27">
@@ -37189,7 +37189,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M443">
-        <v>20.17527777777778</v>
+        <v>-27.82472222222222</v>
       </c>
       <c r="N443">
         <v>2.666666666666667</v>
@@ -37204,7 +37204,7 @@
         <v>27</v>
       </c>
       <c r="R443">
-        <v>25.30027777777778</v>
+        <v>-22.69972222222222</v>
       </c>
       <c r="S443" s="2">
         <v>44512.53297453704</v>
@@ -37213,7 +37213,7 @@
         <v>44515.59270833333</v>
       </c>
       <c r="U443">
-        <v>28.43361111111111</v>
+        <v>-19.56638888888889</v>
       </c>
       <c r="V443" s="2">
         <v>44512.39206018519</v>
@@ -37222,7 +37222,7 @@
         <v>44515.3319675926</v>
       </c>
       <c r="X443">
-        <v>25.55777777777777</v>
+        <v>-22.44222222222223</v>
       </c>
       <c r="Y443" s="2">
         <v>44512.39206018519</v>
@@ -37231,7 +37231,7 @@
         <v>44515.59270833333</v>
       </c>
       <c r="AA443">
-        <v>31.81527777777778</v>
+        <v>-16.18472222222222</v>
       </c>
     </row>
     <row r="444" spans="1:27">
@@ -37272,7 +37272,7 @@
         <v>1</v>
       </c>
       <c r="M444">
-        <v>21</v>
+        <v>-27</v>
       </c>
       <c r="N444">
         <v>1.333333333333333</v>
@@ -37287,7 +37287,7 @@
         <v>27</v>
       </c>
       <c r="R444">
-        <v>38.94555555555556</v>
+        <v>-9.054444444444442</v>
       </c>
       <c r="S444" s="2">
         <v>44512.57638888889</v>
@@ -37296,7 +37296,7 @@
         <v>44517.36267361111</v>
       </c>
       <c r="U444">
-        <v>39.87083333333334</v>
+        <v>-8.129166666666663</v>
       </c>
       <c r="V444" s="2">
         <v>44512.6325462963</v>
@@ -37314,7 +37314,7 @@
         <v>44517.36267361111</v>
       </c>
       <c r="AA444">
-        <v>39.87083333333334</v>
+        <v>-8.129166666666663</v>
       </c>
     </row>
     <row r="445" spans="1:27">
@@ -37355,7 +37355,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="M445">
-        <v>24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="N445">
         <v>0.25</v>
@@ -37370,7 +37370,7 @@
         <v>27</v>
       </c>
       <c r="R445">
-        <v>28.14666666666667</v>
+        <v>-19.85333333333333</v>
       </c>
       <c r="S445" s="2">
         <v>44505.42708333334</v>
@@ -37379,7 +37379,7 @@
         <v>44508.60405092593</v>
       </c>
       <c r="U445">
-        <v>31.24722222222222</v>
+        <v>-16.75277777777778</v>
       </c>
       <c r="V445" s="2">
         <v>44505.37565972221</v>
@@ -37397,7 +37397,7 @@
         <v>44508.60405092593</v>
       </c>
       <c r="AA445">
-        <v>32.48138888888889</v>
+        <v>-15.51861111111111</v>
       </c>
     </row>
     <row r="446" spans="1:27">
@@ -37690,19 +37690,19 @@
         <v>0.5202777777777777</v>
       </c>
       <c r="N449">
-        <v>20.75</v>
+        <v>-27.25</v>
       </c>
       <c r="O449">
-        <v>-13.54888888888889</v>
+        <v>34.45111111111111</v>
       </c>
       <c r="P449">
-        <v>20.41138888888889</v>
+        <v>-27.58861111111111</v>
       </c>
       <c r="Q449" t="s">
         <v>27</v>
       </c>
       <c r="R449">
-        <v>-9.632222222222223</v>
+        <v>38.36777777777777</v>
       </c>
       <c r="S449" s="2">
         <v>44505.40625</v>
@@ -37711,7 +37711,7 @@
         <v>44508.5984375</v>
       </c>
       <c r="U449">
-        <v>31.6125</v>
+        <v>-16.3875</v>
       </c>
       <c r="V449" s="2">
         <v>44505.37701388889</v>
@@ -37729,7 +37729,7 @@
         <v>44508.5984375</v>
       </c>
       <c r="AA449">
-        <v>32.31416666666667</v>
+        <v>-15.68583333333333</v>
       </c>
     </row>
     <row r="450" spans="1:27">
@@ -37812,7 +37812,7 @@
         <v>44515.36480324074</v>
       </c>
       <c r="AA450">
-        <v>108.3663888888889</v>
+        <v>12.36638888888888</v>
       </c>
     </row>
     <row r="451" spans="1:27">
@@ -37853,7 +37853,7 @@
         <v>2.166666666666667</v>
       </c>
       <c r="M451">
-        <v>30.58333333333333</v>
+        <v>-17.41666666666667</v>
       </c>
       <c r="N451">
         <v>3.833333333333333</v>
@@ -37868,7 +37868,7 @@
         <v>27</v>
       </c>
       <c r="R451">
-        <v>37.01</v>
+        <v>-10.99000000000001</v>
       </c>
       <c r="S451" s="2">
         <v>44504.52777777778</v>
@@ -37877,7 +37877,7 @@
         <v>44509.35872685185</v>
       </c>
       <c r="U451">
-        <v>40.94277777777778</v>
+        <v>-7.057222222222222</v>
       </c>
       <c r="V451" s="2">
         <v>44504.42719907406</v>
@@ -37895,7 +37895,7 @@
         <v>44509.35872685185</v>
       </c>
       <c r="AA451">
-        <v>43.35666666666667</v>
+        <v>-4.643333333333331</v>
       </c>
     </row>
     <row r="452" spans="1:27">
@@ -37936,7 +37936,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="M452">
-        <v>81.28277777777777</v>
+        <v>33.28277777777777</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -37951,7 +37951,7 @@
         <v>27</v>
       </c>
       <c r="R452">
-        <v>95.70666666666665</v>
+        <v>47.70666666666666</v>
       </c>
       <c r="S452" s="2">
         <v>44508.33398148148</v>
@@ -37960,7 +37960,7 @@
         <v>44518.62037037037</v>
       </c>
       <c r="U452">
-        <v>96.87333333333333</v>
+        <v>48.87333333333333</v>
       </c>
       <c r="V452" s="2">
         <v>44505.56666666668</v>
@@ -37969,7 +37969,7 @@
         <v>44509.324375</v>
       </c>
       <c r="X452">
-        <v>30.18472222222222</v>
+        <v>-17.81527777777778</v>
       </c>
       <c r="Y452" s="2">
         <v>44505.56666666668</v>
@@ -37978,7 +37978,7 @@
         <v>44518.62037037037</v>
       </c>
       <c r="AA452">
-        <v>118.2886111111111</v>
+        <v>22.28861111111109</v>
       </c>
     </row>
     <row r="453" spans="1:27">
@@ -38019,7 +38019,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M453">
-        <v>23.25</v>
+        <v>-24.75</v>
       </c>
       <c r="N453">
         <v>0.5</v>
@@ -38034,7 +38034,7 @@
         <v>27</v>
       </c>
       <c r="R453">
-        <v>26.44388888888889</v>
+        <v>-21.55611111111111</v>
       </c>
       <c r="S453" s="2">
         <v>44505.48263888889</v>
@@ -38043,7 +38043,7 @@
         <v>44508.65754629629</v>
       </c>
       <c r="U453">
-        <v>31.19777777777777</v>
+        <v>-16.80222222222223</v>
       </c>
       <c r="V453" s="2">
         <v>44505.43295138889</v>
@@ -38061,7 +38061,7 @@
         <v>44508.65754629629</v>
       </c>
       <c r="AA453">
-        <v>32.39027777777778</v>
+        <v>-15.60972222222222</v>
       </c>
     </row>
     <row r="454" spans="1:27">
@@ -38692,7 +38692,7 @@
         <v>6.278611111111111</v>
       </c>
       <c r="P461">
-        <v>22.55555555555556</v>
+        <v>-25.44444444444444</v>
       </c>
       <c r="Q461" t="s">
         <v>27</v>
@@ -38707,7 +38707,7 @@
         <v>44508.61811342592</v>
       </c>
       <c r="U461">
-        <v>34.41805555555555</v>
+        <v>-13.58194444444445</v>
       </c>
       <c r="V461" s="2">
         <v>44504.61042824074</v>
@@ -38716,7 +38716,7 @@
         <v>44509.36395833334</v>
       </c>
       <c r="X461">
-        <v>39.08472222222223</v>
+        <v>-8.915277777777774</v>
       </c>
       <c r="Y461" s="2">
         <v>44504.61042824074</v>
@@ -38725,7 +38725,7 @@
         <v>44509.36395833334</v>
       </c>
       <c r="AA461">
-        <v>39.08472222222223</v>
+        <v>-8.915277777777774</v>
       </c>
     </row>
     <row r="462" spans="1:27">
@@ -38799,7 +38799,7 @@
         <v>44510.62535879629</v>
       </c>
       <c r="X462">
-        <v>48.09861111111111</v>
+        <v>0.09861111111111143</v>
       </c>
       <c r="Y462" s="2">
         <v>44505.49625</v>
@@ -38808,7 +38808,7 @@
         <v>44511.41953703704</v>
       </c>
       <c r="AA462">
-        <v>52.1588888888889</v>
+        <v>4.158888888888896</v>
       </c>
     </row>
     <row r="463" spans="1:27">
@@ -38843,7 +38843,7 @@
         <v>0</v>
       </c>
       <c r="K463">
-        <v>51.59305555555557</v>
+        <v>3.593055555555566</v>
       </c>
       <c r="L463">
         <v>0</v>
@@ -38864,7 +38864,7 @@
         <v>27</v>
       </c>
       <c r="R463">
-        <v>51.60805555555557</v>
+        <v>3.608055555555566</v>
       </c>
       <c r="S463" s="2">
         <v>44509.49582175926</v>
@@ -38873,7 +38873,7 @@
         <v>44515.39615740741</v>
       </c>
       <c r="U463">
-        <v>51.60805555555555</v>
+        <v>3.608055555555552</v>
       </c>
       <c r="V463" s="2">
         <v>44509.32438657407</v>
@@ -38882,7 +38882,7 @@
         <v>44518.49701388889</v>
       </c>
       <c r="X463">
-        <v>85.14305555555555</v>
+        <v>37.14305555555555</v>
       </c>
       <c r="Y463" s="2">
         <v>44509.32438657407</v>
@@ -38891,7 +38891,7 @@
         <v>44518.49701388889</v>
       </c>
       <c r="AA463">
-        <v>85.14305555555555</v>
+        <v>37.14305555555555</v>
       </c>
     </row>
     <row r="464" spans="1:27">
@@ -39347,7 +39347,7 @@
         <v>1.25</v>
       </c>
       <c r="M469">
-        <v>32.58666666666667</v>
+        <v>-15.41333333333333</v>
       </c>
       <c r="N469">
         <v>1.663333333333333</v>
@@ -39362,7 +39362,7 @@
         <v>27</v>
       </c>
       <c r="R469">
-        <v>40.78083333333334</v>
+        <v>-7.219166666666661</v>
       </c>
       <c r="S469" s="2">
         <v>44511.38541666666</v>
@@ -39371,7 +39371,7 @@
         <v>44515.73645833333</v>
       </c>
       <c r="U469">
-        <v>44.425</v>
+        <v>-3.575000000000003</v>
       </c>
       <c r="V469" s="2">
         <v>44510.39648148148</v>
@@ -39389,7 +39389,7 @@
         <v>44515.73645833333</v>
       </c>
       <c r="AA469">
-        <v>53.15944444444443</v>
+        <v>5.159444444444432</v>
       </c>
     </row>
     <row r="470" spans="1:27">
@@ -39430,7 +39430,7 @@
         <v>1.25</v>
       </c>
       <c r="M470">
-        <v>34.25777777777778</v>
+        <v>-13.74222222222222</v>
       </c>
       <c r="N470">
         <v>1.254444444444444</v>
@@ -39445,7 +39445,7 @@
         <v>27</v>
       </c>
       <c r="R470">
-        <v>41.0675</v>
+        <v>-6.932500000000003</v>
       </c>
       <c r="S470" s="2">
         <v>44511.38541666666</v>
@@ -39454,7 +39454,7 @@
         <v>44515.7246875</v>
       </c>
       <c r="U470">
-        <v>44.1425</v>
+        <v>-3.857500000000002</v>
       </c>
       <c r="V470" s="2">
         <v>44511.48618055557</v>
@@ -39472,7 +39472,7 @@
         <v>44515.7246875</v>
       </c>
       <c r="AA470">
-        <v>44.1425</v>
+        <v>-3.857500000000002</v>
       </c>
     </row>
     <row r="471" spans="1:27">
@@ -39712,7 +39712,7 @@
         <v>44396.52447916667</v>
       </c>
       <c r="X473">
-        <v>25.70222222222222</v>
+        <v>-22.29777777777778</v>
       </c>
       <c r="Y473" s="2">
         <v>44393.57855324074</v>
@@ -39721,7 +39721,7 @@
         <v>44396.89040509259</v>
       </c>
       <c r="AA473">
-        <v>34.48444444444445</v>
+        <v>-13.51555555555555</v>
       </c>
     </row>
     <row r="474" spans="1:27">
@@ -39934,7 +39934,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="O476">
-        <v>54.63388888888889</v>
+        <v>6.63388888888889</v>
       </c>
       <c r="P476">
         <v>0</v>
@@ -39943,7 +39943,7 @@
         <v>27</v>
       </c>
       <c r="R476">
-        <v>54.63388888888889</v>
+        <v>6.63388888888889</v>
       </c>
       <c r="S476" s="2">
         <v>44399.59398148148</v>
@@ -39952,7 +39952,7 @@
         <v>44405.66483796296</v>
       </c>
       <c r="U476">
-        <v>55.70055555555555</v>
+        <v>7.700555555555553</v>
       </c>
       <c r="V476" s="2">
         <v>44399.3565625</v>
@@ -39970,7 +39970,7 @@
         <v>44405.66483796296</v>
       </c>
       <c r="AA476">
-        <v>61.39861111111111</v>
+        <v>13.39861111111111</v>
       </c>
     </row>
     <row r="477" spans="1:27">
@@ -40266,7 +40266,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="O480">
-        <v>77.41583333333332</v>
+        <v>29.41583333333332</v>
       </c>
       <c r="P480">
         <v>0</v>
@@ -40275,7 +40275,7 @@
         <v>27</v>
       </c>
       <c r="R480">
-        <v>77.41583333333332</v>
+        <v>29.41583333333332</v>
       </c>
       <c r="S480" s="2">
         <v>44399.59398148148</v>
@@ -40284,7 +40284,7 @@
         <v>44407.86408564815</v>
       </c>
       <c r="U480">
-        <v>78.48249999999999</v>
+        <v>30.48249999999999</v>
       </c>
       <c r="V480" s="2">
         <v>44397.60777777778</v>
@@ -40293,7 +40293,7 @@
         <v>44407.55546296296</v>
       </c>
       <c r="X480">
-        <v>88.74444444444444</v>
+        <v>40.74444444444444</v>
       </c>
       <c r="Y480" s="2">
         <v>44397.60777777778</v>
@@ -40302,7 +40302,7 @@
         <v>44407.86408564815</v>
       </c>
       <c r="AA480">
-        <v>96.1513888888889</v>
+        <v>48.1513888888889</v>
       </c>
     </row>
     <row r="481" spans="1:27">
@@ -40349,7 +40349,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="O481">
-        <v>31.39277777777778</v>
+        <v>-16.60722222222222</v>
       </c>
       <c r="P481">
         <v>0.1666666666666667</v>
@@ -40358,7 +40358,7 @@
         <v>27</v>
       </c>
       <c r="R481">
-        <v>34.71194444444445</v>
+        <v>-13.28805555555555</v>
       </c>
       <c r="S481" s="2">
         <v>44385.59086805556</v>
@@ -40367,7 +40367,7 @@
         <v>44389.59275462963</v>
       </c>
       <c r="U481">
-        <v>36.04527777777778</v>
+        <v>-11.95472222222222</v>
       </c>
       <c r="V481" s="2">
         <v>44385.30208333334</v>
@@ -40385,7 +40385,7 @@
         <v>44389.59275462963</v>
       </c>
       <c r="AA481">
-        <v>42.97583333333333</v>
+        <v>-5.024166666666673</v>
       </c>
     </row>
     <row r="482" spans="1:27">
@@ -40595,10 +40595,10 @@
         <v>5.737222222222222</v>
       </c>
       <c r="N484">
-        <v>65.02527777777777</v>
+        <v>17.02527777777777</v>
       </c>
       <c r="O484">
-        <v>-54.58305555555555</v>
+        <v>-6.583055555555546</v>
       </c>
       <c r="P484">
         <v>21.39111111111111</v>
@@ -40607,7 +40607,7 @@
         <v>27</v>
       </c>
       <c r="R484">
-        <v>-48.84583333333332</v>
+        <v>-0.8458333333333243</v>
       </c>
       <c r="S484" s="2">
         <v>44389.31944444445</v>
@@ -40616,7 +40616,7 @@
         <v>44397.31302083333</v>
       </c>
       <c r="U484">
-        <v>71.84583333333333</v>
+        <v>23.84583333333333</v>
       </c>
       <c r="V484" s="2">
         <v>44386.61644675926</v>
@@ -40625,7 +40625,7 @@
         <v>44389.38743055556</v>
       </c>
       <c r="X484">
-        <v>21.50361111111111</v>
+        <v>-26.49638888888889</v>
       </c>
       <c r="Y484" s="2">
         <v>44386.61644675926</v>
@@ -40634,7 +40634,7 @@
         <v>44397.31302083333</v>
       </c>
       <c r="AA484">
-        <v>91.71777777777777</v>
+        <v>-4.282222222222231</v>
       </c>
     </row>
     <row r="485" spans="1:27">
@@ -40708,7 +40708,7 @@
         <v>44404.37290509259</v>
       </c>
       <c r="X485">
-        <v>39.22083333333333</v>
+        <v>-8.779166666666669</v>
       </c>
       <c r="Y485" s="2">
         <v>44398.41071759259</v>
@@ -40717,7 +40717,7 @@
         <v>44404.37290509259</v>
       </c>
       <c r="AA485">
-        <v>53.0925</v>
+        <v>5.092500000000001</v>
       </c>
     </row>
     <row r="486" spans="1:27">
@@ -40933,7 +40933,7 @@
         <v>9.221388888888889</v>
       </c>
       <c r="P488">
-        <v>44.82611111111112</v>
+        <v>-3.173888888888882</v>
       </c>
       <c r="Q488" t="s">
         <v>27</v>
@@ -40948,7 +40948,7 @@
         <v>44397.82489583334</v>
       </c>
       <c r="U488">
-        <v>61.79750000000001</v>
+        <v>13.79750000000001</v>
       </c>
       <c r="V488" s="2">
         <v>44390.51575231483</v>
@@ -40966,7 +40966,7 @@
         <v>44397.82489583334</v>
       </c>
       <c r="AA488">
-        <v>70.41916666666665</v>
+        <v>22.41916666666665</v>
       </c>
     </row>
     <row r="489" spans="1:27">
@@ -41016,7 +41016,7 @@
         <v>8.08</v>
       </c>
       <c r="P489">
-        <v>40.90583333333333</v>
+        <v>-7.094166666666666</v>
       </c>
       <c r="Q489" t="s">
         <v>27</v>
@@ -41031,7 +41031,7 @@
         <v>44398.61746527778</v>
       </c>
       <c r="U489">
-        <v>60.9025</v>
+        <v>12.9025</v>
       </c>
       <c r="V489" s="2">
         <v>44391.51472222222</v>
@@ -41049,7 +41049,7 @@
         <v>44398.61746527778</v>
       </c>
       <c r="AA489">
-        <v>65.46583333333334</v>
+        <v>17.46583333333334</v>
       </c>
     </row>
     <row r="490" spans="1:27">
@@ -41093,19 +41093,19 @@
         <v>1.172222222222222</v>
       </c>
       <c r="N490">
-        <v>24.00555555555556</v>
+        <v>-23.99444444444444</v>
       </c>
       <c r="O490">
-        <v>-14.94611111111111</v>
+        <v>33.05388888888889</v>
       </c>
       <c r="P490">
-        <v>42.84555555555556</v>
+        <v>-5.154444444444437</v>
       </c>
       <c r="Q490" t="s">
         <v>27</v>
       </c>
       <c r="R490">
-        <v>-13.77388888888889</v>
+        <v>34.22611111111112</v>
       </c>
       <c r="S490" s="2">
         <v>44393.32986111111</v>
@@ -41114,7 +41114,7 @@
         <v>44398.76710648148</v>
       </c>
       <c r="U490">
-        <v>55.49388888888888</v>
+        <v>7.493888888888875</v>
       </c>
       <c r="V490" s="2">
         <v>44392.39981481482</v>
@@ -41132,7 +41132,7 @@
         <v>44398.76710648148</v>
       </c>
       <c r="AA490">
-        <v>62.815</v>
+        <v>14.815</v>
       </c>
     </row>
     <row r="491" spans="1:27">
@@ -41289,7 +41289,7 @@
         <v>44404.37447916667</v>
       </c>
       <c r="X492">
-        <v>40.04194444444444</v>
+        <v>-7.958055555555561</v>
       </c>
       <c r="Y492" s="2">
         <v>44398.41071759259</v>
@@ -41298,7 +41298,7 @@
         <v>44404.37447916667</v>
       </c>
       <c r="AA492">
-        <v>53.13027777777779</v>
+        <v>5.130277777777792</v>
       </c>
     </row>
     <row r="493" spans="1:27">
@@ -41348,7 +41348,7 @@
         <v>7.212777777777778</v>
       </c>
       <c r="P493">
-        <v>22.6575</v>
+        <v>-25.3425</v>
       </c>
       <c r="Q493" t="s">
         <v>27</v>
@@ -41363,7 +41363,7 @@
         <v>44431.74806712963</v>
       </c>
       <c r="U493">
-        <v>34.12027777777777</v>
+        <v>-13.87972222222223</v>
       </c>
       <c r="V493" s="2">
         <v>44427.38806712963</v>
@@ -41381,7 +41381,7 @@
         <v>44431.74806712963</v>
       </c>
       <c r="AA493">
-        <v>44.64</v>
+        <v>-3.359999999999999</v>
       </c>
     </row>
     <row r="494" spans="1:27">
@@ -41680,7 +41680,7 @@
         <v>7.737777777777778</v>
       </c>
       <c r="P497">
-        <v>26.92388888888888</v>
+        <v>-21.07611111111112</v>
       </c>
       <c r="Q497" t="s">
         <v>27</v>
@@ -41695,7 +41695,7 @@
         <v>44438.69446759259</v>
       </c>
       <c r="U497">
-        <v>42.66166666666666</v>
+        <v>-5.338333333333338</v>
       </c>
       <c r="V497" s="2">
         <v>44433.5059837963</v>
@@ -41713,7 +41713,7 @@
         <v>44438.69446759259</v>
       </c>
       <c r="AA497">
-        <v>49.52361111111111</v>
+        <v>1.523611111111109</v>
       </c>
     </row>
     <row r="498" spans="1:27">
@@ -42036,7 +42036,7 @@
         <v>44417.41103009259</v>
       </c>
       <c r="X501">
-        <v>29.24138888888889</v>
+        <v>-18.75861111111111</v>
       </c>
       <c r="Y501" s="2">
         <v>44414.31763888889</v>
@@ -42045,7 +42045,7 @@
         <v>44418.66509259259</v>
       </c>
       <c r="AA501">
-        <v>44.33888888888889</v>
+        <v>-3.661111111111111</v>
       </c>
     </row>
     <row r="502" spans="1:27">
@@ -42089,7 +42089,7 @@
         <v>0.6755555555555556</v>
       </c>
       <c r="N502">
-        <v>19.86666666666667</v>
+        <v>-28.13333333333333</v>
       </c>
       <c r="O502">
         <v>8.749444444444444</v>
@@ -42110,7 +42110,7 @@
         <v>44411.65693287037</v>
       </c>
       <c r="U502">
-        <v>41.26638888888888</v>
+        <v>-6.733611111111117</v>
       </c>
       <c r="V502" s="2">
         <v>44406.35565972222</v>
@@ -42128,7 +42128,7 @@
         <v>44411.65693287037</v>
       </c>
       <c r="AA502">
-        <v>52.23055555555555</v>
+        <v>4.230555555555554</v>
       </c>
     </row>
     <row r="503" spans="1:27">
@@ -42211,7 +42211,7 @@
         <v>44424.80021990741</v>
       </c>
       <c r="AA503">
-        <v>59.32666666666665</v>
+        <v>11.32666666666665</v>
       </c>
     </row>
     <row r="504" spans="1:27">
@@ -42285,7 +42285,7 @@
         <v>44424.50623842593</v>
       </c>
       <c r="X504">
-        <v>36.04722222222222</v>
+        <v>-11.95277777777778</v>
       </c>
       <c r="Y504" s="2">
         <v>44420.50427083333</v>
@@ -42294,7 +42294,7 @@
         <v>44425.57223379629</v>
       </c>
       <c r="AA504">
-        <v>46.63111111111111</v>
+        <v>-1.36888888888889</v>
       </c>
     </row>
     <row r="505" spans="1:27">
@@ -42501,7 +42501,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M507">
-        <v>102.5</v>
+        <v>6.5</v>
       </c>
       <c r="N507">
         <v>3.283333333333335</v>
@@ -42516,7 +42516,7 @@
         <v>27</v>
       </c>
       <c r="R507">
-        <v>103.1666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="S507" s="2">
         <v>44435.38333333333</v>
@@ -42525,7 +42525,7 @@
         <v>44447.39444444444</v>
       </c>
       <c r="U507">
-        <v>108.2666666666667</v>
+        <v>12.26666666666665</v>
       </c>
       <c r="V507" s="2">
         <v>44438.60945601852</v>
@@ -42543,7 +42543,7 @@
         <v>44447.39444444444</v>
       </c>
       <c r="AA507">
-        <v>108.2666666666667</v>
+        <v>12.26666666666665</v>
       </c>
     </row>
     <row r="508" spans="1:27">
@@ -42584,10 +42584,10 @@
         <v>1</v>
       </c>
       <c r="M508">
-        <v>62.5</v>
+        <v>14.5</v>
       </c>
       <c r="N508">
-        <v>37.83333333333333</v>
+        <v>-10.16666666666667</v>
       </c>
       <c r="O508">
         <v>0.5666666666666667</v>
@@ -42599,7 +42599,7 @@
         <v>27</v>
       </c>
       <c r="R508">
-        <v>63.15000000000001</v>
+        <v>15.15</v>
       </c>
       <c r="S508" s="2">
         <v>44435.34722222222</v>
@@ -42608,7 +42608,7 @@
         <v>44446.47569444445</v>
       </c>
       <c r="U508">
-        <v>102.0833333333333</v>
+        <v>6.083333333333314</v>
       </c>
       <c r="V508" s="2">
         <v>44438.6098726852</v>
@@ -42626,7 +42626,7 @@
         <v>44446.47569444445</v>
       </c>
       <c r="AA508">
-        <v>102.0833333333333</v>
+        <v>6.083333333333314</v>
       </c>
     </row>
     <row r="509" spans="1:27">
@@ -42709,7 +42709,7 @@
         <v>44449.6456712963</v>
       </c>
       <c r="AA509">
-        <v>66.5338888888889</v>
+        <v>18.5338888888889</v>
       </c>
     </row>
     <row r="510" spans="1:27">
@@ -42756,7 +42756,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="O510">
-        <v>36.24805555555555</v>
+        <v>-11.75194444444445</v>
       </c>
       <c r="P510">
         <v>0.9355555555555556</v>
@@ -42765,7 +42765,7 @@
         <v>27</v>
       </c>
       <c r="R510">
-        <v>36.26416666666666</v>
+        <v>-11.73583333333334</v>
       </c>
       <c r="S510" s="2">
         <v>44448.54861111111</v>
@@ -42774,7 +42774,7 @@
         <v>44452.65068287037</v>
       </c>
       <c r="U510">
-        <v>38.44972222222222</v>
+        <v>-9.550277777777779</v>
       </c>
       <c r="V510" s="2">
         <v>44448.42402777778</v>
@@ -42792,7 +42792,7 @@
         <v>44452.65068287037</v>
       </c>
       <c r="AA510">
-        <v>41.43972222222223</v>
+        <v>-6.56027777777777</v>
       </c>
     </row>
     <row r="511" spans="1:27">
@@ -42839,7 +42839,7 @@
         <v>0.8</v>
       </c>
       <c r="O511">
-        <v>-38.3</v>
+        <v>9.700000000000003</v>
       </c>
       <c r="P511">
         <v>0</v>
@@ -42848,7 +42848,7 @@
         <v>27</v>
       </c>
       <c r="R511">
-        <v>-37.8</v>
+        <v>10.2</v>
       </c>
       <c r="S511" s="2">
         <v>44498</v>
@@ -42857,7 +42857,7 @@
         <v>44501.47083333333</v>
       </c>
       <c r="U511">
-        <v>38.3</v>
+        <v>-9.700000000000003</v>
       </c>
       <c r="V511" s="2">
         <v>44498.37011574074</v>
@@ -42875,7 +42875,7 @@
         <v>44501.47083333333</v>
       </c>
       <c r="AA511">
-        <v>38.3</v>
+        <v>-9.700000000000003</v>
       </c>
     </row>
     <row r="512" spans="1:27">
@@ -42922,7 +42922,7 @@
         <v>1.483333333333333</v>
       </c>
       <c r="O512">
-        <v>45.15666666666667</v>
+        <v>-2.843333333333334</v>
       </c>
       <c r="P512">
         <v>0</v>
@@ -42931,7 +42931,7 @@
         <v>27</v>
       </c>
       <c r="R512">
-        <v>45.75611111111111</v>
+        <v>-2.243888888888889</v>
       </c>
       <c r="S512" s="2">
         <v>44455.44791666666</v>
@@ -42940,7 +42940,7 @@
         <v>44459.93011574074</v>
       </c>
       <c r="U512">
-        <v>47.57277777777777</v>
+        <v>-0.4272222222222268</v>
       </c>
       <c r="V512" s="2">
         <v>44455.4186574074</v>
@@ -42958,7 +42958,7 @@
         <v>44459.93011574074</v>
       </c>
       <c r="AA512">
-        <v>48.27500000000001</v>
+        <v>0.2750000000000057</v>
       </c>
     </row>
     <row r="513" spans="1:27">
@@ -43005,7 +43005,7 @@
         <v>2.5</v>
       </c>
       <c r="O513">
-        <v>68.13527777777779</v>
+        <v>20.13527777777779</v>
       </c>
       <c r="P513">
         <v>7.989444444444445</v>
@@ -43014,7 +43014,7 @@
         <v>27</v>
       </c>
       <c r="R513">
-        <v>82.31750000000001</v>
+        <v>34.31750000000001</v>
       </c>
       <c r="S513" s="2">
         <v>44494.57638888889</v>
@@ -43023,7 +43023,7 @@
         <v>44505.38084490741</v>
       </c>
       <c r="U513">
-        <v>94.30694444444447</v>
+        <v>46.30694444444447</v>
       </c>
       <c r="V513" s="2">
         <v>44494.36631944445</v>
@@ -43041,7 +43041,7 @@
         <v>44505.38084490741</v>
       </c>
       <c r="AA513">
-        <v>99.34833333333336</v>
+        <v>51.34833333333336</v>
       </c>
     </row>
     <row r="514" spans="1:27">
@@ -43088,7 +43088,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O514">
-        <v>26.31527777777778</v>
+        <v>-21.68472222222222</v>
       </c>
       <c r="P514">
         <v>0.1666666666666667</v>
@@ -43097,7 +43097,7 @@
         <v>27</v>
       </c>
       <c r="R514">
-        <v>26.31861111111111</v>
+        <v>-21.68138888888889</v>
       </c>
       <c r="S514" s="2">
         <v>44470.41707175926</v>
@@ -43106,7 +43106,7 @@
         <v>44473.42131944445</v>
       </c>
       <c r="U514">
-        <v>27.10194444444444</v>
+        <v>-20.89805555555556</v>
       </c>
       <c r="V514" s="2">
         <v>44470.41481481482</v>
@@ -43124,7 +43124,7 @@
         <v>44473.42131944445</v>
       </c>
       <c r="AA514">
-        <v>27.15583333333333</v>
+        <v>-20.84416666666667</v>
       </c>
     </row>
     <row r="515" spans="1:27">
@@ -43254,7 +43254,7 @@
         <v>0.7922222222222223</v>
       </c>
       <c r="O516">
-        <v>45.50444444444445</v>
+        <v>-2.495555555555555</v>
       </c>
       <c r="P516">
         <v>0</v>
@@ -43263,7 +43263,7 @@
         <v>27</v>
       </c>
       <c r="R516">
-        <v>47.77</v>
+        <v>-0.2300000000000004</v>
       </c>
       <c r="S516" s="2">
         <v>44467.61805555555</v>
@@ -43272,7 +43272,7 @@
         <v>44473.40189814815</v>
       </c>
       <c r="U516">
-        <v>48.81222222222223</v>
+        <v>0.8122222222222319</v>
       </c>
       <c r="V516" s="2">
         <v>44466.51920138889</v>
@@ -43290,7 +43290,7 @@
         <v>44473.40189814815</v>
       </c>
       <c r="AA516">
-        <v>60.18472222222223</v>
+        <v>12.18472222222223</v>
       </c>
     </row>
     <row r="517" spans="1:27">
@@ -43622,7 +43622,7 @@
         <v>44439.85989583333</v>
       </c>
       <c r="AA520">
-        <v>42.55666666666667</v>
+        <v>-5.443333333333328</v>
       </c>
     </row>
     <row r="521" spans="1:27">
@@ -43669,7 +43669,7 @@
         <v>0.5</v>
       </c>
       <c r="O521">
-        <v>35.40638888888888</v>
+        <v>-12.59361111111112</v>
       </c>
       <c r="P521">
         <v>16.45055555555556</v>
@@ -43678,7 +43678,7 @@
         <v>27</v>
       </c>
       <c r="R521">
-        <v>36.75222222222222</v>
+        <v>-11.24777777777778</v>
       </c>
       <c r="S521" s="2">
         <v>44455.37152777778</v>
@@ -43687,7 +43687,7 @@
         <v>44460.75497685185</v>
       </c>
       <c r="U521">
-        <v>54.20277777777778</v>
+        <v>6.202777777777783</v>
       </c>
       <c r="V521" s="2">
         <v>44455.32496527778</v>
@@ -43705,7 +43705,7 @@
         <v>44460.75497685185</v>
       </c>
       <c r="AA521">
-        <v>55.32027777777779</v>
+        <v>7.32027777777779</v>
       </c>
     </row>
     <row r="522" spans="1:27">
@@ -43779,7 +43779,7 @@
         <v>44461.43753472222</v>
       </c>
       <c r="X522">
-        <v>47.67861111111111</v>
+        <v>-0.3213888888888903</v>
       </c>
       <c r="Y522" s="2">
         <v>44456.32592592593</v>
@@ -43788,7 +43788,7 @@
         <v>44463.31597222222</v>
       </c>
       <c r="AA522">
-        <v>62.76111111111112</v>
+        <v>14.76111111111112</v>
       </c>
     </row>
     <row r="523" spans="1:27">
@@ -43829,7 +43829,7 @@
         <v>1.491666666666667</v>
       </c>
       <c r="M523">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="N523">
         <v>27.06166666666667</v>
@@ -43844,7 +43844,7 @@
         <v>27</v>
       </c>
       <c r="R523">
-        <v>36.56666666666666</v>
+        <v>-11.43333333333333</v>
       </c>
       <c r="S523" s="2">
         <v>44456.37555555555</v>
@@ -43853,7 +43853,7 @@
         <v>44463.48194444444</v>
       </c>
       <c r="U523">
-        <v>65.55333333333334</v>
+        <v>17.55333333333334</v>
       </c>
       <c r="V523" s="2">
         <v>44456.3290625</v>
@@ -43862,7 +43862,7 @@
         <v>44462.63966435185</v>
       </c>
       <c r="X523">
-        <v>61.45444444444445</v>
+        <v>13.45444444444445</v>
       </c>
       <c r="Y523" s="2">
         <v>44456.3290625</v>
@@ -43871,7 +43871,7 @@
         <v>44463.48194444444</v>
       </c>
       <c r="AA523">
-        <v>66.66916666666665</v>
+        <v>18.66916666666665</v>
       </c>
     </row>
     <row r="524" spans="1:27">
@@ -43918,7 +43918,7 @@
         <v>1.483333333333333</v>
       </c>
       <c r="O524">
-        <v>56.21944444444443</v>
+        <v>8.219444444444434</v>
       </c>
       <c r="P524">
         <v>0</v>
@@ -43927,7 +43927,7 @@
         <v>27</v>
       </c>
       <c r="R524">
-        <v>56.47444444444444</v>
+        <v>8.474444444444435</v>
       </c>
       <c r="S524" s="2">
         <v>44455.46527777778</v>
@@ -43936,7 +43936,7 @@
         <v>44461.64060185185</v>
       </c>
       <c r="U524">
-        <v>58.20777777777778</v>
+        <v>10.20777777777778</v>
       </c>
       <c r="V524" s="2">
         <v>44455.35997685185</v>
@@ -43954,7 +43954,7 @@
         <v>44461.64060185185</v>
       </c>
       <c r="AA524">
-        <v>60.73500000000001</v>
+        <v>12.73500000000001</v>
       </c>
     </row>
     <row r="525" spans="1:27">
@@ -44001,7 +44001,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="O525">
-        <v>35.71944444444445</v>
+        <v>-12.28055555555555</v>
       </c>
       <c r="P525">
         <v>0</v>
@@ -44010,7 +44010,7 @@
         <v>27</v>
       </c>
       <c r="R525">
-        <v>36.05277777777778</v>
+        <v>-11.94722222222222</v>
       </c>
       <c r="S525" s="2">
         <v>44455.42708333334</v>
@@ -44019,7 +44019,7 @@
         <v>44459.48136574074</v>
       </c>
       <c r="U525">
-        <v>37.30277777777778</v>
+        <v>-10.69722222222222</v>
       </c>
       <c r="V525" s="2">
         <v>44455.33895833332</v>
@@ -44037,7 +44037,7 @@
         <v>44459.48136574074</v>
       </c>
       <c r="AA525">
-        <v>39.41777777777777</v>
+        <v>-8.582222222222228</v>
       </c>
     </row>
     <row r="526" spans="1:27">
@@ -44250,7 +44250,7 @@
         <v>1</v>
       </c>
       <c r="O528">
-        <v>58.98638888888888</v>
+        <v>10.98638888888888</v>
       </c>
       <c r="P528">
         <v>2.766388888888889</v>
@@ -44259,7 +44259,7 @@
         <v>27</v>
       </c>
       <c r="R528">
-        <v>59.19305555555555</v>
+        <v>11.19305555555555</v>
       </c>
       <c r="S528" s="2">
         <v>44454.44972222222</v>
@@ -44268,7 +44268,7 @@
         <v>44460.82303240741</v>
       </c>
       <c r="U528">
-        <v>62.95944444444444</v>
+        <v>14.95944444444444</v>
       </c>
       <c r="V528" s="2">
         <v>44454.49253472222</v>
@@ -44286,7 +44286,7 @@
         <v>44460.82303240741</v>
       </c>
       <c r="AA528">
-        <v>62.95944444444444</v>
+        <v>14.95944444444444</v>
       </c>
     </row>
     <row r="529" spans="1:27">
@@ -44333,7 +44333,7 @@
         <v>3.25</v>
       </c>
       <c r="O529">
-        <v>47.84583333333333</v>
+        <v>-0.1541666666666686</v>
       </c>
       <c r="P529">
         <v>0</v>
@@ -44342,7 +44342,7 @@
         <v>27</v>
       </c>
       <c r="R529">
-        <v>59.42916666666667</v>
+        <v>11.42916666666667</v>
       </c>
       <c r="S529" s="2">
         <v>44455</v>
@@ -44351,7 +44351,7 @@
         <v>44460.73663194444</v>
       </c>
       <c r="U529">
-        <v>62.67916666666667</v>
+        <v>14.67916666666667</v>
       </c>
       <c r="V529" s="2">
         <v>44455.6084375</v>
@@ -44369,7 +44369,7 @@
         <v>44460.73663194444</v>
       </c>
       <c r="AA529">
-        <v>62.67916666666667</v>
+        <v>14.67916666666667</v>
       </c>
     </row>
     <row r="530" spans="1:27">
@@ -44748,7 +44748,7 @@
         <v>1.521111111111111</v>
       </c>
       <c r="O534">
-        <v>29.40222222222222</v>
+        <v>-18.59777777777778</v>
       </c>
       <c r="P534">
         <v>15.34472222222222</v>
@@ -44757,7 +44757,7 @@
         <v>27</v>
       </c>
       <c r="R534">
-        <v>29.74333333333333</v>
+        <v>-18.25666666666667</v>
       </c>
       <c r="S534" s="2">
         <v>44449.37847222222</v>
@@ -44766,7 +44766,7 @@
         <v>44453.86565972222</v>
       </c>
       <c r="U534">
-        <v>47.6925</v>
+        <v>-0.3075000000000045</v>
       </c>
       <c r="V534" s="2">
         <v>44448.30221064815</v>
@@ -44784,7 +44784,7 @@
         <v>44453.86565972222</v>
       </c>
       <c r="AA534">
-        <v>58.52277777777778</v>
+        <v>10.52277777777778</v>
       </c>
     </row>
     <row r="535" spans="1:27">
@@ -44914,7 +44914,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="O536">
-        <v>33.40305555555555</v>
+        <v>-14.59694444444445</v>
       </c>
       <c r="P536">
         <v>0</v>
@@ -44923,7 +44923,7 @@
         <v>27</v>
       </c>
       <c r="R536">
-        <v>40.90305555555555</v>
+        <v>-7.096944444444446</v>
       </c>
       <c r="S536" s="2">
         <v>44462.4375</v>
@@ -44932,7 +44932,7 @@
         <v>44466.71123842592</v>
       </c>
       <c r="U536">
-        <v>42.56972222222223</v>
+        <v>-5.430277777777775</v>
       </c>
       <c r="V536" s="2">
         <v>44460.56194444445</v>
@@ -44950,7 +44950,7 @@
         <v>44466.71123842592</v>
       </c>
       <c r="AA536">
-        <v>57.58277777777778</v>
+        <v>9.582777777777778</v>
       </c>
     </row>
     <row r="537" spans="1:27">
@@ -45080,7 +45080,7 @@
         <v>2.058055555555556</v>
       </c>
       <c r="O538">
-        <v>23.27305555555556</v>
+        <v>-24.72694444444444</v>
       </c>
       <c r="P538">
         <v>0.3333333333333333</v>
@@ -45089,7 +45089,7 @@
         <v>27</v>
       </c>
       <c r="R538">
-        <v>23.94138888888889</v>
+        <v>-24.05861111111111</v>
       </c>
       <c r="S538" s="2">
         <v>44470.44097222222</v>
@@ -45098,7 +45098,7 @@
         <v>44473.42358796296</v>
       </c>
       <c r="U538">
-        <v>26.58277777777778</v>
+        <v>-21.41722222222222</v>
       </c>
       <c r="V538" s="2">
         <v>44470.39855324074</v>
@@ -45116,7 +45116,7 @@
         <v>44473.42358796296</v>
       </c>
       <c r="AA538">
-        <v>27.60083333333333</v>
+        <v>-20.39916666666667</v>
       </c>
     </row>
     <row r="539" spans="1:27">
@@ -45157,7 +45157,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="M539">
-        <v>21.34222222222222</v>
+        <v>-26.65777777777778</v>
       </c>
       <c r="N539">
         <v>0.65</v>
@@ -45172,7 +45172,7 @@
         <v>27</v>
       </c>
       <c r="R539">
-        <v>37.69166666666666</v>
+        <v>-10.30833333333334</v>
       </c>
       <c r="S539" s="2">
         <v>44470.49305555555</v>
@@ -45181,7 +45181,7 @@
         <v>44474.65173611111</v>
       </c>
       <c r="U539">
-        <v>39.80833333333334</v>
+        <v>-8.191666666666663</v>
       </c>
       <c r="V539" s="2">
         <v>44470.35016203704</v>
@@ -45199,7 +45199,7 @@
         <v>44474.65173611111</v>
       </c>
       <c r="AA539">
-        <v>43.23777777777778</v>
+        <v>-4.762222222222221</v>
       </c>
     </row>
     <row r="540" spans="1:27">
@@ -45234,7 +45234,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="M540">
-        <v>67.66666666666666</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="N540">
         <v>2.75</v>
@@ -45243,7 +45243,7 @@
         <v>27</v>
       </c>
       <c r="R540">
-        <v>67.66666666666666</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="S540" s="2">
         <v>44501.33680555555</v>
@@ -45252,7 +45252,7 @@
         <v>44509.32291666666</v>
       </c>
       <c r="U540">
-        <v>71.66666666666666</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="V540" s="2">
         <v>44498.3714699074</v>
@@ -45261,7 +45261,7 @@
         <v>44501.33068287037</v>
       </c>
       <c r="X540">
-        <v>26.02111111111111</v>
+        <v>-21.97888888888889</v>
       </c>
       <c r="Y540" s="2">
         <v>44498.3714699074</v>
@@ -45270,7 +45270,7 @@
         <v>44509.32291666666</v>
       </c>
       <c r="AA540">
-        <v>97.83472222222224</v>
+        <v>1.83472222222224</v>
       </c>
     </row>
     <row r="541" spans="1:27">
@@ -45311,7 +45311,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M541">
-        <v>67.25</v>
+        <v>19.25</v>
       </c>
       <c r="N541">
         <v>2.333333333333332</v>
@@ -45326,7 +45326,7 @@
         <v>27</v>
       </c>
       <c r="R541">
-        <v>91.23472222222222</v>
+        <v>43.23472222222222</v>
       </c>
       <c r="S541" s="2">
         <v>44501.42013888889</v>
@@ -45335,7 +45335,7 @@
         <v>44511.58616898148</v>
       </c>
       <c r="U541">
-        <v>93.98472222222222</v>
+        <v>45.98472222222222</v>
       </c>
       <c r="V541" s="2">
         <v>44501.31351851852</v>
@@ -45344,7 +45344,7 @@
         <v>44509.30599537037</v>
       </c>
       <c r="X541">
-        <v>71.81944444444446</v>
+        <v>23.81944444444446</v>
       </c>
       <c r="Y541" s="2">
         <v>44501.31351851852</v>
@@ -45353,7 +45353,7 @@
         <v>44511.58616898148</v>
       </c>
       <c r="AA541">
-        <v>96.54361111111112</v>
+        <v>48.54361111111112</v>
       </c>
     </row>
     <row r="542" spans="1:27">
@@ -45593,7 +45593,7 @@
         <v>44481.57153935185</v>
       </c>
       <c r="X544">
-        <v>69.50916666666666</v>
+        <v>21.50916666666666</v>
       </c>
       <c r="Y544" s="2">
         <v>44474.30032407407</v>
@@ -45602,7 +45602,7 @@
         <v>44481.57153935185</v>
       </c>
       <c r="AA544">
-        <v>69.50916666666666</v>
+        <v>21.50916666666666</v>
       </c>
     </row>
     <row r="545" spans="1:27">
@@ -45809,7 +45809,7 @@
         <v>2.253333333333333</v>
       </c>
       <c r="M547">
-        <v>22.23333333333333</v>
+        <v>-25.76666666666667</v>
       </c>
       <c r="N547">
         <v>0.1588888888888889</v>
@@ -45824,7 +45824,7 @@
         <v>27</v>
       </c>
       <c r="R547">
-        <v>30.71027777777778</v>
+        <v>-17.28972222222222</v>
       </c>
       <c r="S547" s="2">
         <v>44484.56296296296</v>
@@ -45833,7 +45833,7 @@
         <v>44487.81880787037</v>
       </c>
       <c r="U547">
-        <v>33.14027777777778</v>
+        <v>-14.85972222222222</v>
       </c>
       <c r="V547" s="2">
         <v>44483.60153935185</v>
@@ -45851,7 +45851,7 @@
         <v>44487.81880787037</v>
       </c>
       <c r="AA547">
-        <v>41.21444444444444</v>
+        <v>-6.785555555555561</v>
       </c>
     </row>
     <row r="548" spans="1:27">
@@ -45898,7 +45898,7 @@
         <v>1.75</v>
       </c>
       <c r="O548">
-        <v>70.20472222222222</v>
+        <v>22.20472222222222</v>
       </c>
       <c r="P548">
         <v>0.5333333333333333</v>
@@ -45907,7 +45907,7 @@
         <v>27</v>
       </c>
       <c r="R548">
-        <v>74.21666666666665</v>
+        <v>26.21666666666666</v>
       </c>
       <c r="S548" s="2">
         <v>44489.44444444445</v>
@@ -45916,7 +45916,7 @@
         <v>44497.64583333334</v>
       </c>
       <c r="U548">
-        <v>76.83333333333334</v>
+        <v>28.83333333333334</v>
       </c>
       <c r="V548" s="2">
         <v>44488.64109953704</v>
@@ -45934,7 +45934,7 @@
         <v>44497.64583333334</v>
       </c>
       <c r="AA548">
-        <v>81.11361111111111</v>
+        <v>33.11361111111111</v>
       </c>
     </row>
     <row r="549" spans="1:27">
@@ -45984,7 +45984,7 @@
         <v>15.46722222222222</v>
       </c>
       <c r="P549">
-        <v>134.4358333333333</v>
+        <v>38.43583333333333</v>
       </c>
       <c r="Q549" t="s">
         <v>27</v>
@@ -45999,7 +45999,7 @@
         <v>44505.8154050926</v>
       </c>
       <c r="U549">
-        <v>154.2363888888889</v>
+        <v>58.23638888888888</v>
       </c>
       <c r="V549" s="2">
         <v>44488.63385416667</v>
@@ -46017,7 +46017,7 @@
         <v>44505.8154050926</v>
       </c>
       <c r="AA549">
-        <v>157.3572222222222</v>
+        <v>61.35722222222222</v>
       </c>
     </row>
     <row r="550" spans="1:27">
@@ -46150,7 +46150,7 @@
         <v>13.29722222222222</v>
       </c>
       <c r="P551">
-        <v>123.0863888888889</v>
+        <v>27.08638888888891</v>
       </c>
       <c r="Q551" t="s">
         <v>27</v>
@@ -46165,7 +46165,7 @@
         <v>44504.68612268518</v>
       </c>
       <c r="U551">
-        <v>142.1336111111111</v>
+        <v>46.13361111111112</v>
       </c>
       <c r="V551" s="2">
         <v>44488.63148148148</v>
@@ -46183,7 +46183,7 @@
         <v>44504.68612268518</v>
       </c>
       <c r="AA551">
-        <v>145.3113888888889</v>
+        <v>49.31138888888887</v>
       </c>
     </row>
     <row r="552" spans="1:27">
@@ -46313,16 +46313,16 @@
         <v>24.41111111111111</v>
       </c>
       <c r="O553">
-        <v>39.78583333333333</v>
+        <v>-8.214166666666671</v>
       </c>
       <c r="P553">
-        <v>79.70527777777778</v>
+        <v>31.70527777777778</v>
       </c>
       <c r="Q553" t="s">
         <v>27</v>
       </c>
       <c r="R553">
-        <v>40.45249999999999</v>
+        <v>-7.547500000000004</v>
       </c>
       <c r="S553" s="2">
         <v>44495.33333333334</v>
@@ -46331,7 +46331,7 @@
         <v>44510.74592592593</v>
       </c>
       <c r="U553">
-        <v>144.9022222222222</v>
+        <v>48.90222222222224</v>
       </c>
       <c r="V553" s="2">
         <v>44494.48681712963</v>
@@ -46349,7 +46349,7 @@
         <v>44510.74592592593</v>
       </c>
       <c r="AA553">
-        <v>150.2186111111111</v>
+        <v>54.2186111111111</v>
       </c>
     </row>
     <row r="554" spans="1:27">
